--- a/Documents/Tax Checker.xlsx
+++ b/Documents/Tax Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\My Files\My-WorkFiles-Backup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E7F73-7E9F-4C26-AEB7-6C69EA1346AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DF03E5-EDA5-430B-A11D-90751C59649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47E34C20-F3B6-4417-B647-E842E10E84EB}"/>
   </bookViews>
@@ -1010,10 +1010,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4F2DD-03B4-4EB2-B799-B7EBE31253DA}">
   <dimension ref="A1:AR134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,10 @@
             OR(P2=0, P2=1),
             O2&lt;&gt;0
         ),
-        ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2),
+        IF(G2&gt;0,
+            ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100)-Q2), 2),
+            ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100)), 2)
+        ),
     "")</f>
         <v>121</v>
       </c>
@@ -1306,7 +1309,10 @@
             OR(P2=0,P2=1),
             O2&lt;&gt;0
         ),
-        ROUND(D2 * E2 * 1.12 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2),
+        IF(G2&gt;0,
+            ROUND((D2 * E2 * 1.12 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100)-Q2), 2),
+            ROUND(D2 * E2 * 1.12 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1317,7 +1323,10 @@
             OR(P2=0, P2=1),
             O2&lt;&gt;0
         ),
-        ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2),
+        IF(G2&gt;0,
+            ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100) - Q2), 2),
+            ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1328,7 +1337,10 @@
             OR(P2=0, P2=1),
             O2&lt;&gt;0
         ),
-        ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100), 2),
+        IF(G2&gt;0,
+            ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100) - Q2), 2),
+            ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1339,7 +1351,10 @@
             OR(P2=0, P2=1),
             O2&lt;&gt;0
         ),
-        ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2),
+        IF(G2&gt;0,
+            ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100) - Q2), 2),
+            ROUND(D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1372,7 +1387,7 @@
             / 1.12 + AK18
         )
     ), 2)</f>
-        <v>4769.96</v>
+        <v>4748.53</v>
       </c>
       <c r="AP2" s="6">
         <f>AK24
@@ -1488,7 +1503,10 @@
             OR(P3=0, P3=1),
             O3&lt;&gt;0
         ),
-        ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2),
+        IF(G3&gt;0,
+            ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100)-Q3), 2),
+            ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100)), 2)
+        ),
     "")</f>
         <v>16.75</v>
       </c>
@@ -1499,7 +1517,10 @@
             OR(P3=0,P3=1),
             O3&lt;&gt;0
         ),
-        ROUND(D3 * E3 * 1.12 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2),
+        IF(G3&gt;0,
+            ROUND((D3 * E3 * 1.12 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100)-Q3), 2),
+            ROUND(D3 * E3 * 1.12 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1510,7 +1531,10 @@
             OR(P3=0, P3=1),
             O3&lt;&gt;0
         ),
-        ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2),
+        IF(G3&gt;0,
+            ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100) - Q3), 2),
+            ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1521,7 +1545,10 @@
             OR(P3=0, P3=1),
             O3&lt;&gt;0
         ),
-        ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100), 2),
+        IF(G3&gt;0,
+            ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100) - Q3), 2),
+            ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1532,7 +1559,10 @@
             OR(P3=0, P3=1),
             O3&lt;&gt;0
         ),
-        ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2),
+        IF(G3&gt;0,
+            ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100) - Q3), 2),
+            ROUND(D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1622,7 +1652,10 @@
             OR(P4=0, P4=1),
             O4&lt;&gt;0
         ),
-        ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2),
+        IF(G4&gt;0,
+            ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100)-Q4), 2),
+            ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100)), 2)
+        ),
     "")</f>
         <v>84.5</v>
       </c>
@@ -1633,7 +1666,10 @@
             OR(P4=0,P4=1),
             O4&lt;&gt;0
         ),
-        ROUND(D4 * E4 * 1.12 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2),
+        IF(G4&gt;0,
+            ROUND((D4 * E4 * 1.12 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100)-Q4), 2),
+            ROUND(D4 * E4 * 1.12 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1644,7 +1680,10 @@
             OR(P4=0, P4=1),
             O4&lt;&gt;0
         ),
-        ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2),
+        IF(G4&gt;0,
+            ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100) - Q4), 2),
+            ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1655,7 +1694,10 @@
             OR(P4=0, P4=1),
             O4&lt;&gt;0
         ),
-        ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100), 2),
+        IF(G4&gt;0,
+            ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100) - Q4), 2),
+            ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1666,7 +1708,10 @@
             OR(P4=0, P4=1),
             O4&lt;&gt;0
         ),
-        ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2),
+        IF(G4&gt;0,
+            ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100) - Q4), 2),
+            ROUND(D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1678,7 +1723,7 @@
   ),
   2
 )</f>
-        <v>4769.96</v>
+        <v>4748.53</v>
       </c>
       <c r="AP4" s="3">
         <f>AK24 / AE3 * (AE3 - AE6)</f>
@@ -1757,7 +1802,10 @@
             OR(P5=0, P5=1),
             O5&lt;&gt;0
         ),
-        ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2),
+        IF(G5&gt;0,
+            ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100)-Q5), 2),
+            ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100)), 2)
+        ),
     "")</f>
         <v>37.4</v>
       </c>
@@ -1768,7 +1816,10 @@
             OR(P5=0,P5=1),
             O5&lt;&gt;0
         ),
-        ROUND(D5 * E5 * 1.12 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2),
+        IF(G5&gt;0,
+            ROUND((D5 * E5 * 1.12 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100)-Q5), 2),
+            ROUND(D5 * E5 * 1.12 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1779,7 +1830,10 @@
             OR(P5=0, P5=1),
             O5&lt;&gt;0
         ),
-        ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2),
+        IF(G5&gt;0,
+            ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100) - Q5), 2),
+            ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1790,7 +1844,10 @@
             OR(P5=0, P5=1),
             O5&lt;&gt;0
         ),
-        ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100), 2),
+        IF(G5&gt;0,
+            ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100) - Q5), 2),
+            ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1801,7 +1858,10 @@
             OR(P5=0, P5=1),
             O5&lt;&gt;0
         ),
-        ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2),
+        IF(G5&gt;0,
+            ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100) - Q5), 2),
+            ROUND(D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1887,7 +1947,10 @@
             OR(P6=0, P6=1),
             O6&lt;&gt;0
         ),
-        ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2),
+        IF(G6&gt;0,
+            ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100)-Q6), 2),
+            ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100)), 2)
+        ),
     "")</f>
         <v>38.75</v>
       </c>
@@ -1898,7 +1961,10 @@
             OR(P6=0,P6=1),
             O6&lt;&gt;0
         ),
-        ROUND(D6 * E6 * 1.12 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2),
+        IF(G6&gt;0,
+            ROUND((D6 * E6 * 1.12 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100)-Q6), 2),
+            ROUND(D6 * E6 * 1.12 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1909,7 +1975,10 @@
             OR(P6=0, P6=1),
             O6&lt;&gt;0
         ),
-        ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2),
+        IF(G6&gt;0,
+            ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100) - Q6), 2),
+            ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1920,7 +1989,10 @@
             OR(P6=0, P6=1),
             O6&lt;&gt;0
         ),
-        ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100), 2),
+        IF(G6&gt;0,
+            ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100) - Q6), 2),
+            ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1931,7 +2003,10 @@
             OR(P6=0, P6=1),
             O6&lt;&gt;0
         ),
-        ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2),
+        IF(G6&gt;0,
+            ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100) - Q6), 2),
+            ROUND(D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -1943,11 +2018,11 @@
       </c>
       <c r="AK6" s="5">
         <f xml:space="preserve"> (SUM(X:X))</f>
-        <v>5342.3500000000013</v>
+        <v>5318.3500000000013</v>
       </c>
       <c r="AO6" s="2">
         <f>ROUND(((AE6=0)*AK18) + ((AE6&lt;&gt;0)*((AK6 + AK9) / AE3 * AE6 / 1.12 + AK18)), 2)</f>
-        <v>4769.96</v>
+        <v>4748.53</v>
       </c>
       <c r="AP6" s="3">
         <f>(AK24)/AE3*(AE3-AE6-AE9)</f>
@@ -2022,7 +2097,10 @@
             OR(P7=0, P7=1),
             O7&lt;&gt;0
         ),
-        ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2),
+        IF(G7&gt;0,
+            ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100)-Q7), 2),
+            ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100)), 2)
+        ),
     "")</f>
         <v>74.75</v>
       </c>
@@ -2033,7 +2111,10 @@
             OR(P7=0,P7=1),
             O7&lt;&gt;0
         ),
-        ROUND(D7 * E7 * 1.12 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2),
+        IF(G7&gt;0,
+            ROUND((D7 * E7 * 1.12 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100)-Q7), 2),
+            ROUND(D7 * E7 * 1.12 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2044,7 +2125,10 @@
             OR(P7=0, P7=1),
             O7&lt;&gt;0
         ),
-        ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2),
+        IF(G7&gt;0,
+            ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100) - Q7), 2),
+            ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2055,7 +2139,10 @@
             OR(P7=0, P7=1),
             O7&lt;&gt;0
         ),
-        ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100), 2),
+        IF(G7&gt;0,
+            ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100) - Q7), 2),
+            ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2066,7 +2153,10 @@
             OR(P7=0, P7=1),
             O7&lt;&gt;0
         ),
-        ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2),
+        IF(G7&gt;0,
+            ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100) - Q7), 2),
+            ROUND(D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2139,7 +2229,10 @@
             OR(P8=0, P8=1),
             O8&lt;&gt;0
         ),
-        ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2),
+        IF(G8&gt;0,
+            ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100)-Q8), 2),
+            ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100)), 2)
+        ),
     "")</f>
         <v>56.2</v>
       </c>
@@ -2150,7 +2243,10 @@
             OR(P8=0,P8=1),
             O8&lt;&gt;0
         ),
-        ROUND(D8 * E8 * 1.12 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2),
+        IF(G8&gt;0,
+            ROUND((D8 * E8 * 1.12 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100)-Q8), 2),
+            ROUND(D8 * E8 * 1.12 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2161,7 +2257,10 @@
             OR(P8=0, P8=1),
             O8&lt;&gt;0
         ),
-        ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2),
+        IF(G8&gt;0,
+            ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100) - Q8), 2),
+            ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2172,7 +2271,10 @@
             OR(P8=0, P8=1),
             O8&lt;&gt;0
         ),
-        ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100), 2),
+        IF(G8&gt;0,
+            ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100) - Q8), 2),
+            ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2183,7 +2285,10 @@
             OR(P8=0, P8=1),
             O8&lt;&gt;0
         ),
-        ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2),
+        IF(G8&gt;0,
+            ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100) - Q8), 2),
+            ROUND(D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2201,7 +2306,7 @@
      IF((AE6+AE9)=0,
      AK18,
      ((AK6 + AK9) / AE3 *( AE6 + AE9) / 1.12 + AK18)), 2)</f>
-        <v>4769.96</v>
+        <v>4748.53</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -2272,9 +2377,12 @@
             OR(P9=0, P9=1),
             O9&lt;&gt;0
         ),
-        ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2),
-    "")</f>
-        <v>340.8</v>
+        IF(G9&gt;0,
+            ROUND((D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100)-Q9), 2),
+            ROUND((D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100)), 2)
+        ),
+    "")</f>
+        <v>316.8</v>
       </c>
       <c r="Y9" s="1" t="str" cm="1">
         <f t="array" ref="Y9">IF(
@@ -2283,7 +2391,10 @@
             OR(P9=0,P9=1),
             O9&lt;&gt;0
         ),
-        ROUND(D9 * E9 * 1.12 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2),
+        IF(G9&gt;0,
+            ROUND((D9 * E9 * 1.12 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100)-Q9), 2),
+            ROUND(D9 * E9 * 1.12 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2294,7 +2405,10 @@
             OR(P9=0, P9=1),
             O9&lt;&gt;0
         ),
-        ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2),
+        IF(G9&gt;0,
+            ROUND((D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100) - Q9), 2),
+            ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2305,7 +2419,10 @@
             OR(P9=0, P9=1),
             O9&lt;&gt;0
         ),
-        ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100), 2),
+        IF(G9&gt;0,
+            ROUND((D9 * E9 * PRODUCT(1 - H9:H9 / 100) - Q9), 2),
+            ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2316,7 +2433,10 @@
             OR(P9=0, P9=1),
             O9&lt;&gt;0
         ),
-        ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2),
+        IF(G9&gt;0,
+            ROUND((D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100) - Q9), 2),
+            ROUND(D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2400,7 +2520,10 @@
             OR(P10=0, P10=1),
             O10&lt;&gt;0
         ),
-        ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2),
+        IF(G10&gt;0,
+            ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100)-Q10), 2),
+            ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100)), 2)
+        ),
     "")</f>
         <v>223.4</v>
       </c>
@@ -2411,7 +2534,10 @@
             OR(P10=0,P10=1),
             O10&lt;&gt;0
         ),
-        ROUND(D10 * E10 * 1.12 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2),
+        IF(G10&gt;0,
+            ROUND((D10 * E10 * 1.12 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100)-Q10), 2),
+            ROUND(D10 * E10 * 1.12 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2422,7 +2548,10 @@
             OR(P10=0, P10=1),
             O10&lt;&gt;0
         ),
-        ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2),
+        IF(G10&gt;0,
+            ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100) - Q10), 2),
+            ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2433,7 +2562,10 @@
             OR(P10=0, P10=1),
             O10&lt;&gt;0
         ),
-        ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100), 2),
+        IF(G10&gt;0,
+            ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100) - Q10), 2),
+            ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2444,7 +2576,10 @@
             OR(P10=0, P10=1),
             O10&lt;&gt;0
         ),
-        ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2),
+        IF(G10&gt;0,
+            ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100) - Q10), 2),
+            ROUND(D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2519,7 +2654,10 @@
             OR(P11=0, P11=1),
             O11&lt;&gt;0
         ),
-        ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2),
+        IF(G11&gt;0,
+            ROUND((D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100)-Q11), 2),
+            ROUND((D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100)), 2)
+        ),
     "")</f>
         <v>290.10000000000002</v>
       </c>
@@ -2530,7 +2668,10 @@
             OR(P11=0,P11=1),
             O11&lt;&gt;0
         ),
-        ROUND(D11 * E11 * 1.12 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2),
+        IF(G11&gt;0,
+            ROUND((D11 * E11 * 1.12 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100)-Q11), 2),
+            ROUND(D11 * E11 * 1.12 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2541,7 +2682,10 @@
             OR(P11=0, P11=1),
             O11&lt;&gt;0
         ),
-        ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2),
+        IF(G11&gt;0,
+            ROUND((D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100) - Q11), 2),
+            ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2552,7 +2696,10 @@
             OR(P11=0, P11=1),
             O11&lt;&gt;0
         ),
-        ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100), 2),
+        IF(G11&gt;0,
+            ROUND((D11 * E11 * PRODUCT(1 - H11:H11 / 100) - Q11), 2),
+            ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2563,7 +2710,10 @@
             OR(P11=0, P11=1),
             O11&lt;&gt;0
         ),
-        ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2),
+        IF(G11&gt;0,
+            ROUND((D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100) - Q11), 2),
+            ROUND(D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2647,7 +2797,10 @@
             OR(P12=0, P12=1),
             O12&lt;&gt;0
         ),
-        ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2),
+        IF(G12&gt;0,
+            ROUND((D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100)-Q12), 2),
+            ROUND((D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100)), 2)
+        ),
     "")</f>
         <v>71.25</v>
       </c>
@@ -2658,7 +2811,10 @@
             OR(P12=0,P12=1),
             O12&lt;&gt;0
         ),
-        ROUND(D12 * E12 * 1.12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2),
+        IF(G12&gt;0,
+            ROUND((D12 * E12 * 1.12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100)-Q12), 2),
+            ROUND(D12 * E12 * 1.12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2669,7 +2825,10 @@
             OR(P12=0, P12=1),
             O12&lt;&gt;0
         ),
-        ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2),
+        IF(G12&gt;0,
+            ROUND((D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100) - Q12), 2),
+            ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2680,7 +2839,10 @@
             OR(P12=0, P12=1),
             O12&lt;&gt;0
         ),
-        ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100), 2),
+        IF(G12&gt;0,
+            ROUND((D12 * E12 * PRODUCT(1 - H12:H12 / 100) - Q12), 2),
+            ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2691,7 +2853,10 @@
             OR(P12=0, P12=1),
             O12&lt;&gt;0
         ),
-        ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2),
+        IF(G12&gt;0,
+            ROUND((D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100) - Q12), 2),
+            ROUND(D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2776,7 +2941,10 @@
             OR(P13=0, P13=1),
             O13&lt;&gt;0
         ),
-        ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2),
+        IF(G13&gt;0,
+            ROUND((D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100)-Q13), 2),
+            ROUND((D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100)), 2)
+        ),
     "")</f>
         <v>114.6</v>
       </c>
@@ -2787,7 +2955,10 @@
             OR(P13=0,P13=1),
             O13&lt;&gt;0
         ),
-        ROUND(D13 * E13 * 1.12 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2),
+        IF(G13&gt;0,
+            ROUND((D13 * E13 * 1.12 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100)-Q13), 2),
+            ROUND(D13 * E13 * 1.12 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2798,7 +2969,10 @@
             OR(P13=0, P13=1),
             O13&lt;&gt;0
         ),
-        ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2),
+        IF(G13&gt;0,
+            ROUND((D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100) - Q13), 2),
+            ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2809,7 +2983,10 @@
             OR(P13=0, P13=1),
             O13&lt;&gt;0
         ),
-        ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100), 2),
+        IF(G13&gt;0,
+            ROUND((D13 * E13 * PRODUCT(1 - H13:H13 / 100) - Q13), 2),
+            ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2820,7 +2997,10 @@
             OR(P13=0, P13=1),
             O13&lt;&gt;0
         ),
-        ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2),
+        IF(G13&gt;0,
+            ROUND((D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100) - Q13), 2),
+            ROUND(D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2894,7 +3074,10 @@
             OR(P14=0, P14=1),
             O14&lt;&gt;0
         ),
-        ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2),
+        IF(G14&gt;0,
+            ROUND((D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100)-Q14), 2),
+            ROUND((D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100)), 2)
+        ),
     "")</f>
         <v>74.400000000000006</v>
       </c>
@@ -2905,7 +3088,10 @@
             OR(P14=0,P14=1),
             O14&lt;&gt;0
         ),
-        ROUND(D14 * E14 * 1.12 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2),
+        IF(G14&gt;0,
+            ROUND((D14 * E14 * 1.12 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100)-Q14), 2),
+            ROUND(D14 * E14 * 1.12 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2916,7 +3102,10 @@
             OR(P14=0, P14=1),
             O14&lt;&gt;0
         ),
-        ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2),
+        IF(G14&gt;0,
+            ROUND((D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100) - Q14), 2),
+            ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2927,7 +3116,10 @@
             OR(P14=0, P14=1),
             O14&lt;&gt;0
         ),
-        ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100), 2),
+        IF(G14&gt;0,
+            ROUND((D14 * E14 * PRODUCT(1 - H14:H14 / 100) - Q14), 2),
+            ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -2938,7 +3130,10 @@
             OR(P14=0, P14=1),
             O14&lt;&gt;0
         ),
-        ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2),
+        IF(G14&gt;0,
+            ROUND((D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100) - Q14), 2),
+            ROUND(D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3021,7 +3216,10 @@
             OR(P15=0, P15=1),
             O15&lt;&gt;0
         ),
-        ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2),
+        IF(G15&gt;0,
+            ROUND((D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100)-Q15), 2),
+            ROUND((D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100)), 2)
+        ),
     "")</f>
         <v>55.6</v>
       </c>
@@ -3032,7 +3230,10 @@
             OR(P15=0,P15=1),
             O15&lt;&gt;0
         ),
-        ROUND(D15 * E15 * 1.12 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2),
+        IF(G15&gt;0,
+            ROUND((D15 * E15 * 1.12 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100)-Q15), 2),
+            ROUND(D15 * E15 * 1.12 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3043,7 +3244,10 @@
             OR(P15=0, P15=1),
             O15&lt;&gt;0
         ),
-        ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2),
+        IF(G15&gt;0,
+            ROUND((D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100) - Q15), 2),
+            ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3054,7 +3258,10 @@
             OR(P15=0, P15=1),
             O15&lt;&gt;0
         ),
-        ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100), 2),
+        IF(G15&gt;0,
+            ROUND((D15 * E15 * PRODUCT(1 - H15:H15 / 100) - Q15), 2),
+            ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3065,7 +3272,10 @@
             OR(P15=0, P15=1),
             O15&lt;&gt;0
         ),
-        ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2),
+        IF(G15&gt;0,
+            ROUND((D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100) - Q15), 2),
+            ROUND(D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3149,7 +3359,10 @@
             OR(P16=0, P16=1),
             O16&lt;&gt;0
         ),
-        ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2),
+        IF(G16&gt;0,
+            ROUND((D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100)-Q16), 2),
+            ROUND((D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100)), 2)
+        ),
     "")</f>
         <v>54.9</v>
       </c>
@@ -3160,7 +3373,10 @@
             OR(P16=0,P16=1),
             O16&lt;&gt;0
         ),
-        ROUND(D16 * E16 * 1.12 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2),
+        IF(G16&gt;0,
+            ROUND((D16 * E16 * 1.12 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100)-Q16), 2),
+            ROUND(D16 * E16 * 1.12 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3171,7 +3387,10 @@
             OR(P16=0, P16=1),
             O16&lt;&gt;0
         ),
-        ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2),
+        IF(G16&gt;0,
+            ROUND((D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100) - Q16), 2),
+            ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3182,7 +3401,10 @@
             OR(P16=0, P16=1),
             O16&lt;&gt;0
         ),
-        ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100), 2),
+        IF(G16&gt;0,
+            ROUND((D16 * E16 * PRODUCT(1 - H16:H16 / 100) - Q16), 2),
+            ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3193,7 +3415,10 @@
             OR(P16=0, P16=1),
             O16&lt;&gt;0
         ),
-        ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2),
+        IF(G16&gt;0,
+            ROUND((D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100) - Q16), 2),
+            ROUND(D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3267,7 +3492,10 @@
             OR(P17=0, P17=1),
             O17&lt;&gt;0
         ),
-        ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2),
+        IF(G17&gt;0,
+            ROUND((D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100)-Q17), 2),
+            ROUND((D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100)), 2)
+        ),
     "")</f>
         <v>247.9</v>
       </c>
@@ -3278,7 +3506,10 @@
             OR(P17=0,P17=1),
             O17&lt;&gt;0
         ),
-        ROUND(D17 * E17 * 1.12 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2),
+        IF(G17&gt;0,
+            ROUND((D17 * E17 * 1.12 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100)-Q17), 2),
+            ROUND(D17 * E17 * 1.12 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3289,7 +3520,10 @@
             OR(P17=0, P17=1),
             O17&lt;&gt;0
         ),
-        ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2),
+        IF(G17&gt;0,
+            ROUND((D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100) - Q17), 2),
+            ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3300,7 +3534,10 @@
             OR(P17=0, P17=1),
             O17&lt;&gt;0
         ),
-        ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100), 2),
+        IF(G17&gt;0,
+            ROUND((D17 * E17 * PRODUCT(1 - H17:H17 / 100) - Q17), 2),
+            ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3311,7 +3548,10 @@
             OR(P17=0, P17=1),
             O17&lt;&gt;0
         ),
-        ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2),
+        IF(G17&gt;0,
+            ROUND((D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100) - Q17), 2),
+            ROUND(D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3394,7 +3634,10 @@
             OR(P18=0, P18=1),
             O18&lt;&gt;0
         ),
-        ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2),
+        IF(G18&gt;0,
+            ROUND((D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100)-Q18), 2),
+            ROUND((D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100)), 2)
+        ),
     "")</f>
         <v>67.849999999999994</v>
       </c>
@@ -3405,7 +3648,10 @@
             OR(P18=0,P18=1),
             O18&lt;&gt;0
         ),
-        ROUND(D18 * E18 * 1.12 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2),
+        IF(G18&gt;0,
+            ROUND((D18 * E18 * 1.12 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100)-Q18), 2),
+            ROUND(D18 * E18 * 1.12 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3416,7 +3662,10 @@
             OR(P18=0, P18=1),
             O18&lt;&gt;0
         ),
-        ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2),
+        IF(G18&gt;0,
+            ROUND((D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100) - Q18), 2),
+            ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3427,7 +3676,10 @@
             OR(P18=0, P18=1),
             O18&lt;&gt;0
         ),
-        ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100), 2),
+        IF(G18&gt;0,
+            ROUND((D18 * E18 * PRODUCT(1 - H18:H18 / 100) - Q18), 2),
+            ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3438,7 +3690,10 @@
             OR(P18=0, P18=1),
             O18&lt;&gt;0
         ),
-        ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2),
+        IF(G18&gt;0,
+            ROUND((D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100) - Q18), 2),
+            ROUND(D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3522,7 +3777,10 @@
             OR(P19=0, P19=1),
             O19&lt;&gt;0
         ),
-        ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2),
+        IF(G19&gt;0,
+            ROUND((D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100)-Q19), 2),
+            ROUND((D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100)), 2)
+        ),
     "")</f>
         <v>59.4</v>
       </c>
@@ -3533,7 +3791,10 @@
             OR(P19=0,P19=1),
             O19&lt;&gt;0
         ),
-        ROUND(D19 * E19 * 1.12 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2),
+        IF(G19&gt;0,
+            ROUND((D19 * E19 * 1.12 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100)-Q19), 2),
+            ROUND(D19 * E19 * 1.12 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3544,7 +3805,10 @@
             OR(P19=0, P19=1),
             O19&lt;&gt;0
         ),
-        ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2),
+        IF(G19&gt;0,
+            ROUND((D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100) - Q19), 2),
+            ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3555,7 +3819,10 @@
             OR(P19=0, P19=1),
             O19&lt;&gt;0
         ),
-        ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100), 2),
+        IF(G19&gt;0,
+            ROUND((D19 * E19 * PRODUCT(1 - H19:H19 / 100) - Q19), 2),
+            ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3566,7 +3833,10 @@
             OR(P19=0, P19=1),
             O19&lt;&gt;0
         ),
-        ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2),
+        IF(G19&gt;0,
+            ROUND((D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100) - Q19), 2),
+            ROUND(D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3640,7 +3910,10 @@
             OR(P20=0, P20=1),
             O20&lt;&gt;0
         ),
-        ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2),
+        IF(G20&gt;0,
+            ROUND((D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100)-Q20), 2),
+            ROUND((D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100)), 2)
+        ),
     "")</f>
         <v>31.25</v>
       </c>
@@ -3651,7 +3924,10 @@
             OR(P20=0,P20=1),
             O20&lt;&gt;0
         ),
-        ROUND(D20 * E20 * 1.12 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2),
+        IF(G20&gt;0,
+            ROUND((D20 * E20 * 1.12 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100)-Q20), 2),
+            ROUND(D20 * E20 * 1.12 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3662,7 +3938,10 @@
             OR(P20=0, P20=1),
             O20&lt;&gt;0
         ),
-        ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2),
+        IF(G20&gt;0,
+            ROUND((D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100) - Q20), 2),
+            ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3673,7 +3952,10 @@
             OR(P20=0, P20=1),
             O20&lt;&gt;0
         ),
-        ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100), 2),
+        IF(G20&gt;0,
+            ROUND((D20 * E20 * PRODUCT(1 - H20:H20 / 100) - Q20), 2),
+            ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3684,7 +3966,10 @@
             OR(P20=0, P20=1),
             O20&lt;&gt;0
         ),
-        ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2),
+        IF(G20&gt;0,
+            ROUND((D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100) - Q20), 2),
+            ROUND(D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3764,7 +4049,10 @@
             OR(P21=0, P21=1),
             O21&lt;&gt;0
         ),
-        ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2),
+        IF(G21&gt;0,
+            ROUND((D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100)-Q21), 2),
+            ROUND((D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100)), 2)
+        ),
     "")</f>
         <v>89.5</v>
       </c>
@@ -3775,7 +4063,10 @@
             OR(P21=0,P21=1),
             O21&lt;&gt;0
         ),
-        ROUND(D21 * E21 * 1.12 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2),
+        IF(G21&gt;0,
+            ROUND((D21 * E21 * 1.12 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100)-Q21), 2),
+            ROUND(D21 * E21 * 1.12 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3786,7 +4077,10 @@
             OR(P21=0, P21=1),
             O21&lt;&gt;0
         ),
-        ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2),
+        IF(G21&gt;0,
+            ROUND((D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100) - Q21), 2),
+            ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3797,7 +4091,10 @@
             OR(P21=0, P21=1),
             O21&lt;&gt;0
         ),
-        ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100), 2),
+        IF(G21&gt;0,
+            ROUND((D21 * E21 * PRODUCT(1 - H21:H21 / 100) - Q21), 2),
+            ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3808,7 +4105,10 @@
             OR(P21=0, P21=1),
             O21&lt;&gt;0
         ),
-        ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2),
+        IF(G21&gt;0,
+            ROUND((D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100) - Q21), 2),
+            ROUND(D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3888,7 +4188,10 @@
             OR(P22=0, P22=1),
             O22&lt;&gt;0
         ),
-        ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2),
+        IF(G22&gt;0,
+            ROUND((D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100)-Q22), 2),
+            ROUND((D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100)), 2)
+        ),
     "")</f>
         <v>37.5</v>
       </c>
@@ -3899,7 +4202,10 @@
             OR(P22=0,P22=1),
             O22&lt;&gt;0
         ),
-        ROUND(D22 * E22 * 1.12 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2),
+        IF(G22&gt;0,
+            ROUND((D22 * E22 * 1.12 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100)-Q22), 2),
+            ROUND(D22 * E22 * 1.12 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3910,7 +4216,10 @@
             OR(P22=0, P22=1),
             O22&lt;&gt;0
         ),
-        ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2),
+        IF(G22&gt;0,
+            ROUND((D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100) - Q22), 2),
+            ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3921,7 +4230,10 @@
             OR(P22=0, P22=1),
             O22&lt;&gt;0
         ),
-        ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100), 2),
+        IF(G22&gt;0,
+            ROUND((D22 * E22 * PRODUCT(1 - H22:H22 / 100) - Q22), 2),
+            ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -3932,7 +4244,10 @@
             OR(P22=0, P22=1),
             O22&lt;&gt;0
         ),
-        ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2),
+        IF(G22&gt;0,
+            ROUND((D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100) - Q22), 2),
+            ROUND(D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4006,7 +4321,10 @@
             OR(P23=0, P23=1),
             O23&lt;&gt;0
         ),
-        ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2),
+        IF(G23&gt;0,
+            ROUND((D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100)-Q23), 2),
+            ROUND((D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100)), 2)
+        ),
     "")</f>
         <v>41.5</v>
       </c>
@@ -4017,7 +4335,10 @@
             OR(P23=0,P23=1),
             O23&lt;&gt;0
         ),
-        ROUND(D23 * E23 * 1.12 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2),
+        IF(G23&gt;0,
+            ROUND((D23 * E23 * 1.12 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100)-Q23), 2),
+            ROUND(D23 * E23 * 1.12 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4028,7 +4349,10 @@
             OR(P23=0, P23=1),
             O23&lt;&gt;0
         ),
-        ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2),
+        IF(G23&gt;0,
+            ROUND((D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100) - Q23), 2),
+            ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4039,7 +4363,10 @@
             OR(P23=0, P23=1),
             O23&lt;&gt;0
         ),
-        ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100), 2),
+        IF(G23&gt;0,
+            ROUND((D23 * E23 * PRODUCT(1 - H23:H23 / 100) - Q23), 2),
+            ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4050,7 +4377,10 @@
             OR(P23=0, P23=1),
             O23&lt;&gt;0
         ),
-        ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2),
+        IF(G23&gt;0,
+            ROUND((D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100) - Q23), 2),
+            ROUND(D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4127,7 +4457,10 @@
             OR(P24=0, P24=1),
             O24&lt;&gt;0
         ),
-        ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2),
+        IF(G24&gt;0,
+            ROUND((D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100)-Q24), 2),
+            ROUND((D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100)), 2)
+        ),
     "")</f>
         <v>41.1</v>
       </c>
@@ -4138,7 +4471,10 @@
             OR(P24=0,P24=1),
             O24&lt;&gt;0
         ),
-        ROUND(D24 * E24 * 1.12 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2),
+        IF(G24&gt;0,
+            ROUND((D24 * E24 * 1.12 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100)-Q24), 2),
+            ROUND(D24 * E24 * 1.12 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4149,7 +4485,10 @@
             OR(P24=0, P24=1),
             O24&lt;&gt;0
         ),
-        ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2),
+        IF(G24&gt;0,
+            ROUND((D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100) - Q24), 2),
+            ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4160,7 +4499,10 @@
             OR(P24=0, P24=1),
             O24&lt;&gt;0
         ),
-        ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100), 2),
+        IF(G24&gt;0,
+            ROUND((D24 * E24 * PRODUCT(1 - H24:H24 / 100) - Q24), 2),
+            ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4171,7 +4513,10 @@
             OR(P24=0, P24=1),
             O24&lt;&gt;0
         ),
-        ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2),
+        IF(G24&gt;0,
+            ROUND((D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100) - Q24), 2),
+            ROUND(D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4180,7 +4525,7 @@
       </c>
       <c r="AK24" s="5">
         <f>AK6+AK9</f>
-        <v>5342.3500000000013</v>
+        <v>5318.3500000000013</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -4252,7 +4597,10 @@
             OR(P25=0, P25=1),
             O25&lt;&gt;0
         ),
-        ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2),
+        IF(G25&gt;0,
+            ROUND((D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100)-Q25), 2),
+            ROUND((D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100)), 2)
+        ),
     "")</f>
         <v>41.1</v>
       </c>
@@ -4263,7 +4611,10 @@
             OR(P25=0,P25=1),
             O25&lt;&gt;0
         ),
-        ROUND(D25 * E25 * 1.12 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2),
+        IF(G25&gt;0,
+            ROUND((D25 * E25 * 1.12 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100)-Q25), 2),
+            ROUND(D25 * E25 * 1.12 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4274,7 +4625,10 @@
             OR(P25=0, P25=1),
             O25&lt;&gt;0
         ),
-        ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2),
+        IF(G25&gt;0,
+            ROUND((D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100) - Q25), 2),
+            ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4285,7 +4639,10 @@
             OR(P25=0, P25=1),
             O25&lt;&gt;0
         ),
-        ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100), 2),
+        IF(G25&gt;0,
+            ROUND((D25 * E25 * PRODUCT(1 - H25:H25 / 100) - Q25), 2),
+            ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4296,7 +4653,10 @@
             OR(P25=0, P25=1),
             O25&lt;&gt;0
         ),
-        ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2),
+        IF(G25&gt;0,
+            ROUND((D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100) - Q25), 2),
+            ROUND(D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4397,7 +4757,10 @@
             OR(P26=0, P26=1),
             O26&lt;&gt;0
         ),
-        ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2),
+        IF(G26&gt;0,
+            ROUND((D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100)-Q26), 2),
+            ROUND((D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100)), 2)
+        ),
     "")</f>
         <v>27.8</v>
       </c>
@@ -4408,7 +4771,10 @@
             OR(P26=0,P26=1),
             O26&lt;&gt;0
         ),
-        ROUND(D26 * E26 * 1.12 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2),
+        IF(G26&gt;0,
+            ROUND((D26 * E26 * 1.12 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100)-Q26), 2),
+            ROUND(D26 * E26 * 1.12 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4419,7 +4785,10 @@
             OR(P26=0, P26=1),
             O26&lt;&gt;0
         ),
-        ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2),
+        IF(G26&gt;0,
+            ROUND((D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100) - Q26), 2),
+            ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4430,7 +4799,10 @@
             OR(P26=0, P26=1),
             O26&lt;&gt;0
         ),
-        ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100), 2),
+        IF(G26&gt;0,
+            ROUND((D26 * E26 * PRODUCT(1 - H26:H26 / 100) - Q26), 2),
+            ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4441,7 +4813,10 @@
             OR(P26=0, P26=1),
             O26&lt;&gt;0
         ),
-        ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2),
+        IF(G26&gt;0,
+            ROUND((D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100) - Q26), 2),
+            ROUND(D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4517,7 +4892,10 @@
             OR(P27=0, P27=1),
             O27&lt;&gt;0
         ),
-        ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2),
+        IF(G27&gt;0,
+            ROUND((D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100)-Q27), 2),
+            ROUND((D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100)), 2)
+        ),
     "")</f>
         <v>75.55</v>
       </c>
@@ -4528,7 +4906,10 @@
             OR(P27=0,P27=1),
             O27&lt;&gt;0
         ),
-        ROUND(D27 * E27 * 1.12 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2),
+        IF(G27&gt;0,
+            ROUND((D27 * E27 * 1.12 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100)-Q27), 2),
+            ROUND(D27 * E27 * 1.12 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4539,7 +4920,10 @@
             OR(P27=0, P27=1),
             O27&lt;&gt;0
         ),
-        ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2),
+        IF(G27&gt;0,
+            ROUND((D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100) - Q27), 2),
+            ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4550,7 +4934,10 @@
             OR(P27=0, P27=1),
             O27&lt;&gt;0
         ),
-        ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100), 2),
+        IF(G27&gt;0,
+            ROUND((D27 * E27 * PRODUCT(1 - H27:H27 / 100) - Q27), 2),
+            ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4561,7 +4948,10 @@
             OR(P27=0, P27=1),
             O27&lt;&gt;0
         ),
-        ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2),
+        IF(G27&gt;0,
+            ROUND((D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100) - Q27), 2),
+            ROUND(D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4570,7 +4960,7 @@
       </c>
       <c r="AK27" s="5">
         <f>AK6 / 1.12 * 0.12</f>
-        <v>572.39464285714291</v>
+        <v>569.82321428571436</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -4641,7 +5031,10 @@
             OR(P28=0, P28=1),
             O28&lt;&gt;0
         ),
-        ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2),
+        IF(G28&gt;0,
+            ROUND((D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100)-Q28), 2),
+            ROUND((D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100)), 2)
+        ),
     "")</f>
         <v>67.2</v>
       </c>
@@ -4652,7 +5045,10 @@
             OR(P28=0,P28=1),
             O28&lt;&gt;0
         ),
-        ROUND(D28 * E28 * 1.12 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2),
+        IF(G28&gt;0,
+            ROUND((D28 * E28 * 1.12 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100)-Q28), 2),
+            ROUND(D28 * E28 * 1.12 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4663,7 +5059,10 @@
             OR(P28=0, P28=1),
             O28&lt;&gt;0
         ),
-        ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2),
+        IF(G28&gt;0,
+            ROUND((D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100) - Q28), 2),
+            ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4674,7 +5073,10 @@
             OR(P28=0, P28=1),
             O28&lt;&gt;0
         ),
-        ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100), 2),
+        IF(G28&gt;0,
+            ROUND((D28 * E28 * PRODUCT(1 - H28:H28 / 100) - Q28), 2),
+            ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4685,7 +5087,10 @@
             OR(P28=0, P28=1),
             O28&lt;&gt;0
         ),
-        ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2),
+        IF(G28&gt;0,
+            ROUND((D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100) - Q28), 2),
+            ROUND(D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4777,7 +5182,10 @@
             OR(P29=0, P29=1),
             O29&lt;&gt;0
         ),
-        ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2),
+        IF(G29&gt;0,
+            ROUND((D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100)-Q29), 2),
+            ROUND((D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100)), 2)
+        ),
     "")</f>
         <v>62.4</v>
       </c>
@@ -4788,7 +5196,10 @@
             OR(P29=0,P29=1),
             O29&lt;&gt;0
         ),
-        ROUND(D29 * E29 * 1.12 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2),
+        IF(G29&gt;0,
+            ROUND((D29 * E29 * 1.12 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100)-Q29), 2),
+            ROUND(D29 * E29 * 1.12 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4799,7 +5210,10 @@
             OR(P29=0, P29=1),
             O29&lt;&gt;0
         ),
-        ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2),
+        IF(G29&gt;0,
+            ROUND((D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100) - Q29), 2),
+            ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4810,7 +5224,10 @@
             OR(P29=0, P29=1),
             O29&lt;&gt;0
         ),
-        ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100), 2),
+        IF(G29&gt;0,
+            ROUND((D29 * E29 * PRODUCT(1 - H29:H29 / 100) - Q29), 2),
+            ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4821,7 +5238,10 @@
             OR(P29=0, P29=1),
             O29&lt;&gt;0
         ),
-        ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2),
+        IF(G29&gt;0,
+            ROUND((D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100) - Q29), 2),
+            ROUND(D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4897,7 +5317,10 @@
             OR(P30=0, P30=1),
             O30&lt;&gt;0
         ),
-        ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2),
+        IF(G30&gt;0,
+            ROUND((D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100)-Q30), 2),
+            ROUND((D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100)), 2)
+        ),
     "")</f>
         <v>15.15</v>
       </c>
@@ -4908,7 +5331,10 @@
             OR(P30=0,P30=1),
             O30&lt;&gt;0
         ),
-        ROUND(D30 * E30 * 1.12 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2),
+        IF(G30&gt;0,
+            ROUND((D30 * E30 * 1.12 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100)-Q30), 2),
+            ROUND(D30 * E30 * 1.12 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4919,7 +5345,10 @@
             OR(P30=0, P30=1),
             O30&lt;&gt;0
         ),
-        ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2),
+        IF(G30&gt;0,
+            ROUND((D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100) - Q30), 2),
+            ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4930,7 +5359,10 @@
             OR(P30=0, P30=1),
             O30&lt;&gt;0
         ),
-        ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100), 2),
+        IF(G30&gt;0,
+            ROUND((D30 * E30 * PRODUCT(1 - H30:H30 / 100) - Q30), 2),
+            ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -4941,7 +5373,10 @@
             OR(P30=0, P30=1),
             O30&lt;&gt;0
         ),
-        ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2),
+        IF(G30&gt;0,
+            ROUND((D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100) - Q30), 2),
+            ROUND(D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5018,7 +5453,10 @@
             OR(P31=0, P31=1),
             O31&lt;&gt;0
         ),
-        ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2),
+        IF(G31&gt;0,
+            ROUND((D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100)-Q31), 2),
+            ROUND((D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100)), 2)
+        ),
     "")</f>
         <v>44.75</v>
       </c>
@@ -5029,7 +5467,10 @@
             OR(P31=0,P31=1),
             O31&lt;&gt;0
         ),
-        ROUND(D31 * E31 * 1.12 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2),
+        IF(G31&gt;0,
+            ROUND((D31 * E31 * 1.12 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100)-Q31), 2),
+            ROUND(D31 * E31 * 1.12 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5040,7 +5481,10 @@
             OR(P31=0, P31=1),
             O31&lt;&gt;0
         ),
-        ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2),
+        IF(G31&gt;0,
+            ROUND((D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100) - Q31), 2),
+            ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5051,7 +5495,10 @@
             OR(P31=0, P31=1),
             O31&lt;&gt;0
         ),
-        ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100), 2),
+        IF(G31&gt;0,
+            ROUND((D31 * E31 * PRODUCT(1 - H31:H31 / 100) - Q31), 2),
+            ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5062,7 +5509,10 @@
             OR(P31=0, P31=1),
             O31&lt;&gt;0
         ),
-        ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2),
+        IF(G31&gt;0,
+            ROUND((D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100) - Q31), 2),
+            ROUND(D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5135,7 +5585,10 @@
             OR(P32=0, P32=1),
             O32&lt;&gt;0
         ),
-        ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2),
+        IF(G32&gt;0,
+            ROUND((D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100)-Q32), 2),
+            ROUND((D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100)), 2)
+        ),
     "")</f>
         <v>46.25</v>
       </c>
@@ -5146,7 +5599,10 @@
             OR(P32=0,P32=1),
             O32&lt;&gt;0
         ),
-        ROUND(D32 * E32 * 1.12 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2),
+        IF(G32&gt;0,
+            ROUND((D32 * E32 * 1.12 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100)-Q32), 2),
+            ROUND(D32 * E32 * 1.12 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5157,7 +5613,10 @@
             OR(P32=0, P32=1),
             O32&lt;&gt;0
         ),
-        ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2),
+        IF(G32&gt;0,
+            ROUND((D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100) - Q32), 2),
+            ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5168,7 +5627,10 @@
             OR(P32=0, P32=1),
             O32&lt;&gt;0
         ),
-        ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100), 2),
+        IF(G32&gt;0,
+            ROUND((D32 * E32 * PRODUCT(1 - H32:H32 / 100) - Q32), 2),
+            ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5179,7 +5641,10 @@
             OR(P32=0, P32=1),
             O32&lt;&gt;0
         ),
-        ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2),
+        IF(G32&gt;0,
+            ROUND((D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100) - Q32), 2),
+            ROUND(D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5255,7 +5720,10 @@
             OR(P33=0, P33=1),
             O33&lt;&gt;0
         ),
-        ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2),
+        IF(G33&gt;0,
+            ROUND((D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100)-Q33), 2),
+            ROUND((D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100)), 2)
+        ),
     "")</f>
         <v>43.5</v>
       </c>
@@ -5266,7 +5734,10 @@
             OR(P33=0,P33=1),
             O33&lt;&gt;0
         ),
-        ROUND(D33 * E33 * 1.12 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2),
+        IF(G33&gt;0,
+            ROUND((D33 * E33 * 1.12 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100)-Q33), 2),
+            ROUND(D33 * E33 * 1.12 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5277,7 +5748,10 @@
             OR(P33=0, P33=1),
             O33&lt;&gt;0
         ),
-        ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2),
+        IF(G33&gt;0,
+            ROUND((D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100) - Q33), 2),
+            ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5288,7 +5762,10 @@
             OR(P33=0, P33=1),
             O33&lt;&gt;0
         ),
-        ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100), 2),
+        IF(G33&gt;0,
+            ROUND((D33 * E33 * PRODUCT(1 - H33:H33 / 100) - Q33), 2),
+            ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5299,13 +5776,16 @@
             OR(P33=0, P33=1),
             O33&lt;&gt;0
         ),
-        ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2),
+        IF(G33&gt;0,
+            ROUND((D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100) - Q33), 2),
+            ROUND(D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
       <c r="AK33" s="5">
         <f>(((AK3-(AK6/1.12*0.12)) * (AG6*0.01)) / AE3) * AE6</f>
-        <v>949.19107142857183</v>
+        <v>949.70535714285745</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -5376,7 +5856,10 @@
             OR(P34=0, P34=1),
             O34&lt;&gt;0
         ),
-        ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2),
+        IF(G34&gt;0,
+            ROUND((D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100)-Q34), 2),
+            ROUND((D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100)), 2)
+        ),
     "")</f>
         <v>33.799999999999997</v>
       </c>
@@ -5387,7 +5870,10 @@
             OR(P34=0,P34=1),
             O34&lt;&gt;0
         ),
-        ROUND(D34 * E34 * 1.12 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2),
+        IF(G34&gt;0,
+            ROUND((D34 * E34 * 1.12 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100)-Q34), 2),
+            ROUND(D34 * E34 * 1.12 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5398,7 +5884,10 @@
             OR(P34=0, P34=1),
             O34&lt;&gt;0
         ),
-        ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2),
+        IF(G34&gt;0,
+            ROUND((D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100) - Q34), 2),
+            ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5409,7 +5898,10 @@
             OR(P34=0, P34=1),
             O34&lt;&gt;0
         ),
-        ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100), 2),
+        IF(G34&gt;0,
+            ROUND((D34 * E34 * PRODUCT(1 - H34:H34 / 100) - Q34), 2),
+            ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5420,13 +5912,16 @@
             OR(P34=0, P34=1),
             O34&lt;&gt;0
         ),
-        ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2),
+        IF(G34&gt;0,
+            ROUND((D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100) - Q34), 2),
+            ROUND(D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
       <c r="AK34" s="2">
         <f>(((AK3-(AK24/1.12*0.12)) * (AG6*0.01)) / AE3) * AE6</f>
-        <v>949.19107142857183</v>
+        <v>949.70535714285745</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -5497,7 +5992,10 @@
             OR(P35=0, P35=1),
             O35&lt;&gt;0
         ),
-        ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2),
+        IF(G35&gt;0,
+            ROUND((D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100)-Q35), 2),
+            ROUND((D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100)), 2)
+        ),
     "")</f>
         <v>42.25</v>
       </c>
@@ -5508,7 +6006,10 @@
             OR(P35=0,P35=1),
             O35&lt;&gt;0
         ),
-        ROUND(D35 * E35 * 1.12 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2),
+        IF(G35&gt;0,
+            ROUND((D35 * E35 * 1.12 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100)-Q35), 2),
+            ROUND(D35 * E35 * 1.12 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5519,7 +6020,10 @@
             OR(P35=0, P35=1),
             O35&lt;&gt;0
         ),
-        ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2),
+        IF(G35&gt;0,
+            ROUND((D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100) - Q35), 2),
+            ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5530,7 +6034,10 @@
             OR(P35=0, P35=1),
             O35&lt;&gt;0
         ),
-        ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100), 2),
+        IF(G35&gt;0,
+            ROUND((D35 * E35 * PRODUCT(1 - H35:H35 / 100) - Q35), 2),
+            ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5541,7 +6048,10 @@
             OR(P35=0, P35=1),
             O35&lt;&gt;0
         ),
-        ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2),
+        IF(G35&gt;0,
+            ROUND((D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100) - Q35), 2),
+            ROUND(D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5618,7 +6128,10 @@
             OR(P36=0, P36=1),
             O36&lt;&gt;0
         ),
-        ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2),
+        IF(G36&gt;0,
+            ROUND((D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100)-Q36), 2),
+            ROUND((D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100)), 2)
+        ),
     "")</f>
         <v>35</v>
       </c>
@@ -5629,7 +6142,10 @@
             OR(P36=0,P36=1),
             O36&lt;&gt;0
         ),
-        ROUND(D36 * E36 * 1.12 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2),
+        IF(G36&gt;0,
+            ROUND((D36 * E36 * 1.12 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100)-Q36), 2),
+            ROUND(D36 * E36 * 1.12 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5640,7 +6156,10 @@
             OR(P36=0, P36=1),
             O36&lt;&gt;0
         ),
-        ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2),
+        IF(G36&gt;0,
+            ROUND((D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100) - Q36), 2),
+            ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5651,7 +6170,10 @@
             OR(P36=0, P36=1),
             O36&lt;&gt;0
         ),
-        ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100), 2),
+        IF(G36&gt;0,
+            ROUND((D36 * E36 * PRODUCT(1 - H36:H36 / 100) - Q36), 2),
+            ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5662,7 +6184,10 @@
             OR(P36=0, P36=1),
             O36&lt;&gt;0
         ),
-        ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2),
+        IF(G36&gt;0,
+            ROUND((D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100) - Q36), 2),
+            ROUND(D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5753,7 +6278,10 @@
             OR(P37=0, P37=1),
             O37&lt;&gt;0
         ),
-        ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2),
+        IF(G37&gt;0,
+            ROUND((D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100)-Q37), 2),
+            ROUND((D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100)), 2)
+        ),
     "")</f>
         <v>43.5</v>
       </c>
@@ -5764,7 +6292,10 @@
             OR(P37=0,P37=1),
             O37&lt;&gt;0
         ),
-        ROUND(D37 * E37 * 1.12 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2),
+        IF(G37&gt;0,
+            ROUND((D37 * E37 * 1.12 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100)-Q37), 2),
+            ROUND(D37 * E37 * 1.12 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5775,7 +6306,10 @@
             OR(P37=0, P37=1),
             O37&lt;&gt;0
         ),
-        ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2),
+        IF(G37&gt;0,
+            ROUND((D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100) - Q37), 2),
+            ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5786,7 +6320,10 @@
             OR(P37=0, P37=1),
             O37&lt;&gt;0
         ),
-        ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100), 2),
+        IF(G37&gt;0,
+            ROUND((D37 * E37 * PRODUCT(1 - H37:H37 / 100) - Q37), 2),
+            ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5797,7 +6334,10 @@
             OR(P37=0, P37=1),
             O37&lt;&gt;0
         ),
-        ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2),
+        IF(G37&gt;0,
+            ROUND((D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100) - Q37), 2),
+            ROUND(D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5885,7 +6425,10 @@
             OR(P38=0, P38=1),
             O38&lt;&gt;0
         ),
-        ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2),
+        IF(G38&gt;0,
+            ROUND((D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100)-Q38), 2),
+            ROUND((D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100)), 2)
+        ),
     "")</f>
         <v>31.8</v>
       </c>
@@ -5896,7 +6439,10 @@
             OR(P38=0,P38=1),
             O38&lt;&gt;0
         ),
-        ROUND(D38 * E38 * 1.12 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2),
+        IF(G38&gt;0,
+            ROUND((D38 * E38 * 1.12 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100)-Q38), 2),
+            ROUND(D38 * E38 * 1.12 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5907,7 +6453,10 @@
             OR(P38=0, P38=1),
             O38&lt;&gt;0
         ),
-        ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2),
+        IF(G38&gt;0,
+            ROUND((D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100) - Q38), 2),
+            ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5918,7 +6467,10 @@
             OR(P38=0, P38=1),
             O38&lt;&gt;0
         ),
-        ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100), 2),
+        IF(G38&gt;0,
+            ROUND((D38 * E38 * PRODUCT(1 - H38:H38 / 100) - Q38), 2),
+            ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -5929,7 +6481,10 @@
             OR(P38=0, P38=1),
             O38&lt;&gt;0
         ),
-        ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2),
+        IF(G38&gt;0,
+            ROUND((D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100) - Q38), 2),
+            ROUND(D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6019,7 +6574,10 @@
             OR(P39=0, P39=1),
             O39&lt;&gt;0
         ),
-        ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2),
+        IF(G39&gt;0,
+            ROUND((D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100)-Q39), 2),
+            ROUND((D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100)), 2)
+        ),
     "")</f>
         <v>5.35</v>
       </c>
@@ -6030,7 +6588,10 @@
             OR(P39=0,P39=1),
             O39&lt;&gt;0
         ),
-        ROUND(D39 * E39 * 1.12 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2),
+        IF(G39&gt;0,
+            ROUND((D39 * E39 * 1.12 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100)-Q39), 2),
+            ROUND(D39 * E39 * 1.12 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6041,7 +6602,10 @@
             OR(P39=0, P39=1),
             O39&lt;&gt;0
         ),
-        ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2),
+        IF(G39&gt;0,
+            ROUND((D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100) - Q39), 2),
+            ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6052,7 +6616,10 @@
             OR(P39=0, P39=1),
             O39&lt;&gt;0
         ),
-        ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100), 2),
+        IF(G39&gt;0,
+            ROUND((D39 * E39 * PRODUCT(1 - H39:H39 / 100) - Q39), 2),
+            ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6063,7 +6630,10 @@
             OR(P39=0, P39=1),
             O39&lt;&gt;0
         ),
-        ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2),
+        IF(G39&gt;0,
+            ROUND((D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100) - Q39), 2),
+            ROUND(D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6075,7 +6645,7 @@
       <c r="AJ39"/>
       <c r="AK39" s="5">
         <f>ROUND(((AE6=0)*AK18) + ((AE6&lt;&gt;0)*((AK6 + AK9) / AE3 * AE6 / 1.12 + AK18)) *0.12, 2)</f>
-        <v>572.39</v>
+        <v>569.82000000000005</v>
       </c>
       <c r="AL39" s="26"/>
       <c r="AM39"/>
@@ -6154,7 +6724,10 @@
             OR(P40=0, P40=1),
             O40&lt;&gt;0
         ),
-        ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2),
+        IF(G40&gt;0,
+            ROUND((D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100)-Q40), 2),
+            ROUND((D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100)), 2)
+        ),
     "")</f>
         <v>35</v>
       </c>
@@ -6165,7 +6738,10 @@
             OR(P40=0,P40=1),
             O40&lt;&gt;0
         ),
-        ROUND(D40 * E40 * 1.12 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2),
+        IF(G40&gt;0,
+            ROUND((D40 * E40 * 1.12 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100)-Q40), 2),
+            ROUND(D40 * E40 * 1.12 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6176,7 +6752,10 @@
             OR(P40=0, P40=1),
             O40&lt;&gt;0
         ),
-        ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2),
+        IF(G40&gt;0,
+            ROUND((D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100) - Q40), 2),
+            ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6187,7 +6766,10 @@
             OR(P40=0, P40=1),
             O40&lt;&gt;0
         ),
-        ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100), 2),
+        IF(G40&gt;0,
+            ROUND((D40 * E40 * PRODUCT(1 - H40:H40 / 100) - Q40), 2),
+            ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6198,7 +6780,10 @@
             OR(P40=0, P40=1),
             O40&lt;&gt;0
         ),
-        ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2),
+        IF(G40&gt;0,
+            ROUND((D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100) - Q40), 2),
+            ROUND(D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6286,7 +6871,10 @@
             OR(P41=0, P41=1),
             O41&lt;&gt;0
         ),
-        ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2),
+        IF(G41&gt;0,
+            ROUND((D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100)-Q41), 2),
+            ROUND((D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100)), 2)
+        ),
     "")</f>
         <v>15.15</v>
       </c>
@@ -6297,7 +6885,10 @@
             OR(P41=0,P41=1),
             O41&lt;&gt;0
         ),
-        ROUND(D41 * E41 * 1.12 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2),
+        IF(G41&gt;0,
+            ROUND((D41 * E41 * 1.12 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100)-Q41), 2),
+            ROUND(D41 * E41 * 1.12 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6308,7 +6899,10 @@
             OR(P41=0, P41=1),
             O41&lt;&gt;0
         ),
-        ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2),
+        IF(G41&gt;0,
+            ROUND((D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100) - Q41), 2),
+            ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6319,7 +6913,10 @@
             OR(P41=0, P41=1),
             O41&lt;&gt;0
         ),
-        ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100), 2),
+        IF(G41&gt;0,
+            ROUND((D41 * E41 * PRODUCT(1 - H41:H41 / 100) - Q41), 2),
+            ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6330,7 +6927,10 @@
             OR(P41=0, P41=1),
             O41&lt;&gt;0
         ),
-        ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2),
+        IF(G41&gt;0,
+            ROUND((D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100) - Q41), 2),
+            ROUND(D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6420,7 +7020,10 @@
             OR(P42=0, P42=1),
             O42&lt;&gt;0
         ),
-        ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2),
+        IF(G42&gt;0,
+            ROUND((D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100)-Q42), 2),
+            ROUND((D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100)), 2)
+        ),
     "")</f>
         <v>24</v>
       </c>
@@ -6431,7 +7034,10 @@
             OR(P42=0,P42=1),
             O42&lt;&gt;0
         ),
-        ROUND(D42 * E42 * 1.12 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2),
+        IF(G42&gt;0,
+            ROUND((D42 * E42 * 1.12 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100)-Q42), 2),
+            ROUND(D42 * E42 * 1.12 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6442,7 +7048,10 @@
             OR(P42=0, P42=1),
             O42&lt;&gt;0
         ),
-        ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2),
+        IF(G42&gt;0,
+            ROUND((D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100) - Q42), 2),
+            ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6453,7 +7062,10 @@
             OR(P42=0, P42=1),
             O42&lt;&gt;0
         ),
-        ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100), 2),
+        IF(G42&gt;0,
+            ROUND((D42 * E42 * PRODUCT(1 - H42:H42 / 100) - Q42), 2),
+            ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6464,7 +7076,10 @@
             OR(P42=0, P42=1),
             O42&lt;&gt;0
         ),
-        ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2),
+        IF(G42&gt;0,
+            ROUND((D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100) - Q42), 2),
+            ROUND(D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6555,7 +7170,10 @@
             OR(P43=0, P43=1),
             O43&lt;&gt;0
         ),
-        ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2),
+        IF(G43&gt;0,
+            ROUND((D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100)-Q43), 2),
+            ROUND((D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100)), 2)
+        ),
     "")</f>
         <v>53.8</v>
       </c>
@@ -6566,7 +7184,10 @@
             OR(P43=0,P43=1),
             O43&lt;&gt;0
         ),
-        ROUND(D43 * E43 * 1.12 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2),
+        IF(G43&gt;0,
+            ROUND((D43 * E43 * 1.12 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100)-Q43), 2),
+            ROUND(D43 * E43 * 1.12 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6577,7 +7198,10 @@
             OR(P43=0, P43=1),
             O43&lt;&gt;0
         ),
-        ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2),
+        IF(G43&gt;0,
+            ROUND((D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100) - Q43), 2),
+            ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6588,7 +7212,10 @@
             OR(P43=0, P43=1),
             O43&lt;&gt;0
         ),
-        ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100), 2),
+        IF(G43&gt;0,
+            ROUND((D43 * E43 * PRODUCT(1 - H43:H43 / 100) - Q43), 2),
+            ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6599,7 +7226,10 @@
             OR(P43=0, P43=1),
             O43&lt;&gt;0
         ),
-        ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2),
+        IF(G43&gt;0,
+            ROUND((D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100) - Q43), 2),
+            ROUND(D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6687,7 +7317,10 @@
             OR(P44=0, P44=1),
             O44&lt;&gt;0
         ),
-        ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2),
+        IF(G44&gt;0,
+            ROUND((D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100)-Q44), 2),
+            ROUND((D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100)), 2)
+        ),
     "")</f>
         <v>60.7</v>
       </c>
@@ -6698,7 +7331,10 @@
             OR(P44=0,P44=1),
             O44&lt;&gt;0
         ),
-        ROUND(D44 * E44 * 1.12 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2),
+        IF(G44&gt;0,
+            ROUND((D44 * E44 * 1.12 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100)-Q44), 2),
+            ROUND(D44 * E44 * 1.12 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6709,7 +7345,10 @@
             OR(P44=0, P44=1),
             O44&lt;&gt;0
         ),
-        ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2),
+        IF(G44&gt;0,
+            ROUND((D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100) - Q44), 2),
+            ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6720,7 +7359,10 @@
             OR(P44=0, P44=1),
             O44&lt;&gt;0
         ),
-        ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100), 2),
+        IF(G44&gt;0,
+            ROUND((D44 * E44 * PRODUCT(1 - H44:H44 / 100) - Q44), 2),
+            ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6731,7 +7373,10 @@
             OR(P44=0, P44=1),
             O44&lt;&gt;0
         ),
-        ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2),
+        IF(G44&gt;0,
+            ROUND((D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100) - Q44), 2),
+            ROUND(D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6821,7 +7466,10 @@
             OR(P45=0, P45=1),
             O45&lt;&gt;0
         ),
-        ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2),
+        IF(G45&gt;0,
+            ROUND((D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100)-Q45), 2),
+            ROUND((D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100)), 2)
+        ),
     "")</f>
         <v>87.85</v>
       </c>
@@ -6832,7 +7480,10 @@
             OR(P45=0,P45=1),
             O45&lt;&gt;0
         ),
-        ROUND(D45 * E45 * 1.12 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2),
+        IF(G45&gt;0,
+            ROUND((D45 * E45 * 1.12 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100)-Q45), 2),
+            ROUND(D45 * E45 * 1.12 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6843,7 +7494,10 @@
             OR(P45=0, P45=1),
             O45&lt;&gt;0
         ),
-        ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2),
+        IF(G45&gt;0,
+            ROUND((D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100) - Q45), 2),
+            ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6854,7 +7508,10 @@
             OR(P45=0, P45=1),
             O45&lt;&gt;0
         ),
-        ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100), 2),
+        IF(G45&gt;0,
+            ROUND((D45 * E45 * PRODUCT(1 - H45:H45 / 100) - Q45), 2),
+            ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6865,7 +7522,10 @@
             OR(P45=0, P45=1),
             O45&lt;&gt;0
         ),
-        ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2),
+        IF(G45&gt;0,
+            ROUND((D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100) - Q45), 2),
+            ROUND(D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6956,7 +7616,10 @@
             OR(P46=0, P46=1),
             O46&lt;&gt;0
         ),
-        ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2),
+        IF(G46&gt;0,
+            ROUND((D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100)-Q46), 2),
+            ROUND((D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100)), 2)
+        ),
     "")</f>
         <v>20.85</v>
       </c>
@@ -6967,7 +7630,10 @@
             OR(P46=0,P46=1),
             O46&lt;&gt;0
         ),
-        ROUND(D46 * E46 * 1.12 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2),
+        IF(G46&gt;0,
+            ROUND((D46 * E46 * 1.12 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100)-Q46), 2),
+            ROUND(D46 * E46 * 1.12 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6978,7 +7644,10 @@
             OR(P46=0, P46=1),
             O46&lt;&gt;0
         ),
-        ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2),
+        IF(G46&gt;0,
+            ROUND((D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100) - Q46), 2),
+            ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -6989,7 +7658,10 @@
             OR(P46=0, P46=1),
             O46&lt;&gt;0
         ),
-        ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100), 2),
+        IF(G46&gt;0,
+            ROUND((D46 * E46 * PRODUCT(1 - H46:H46 / 100) - Q46), 2),
+            ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7000,7 +7672,10 @@
             OR(P46=0, P46=1),
             O46&lt;&gt;0
         ),
-        ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2),
+        IF(G46&gt;0,
+            ROUND((D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100) - Q46), 2),
+            ROUND(D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7088,7 +7763,10 @@
             OR(P47=0, P47=1),
             O47&lt;&gt;0
         ),
-        ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2),
+        IF(G47&gt;0,
+            ROUND((D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100)-Q47), 2),
+            ROUND((D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100)), 2)
+        ),
     "")</f>
         <v>109.4</v>
       </c>
@@ -7099,7 +7777,10 @@
             OR(P47=0,P47=1),
             O47&lt;&gt;0
         ),
-        ROUND(D47 * E47 * 1.12 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2),
+        IF(G47&gt;0,
+            ROUND((D47 * E47 * 1.12 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100)-Q47), 2),
+            ROUND(D47 * E47 * 1.12 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7110,7 +7791,10 @@
             OR(P47=0, P47=1),
             O47&lt;&gt;0
         ),
-        ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2),
+        IF(G47&gt;0,
+            ROUND((D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100) - Q47), 2),
+            ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7121,7 +7805,10 @@
             OR(P47=0, P47=1),
             O47&lt;&gt;0
         ),
-        ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100), 2),
+        IF(G47&gt;0,
+            ROUND((D47 * E47 * PRODUCT(1 - H47:H47 / 100) - Q47), 2),
+            ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7132,7 +7819,10 @@
             OR(P47=0, P47=1),
             O47&lt;&gt;0
         ),
-        ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2),
+        IF(G47&gt;0,
+            ROUND((D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100) - Q47), 2),
+            ROUND(D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7222,7 +7912,10 @@
             OR(P48=0, P48=1),
             O48&lt;&gt;0
         ),
-        ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2),
+        IF(G48&gt;0,
+            ROUND((D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100)-Q48), 2),
+            ROUND((D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100)), 2)
+        ),
     "")</f>
         <v>151.5</v>
       </c>
@@ -7233,7 +7926,10 @@
             OR(P48=0,P48=1),
             O48&lt;&gt;0
         ),
-        ROUND(D48 * E48 * 1.12 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2),
+        IF(G48&gt;0,
+            ROUND((D48 * E48 * 1.12 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100)-Q48), 2),
+            ROUND(D48 * E48 * 1.12 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7244,7 +7940,10 @@
             OR(P48=0, P48=1),
             O48&lt;&gt;0
         ),
-        ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2),
+        IF(G48&gt;0,
+            ROUND((D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100) - Q48), 2),
+            ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7255,7 +7954,10 @@
             OR(P48=0, P48=1),
             O48&lt;&gt;0
         ),
-        ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100), 2),
+        IF(G48&gt;0,
+            ROUND((D48 * E48 * PRODUCT(1 - H48:H48 / 100) - Q48), 2),
+            ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7266,7 +7968,10 @@
             OR(P48=0, P48=1),
             O48&lt;&gt;0
         ),
-        ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2),
+        IF(G48&gt;0,
+            ROUND((D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100) - Q48), 2),
+            ROUND(D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7357,7 +8062,10 @@
             OR(P49=0, P49=1),
             O49&lt;&gt;0
         ),
-        ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2),
+        IF(G49&gt;0,
+            ROUND((D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100)-Q49), 2),
+            ROUND((D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100)), 2)
+        ),
     "")</f>
         <v>84.5</v>
       </c>
@@ -7368,7 +8076,10 @@
             OR(P49=0,P49=1),
             O49&lt;&gt;0
         ),
-        ROUND(D49 * E49 * 1.12 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2),
+        IF(G49&gt;0,
+            ROUND((D49 * E49 * 1.12 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100)-Q49), 2),
+            ROUND(D49 * E49 * 1.12 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7379,7 +8090,10 @@
             OR(P49=0, P49=1),
             O49&lt;&gt;0
         ),
-        ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2),
+        IF(G49&gt;0,
+            ROUND((D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100) - Q49), 2),
+            ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7390,7 +8104,10 @@
             OR(P49=0, P49=1),
             O49&lt;&gt;0
         ),
-        ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100), 2),
+        IF(G49&gt;0,
+            ROUND((D49 * E49 * PRODUCT(1 - H49:H49 / 100) - Q49), 2),
+            ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7401,7 +8118,10 @@
             OR(P49=0, P49=1),
             O49&lt;&gt;0
         ),
-        ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2),
+        IF(G49&gt;0,
+            ROUND((D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100) - Q49), 2),
+            ROUND(D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7489,7 +8209,10 @@
             OR(P50=0, P50=1),
             O50&lt;&gt;0
         ),
-        ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2),
+        IF(G50&gt;0,
+            ROUND((D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100)-Q50), 2),
+            ROUND((D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100)), 2)
+        ),
     "")</f>
         <v>79.7</v>
       </c>
@@ -7500,7 +8223,10 @@
             OR(P50=0,P50=1),
             O50&lt;&gt;0
         ),
-        ROUND(D50 * E50 * 1.12 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2),
+        IF(G50&gt;0,
+            ROUND((D50 * E50 * 1.12 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100)-Q50), 2),
+            ROUND(D50 * E50 * 1.12 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7511,7 +8237,10 @@
             OR(P50=0, P50=1),
             O50&lt;&gt;0
         ),
-        ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2),
+        IF(G50&gt;0,
+            ROUND((D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100) - Q50), 2),
+            ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7522,7 +8251,10 @@
             OR(P50=0, P50=1),
             O50&lt;&gt;0
         ),
-        ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100), 2),
+        IF(G50&gt;0,
+            ROUND((D50 * E50 * PRODUCT(1 - H50:H50 / 100) - Q50), 2),
+            ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7533,7 +8265,10 @@
             OR(P50=0, P50=1),
             O50&lt;&gt;0
         ),
-        ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2),
+        IF(G50&gt;0,
+            ROUND((D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100) - Q50), 2),
+            ROUND(D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7621,7 +8356,10 @@
             OR(P51=0, P51=1),
             O51&lt;&gt;0
         ),
-        ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2),
+        IF(G51&gt;0,
+            ROUND((D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100)-Q51), 2),
+            ROUND((D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100)), 2)
+        ),
     "")</f>
         <v>45.5</v>
       </c>
@@ -7632,7 +8370,10 @@
             OR(P51=0,P51=1),
             O51&lt;&gt;0
         ),
-        ROUND(D51 * E51 * 1.12 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2),
+        IF(G51&gt;0,
+            ROUND((D51 * E51 * 1.12 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100)-Q51), 2),
+            ROUND(D51 * E51 * 1.12 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7643,7 +8384,10 @@
             OR(P51=0, P51=1),
             O51&lt;&gt;0
         ),
-        ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2),
+        IF(G51&gt;0,
+            ROUND((D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100) - Q51), 2),
+            ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7654,7 +8398,10 @@
             OR(P51=0, P51=1),
             O51&lt;&gt;0
         ),
-        ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100), 2),
+        IF(G51&gt;0,
+            ROUND((D51 * E51 * PRODUCT(1 - H51:H51 / 100) - Q51), 2),
+            ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7665,7 +8412,10 @@
             OR(P51=0, P51=1),
             O51&lt;&gt;0
         ),
-        ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2),
+        IF(G51&gt;0,
+            ROUND((D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100) - Q51), 2),
+            ROUND(D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7753,7 +8503,10 @@
             OR(P52=0, P52=1),
             O52&lt;&gt;0
         ),
-        ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2),
+        IF(G52&gt;0,
+            ROUND((D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100)-Q52), 2),
+            ROUND((D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100)), 2)
+        ),
     "")</f>
         <v>44.5</v>
       </c>
@@ -7764,7 +8517,10 @@
             OR(P52=0,P52=1),
             O52&lt;&gt;0
         ),
-        ROUND(D52 * E52 * 1.12 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2),
+        IF(G52&gt;0,
+            ROUND((D52 * E52 * 1.12 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100)-Q52), 2),
+            ROUND(D52 * E52 * 1.12 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7775,7 +8531,10 @@
             OR(P52=0, P52=1),
             O52&lt;&gt;0
         ),
-        ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2),
+        IF(G52&gt;0,
+            ROUND((D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100) - Q52), 2),
+            ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7786,7 +8545,10 @@
             OR(P52=0, P52=1),
             O52&lt;&gt;0
         ),
-        ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100), 2),
+        IF(G52&gt;0,
+            ROUND((D52 * E52 * PRODUCT(1 - H52:H52 / 100) - Q52), 2),
+            ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7797,7 +8559,10 @@
             OR(P52=0, P52=1),
             O52&lt;&gt;0
         ),
-        ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2),
+        IF(G52&gt;0,
+            ROUND((D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100) - Q52), 2),
+            ROUND(D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7885,7 +8650,10 @@
             OR(P53=0, P53=1),
             O53&lt;&gt;0
         ),
-        ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2),
+        IF(G53&gt;0,
+            ROUND((D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100)-Q53), 2),
+            ROUND((D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100)), 2)
+        ),
     "")</f>
         <v>88.25</v>
       </c>
@@ -7896,7 +8664,10 @@
             OR(P53=0,P53=1),
             O53&lt;&gt;0
         ),
-        ROUND(D53 * E53 * 1.12 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2),
+        IF(G53&gt;0,
+            ROUND((D53 * E53 * 1.12 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100)-Q53), 2),
+            ROUND(D53 * E53 * 1.12 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7907,7 +8678,10 @@
             OR(P53=0, P53=1),
             O53&lt;&gt;0
         ),
-        ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2),
+        IF(G53&gt;0,
+            ROUND((D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100) - Q53), 2),
+            ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7918,7 +8692,10 @@
             OR(P53=0, P53=1),
             O53&lt;&gt;0
         ),
-        ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100), 2),
+        IF(G53&gt;0,
+            ROUND((D53 * E53 * PRODUCT(1 - H53:H53 / 100) - Q53), 2),
+            ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -7929,7 +8706,10 @@
             OR(P53=0, P53=1),
             O53&lt;&gt;0
         ),
-        ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2),
+        IF(G53&gt;0,
+            ROUND((D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100) - Q53), 2),
+            ROUND(D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8017,7 +8797,10 @@
             OR(P54=0, P54=1),
             O54&lt;&gt;0
         ),
-        ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2),
+        IF(G54&gt;0,
+            ROUND((D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100)-Q54), 2),
+            ROUND((D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100)), 2)
+        ),
     "")</f>
         <v>77.099999999999994</v>
       </c>
@@ -8028,7 +8811,10 @@
             OR(P54=0,P54=1),
             O54&lt;&gt;0
         ),
-        ROUND(D54 * E54 * 1.12 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2),
+        IF(G54&gt;0,
+            ROUND((D54 * E54 * 1.12 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100)-Q54), 2),
+            ROUND(D54 * E54 * 1.12 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8039,7 +8825,10 @@
             OR(P54=0, P54=1),
             O54&lt;&gt;0
         ),
-        ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2),
+        IF(G54&gt;0,
+            ROUND((D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100) - Q54), 2),
+            ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8050,7 +8839,10 @@
             OR(P54=0, P54=1),
             O54&lt;&gt;0
         ),
-        ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100), 2),
+        IF(G54&gt;0,
+            ROUND((D54 * E54 * PRODUCT(1 - H54:H54 / 100) - Q54), 2),
+            ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8061,7 +8853,10 @@
             OR(P54=0, P54=1),
             O54&lt;&gt;0
         ),
-        ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2),
+        IF(G54&gt;0,
+            ROUND((D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100) - Q54), 2),
+            ROUND(D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8149,7 +8944,10 @@
             OR(P55=0, P55=1),
             O55&lt;&gt;0
         ),
-        ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2),
+        IF(G55&gt;0,
+            ROUND((D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100)-Q55), 2),
+            ROUND((D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100)), 2)
+        ),
     "")</f>
         <v>67.05</v>
       </c>
@@ -8160,7 +8958,10 @@
             OR(P55=0,P55=1),
             O55&lt;&gt;0
         ),
-        ROUND(D55 * E55 * 1.12 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2),
+        IF(G55&gt;0,
+            ROUND((D55 * E55 * 1.12 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100)-Q55), 2),
+            ROUND(D55 * E55 * 1.12 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8171,7 +8972,10 @@
             OR(P55=0, P55=1),
             O55&lt;&gt;0
         ),
-        ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2),
+        IF(G55&gt;0,
+            ROUND((D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100) - Q55), 2),
+            ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8182,7 +8986,10 @@
             OR(P55=0, P55=1),
             O55&lt;&gt;0
         ),
-        ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100), 2),
+        IF(G55&gt;0,
+            ROUND((D55 * E55 * PRODUCT(1 - H55:H55 / 100) - Q55), 2),
+            ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8193,7 +9000,10 @@
             OR(P55=0, P55=1),
             O55&lt;&gt;0
         ),
-        ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2),
+        IF(G55&gt;0,
+            ROUND((D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100) - Q55), 2),
+            ROUND(D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8281,7 +9091,10 @@
             OR(P56=0, P56=1),
             O56&lt;&gt;0
         ),
-        ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2),
+        IF(G56&gt;0,
+            ROUND((D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100)-Q56), 2),
+            ROUND((D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100)), 2)
+        ),
     "")</f>
         <v>150</v>
       </c>
@@ -8292,7 +9105,10 @@
             OR(P56=0,P56=1),
             O56&lt;&gt;0
         ),
-        ROUND(D56 * E56 * 1.12 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2),
+        IF(G56&gt;0,
+            ROUND((D56 * E56 * 1.12 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100)-Q56), 2),
+            ROUND(D56 * E56 * 1.12 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8303,7 +9119,10 @@
             OR(P56=0, P56=1),
             O56&lt;&gt;0
         ),
-        ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2),
+        IF(G56&gt;0,
+            ROUND((D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100) - Q56), 2),
+            ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8314,7 +9133,10 @@
             OR(P56=0, P56=1),
             O56&lt;&gt;0
         ),
-        ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100), 2),
+        IF(G56&gt;0,
+            ROUND((D56 * E56 * PRODUCT(1 - H56:H56 / 100) - Q56), 2),
+            ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8325,7 +9147,10 @@
             OR(P56=0, P56=1),
             O56&lt;&gt;0
         ),
-        ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2),
+        IF(G56&gt;0,
+            ROUND((D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100) - Q56), 2),
+            ROUND(D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8413,7 +9238,10 @@
             OR(P57=0, P57=1),
             O57&lt;&gt;0
         ),
-        ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2),
+        IF(G57&gt;0,
+            ROUND((D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100)-Q57), 2),
+            ROUND((D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100)), 2)
+        ),
     "")</f>
         <v>284.55</v>
       </c>
@@ -8424,7 +9252,10 @@
             OR(P57=0,P57=1),
             O57&lt;&gt;0
         ),
-        ROUND(D57 * E57 * 1.12 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2),
+        IF(G57&gt;0,
+            ROUND((D57 * E57 * 1.12 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100)-Q57), 2),
+            ROUND(D57 * E57 * 1.12 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8435,7 +9266,10 @@
             OR(P57=0, P57=1),
             O57&lt;&gt;0
         ),
-        ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2),
+        IF(G57&gt;0,
+            ROUND((D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100) - Q57), 2),
+            ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8446,7 +9280,10 @@
             OR(P57=0, P57=1),
             O57&lt;&gt;0
         ),
-        ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100), 2),
+        IF(G57&gt;0,
+            ROUND((D57 * E57 * PRODUCT(1 - H57:H57 / 100) - Q57), 2),
+            ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8457,7 +9294,10 @@
             OR(P57=0, P57=1),
             O57&lt;&gt;0
         ),
-        ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2),
+        IF(G57&gt;0,
+            ROUND((D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100) - Q57), 2),
+            ROUND(D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8545,7 +9385,10 @@
             OR(P58=0, P58=1),
             O58&lt;&gt;0
         ),
-        ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2),
+        IF(G58&gt;0,
+            ROUND((D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100)-Q58), 2),
+            ROUND((D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100)), 2)
+        ),
     "")</f>
         <v>85.8</v>
       </c>
@@ -8556,7 +9399,10 @@
             OR(P58=0,P58=1),
             O58&lt;&gt;0
         ),
-        ROUND(D58 * E58 * 1.12 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2),
+        IF(G58&gt;0,
+            ROUND((D58 * E58 * 1.12 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100)-Q58), 2),
+            ROUND(D58 * E58 * 1.12 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8567,7 +9413,10 @@
             OR(P58=0, P58=1),
             O58&lt;&gt;0
         ),
-        ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2),
+        IF(G58&gt;0,
+            ROUND((D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100) - Q58), 2),
+            ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8578,7 +9427,10 @@
             OR(P58=0, P58=1),
             O58&lt;&gt;0
         ),
-        ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100), 2),
+        IF(G58&gt;0,
+            ROUND((D58 * E58 * PRODUCT(1 - H58:H58 / 100) - Q58), 2),
+            ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8589,7 +9441,10 @@
             OR(P58=0, P58=1),
             O58&lt;&gt;0
         ),
-        ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2),
+        IF(G58&gt;0,
+            ROUND((D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100) - Q58), 2),
+            ROUND(D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8677,7 +9532,10 @@
             OR(P59=0, P59=1),
             O59&lt;&gt;0
         ),
-        ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2),
+        IF(G59&gt;0,
+            ROUND((D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100)-Q59), 2),
+            ROUND((D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100)), 2)
+        ),
     "")</f>
         <v>139.85</v>
       </c>
@@ -8688,7 +9546,10 @@
             OR(P59=0,P59=1),
             O59&lt;&gt;0
         ),
-        ROUND(D59 * E59 * 1.12 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2),
+        IF(G59&gt;0,
+            ROUND((D59 * E59 * 1.12 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100)-Q59), 2),
+            ROUND(D59 * E59 * 1.12 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8699,7 +9560,10 @@
             OR(P59=0, P59=1),
             O59&lt;&gt;0
         ),
-        ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2),
+        IF(G59&gt;0,
+            ROUND((D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100) - Q59), 2),
+            ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8710,7 +9574,10 @@
             OR(P59=0, P59=1),
             O59&lt;&gt;0
         ),
-        ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100), 2),
+        IF(G59&gt;0,
+            ROUND((D59 * E59 * PRODUCT(1 - H59:H59 / 100) - Q59), 2),
+            ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8721,7 +9588,10 @@
             OR(P59=0, P59=1),
             O59&lt;&gt;0
         ),
-        ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2),
+        IF(G59&gt;0,
+            ROUND((D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100) - Q59), 2),
+            ROUND(D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8809,7 +9679,10 @@
             OR(P60=0, P60=1),
             O60&lt;&gt;0
         ),
-        ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2),
+        IF(G60&gt;0,
+            ROUND((D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100)-Q60), 2),
+            ROUND((D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100)), 2)
+        ),
     "")</f>
         <v>126.9</v>
       </c>
@@ -8820,7 +9693,10 @@
             OR(P60=0,P60=1),
             O60&lt;&gt;0
         ),
-        ROUND(D60 * E60 * 1.12 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2),
+        IF(G60&gt;0,
+            ROUND((D60 * E60 * 1.12 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100)-Q60), 2),
+            ROUND(D60 * E60 * 1.12 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8831,7 +9707,10 @@
             OR(P60=0, P60=1),
             O60&lt;&gt;0
         ),
-        ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2),
+        IF(G60&gt;0,
+            ROUND((D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100) - Q60), 2),
+            ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8842,7 +9721,10 @@
             OR(P60=0, P60=1),
             O60&lt;&gt;0
         ),
-        ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100), 2),
+        IF(G60&gt;0,
+            ROUND((D60 * E60 * PRODUCT(1 - H60:H60 / 100) - Q60), 2),
+            ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8853,7 +9735,10 @@
             OR(P60=0, P60=1),
             O60&lt;&gt;0
         ),
-        ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2),
+        IF(G60&gt;0,
+            ROUND((D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100) - Q60), 2),
+            ROUND(D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8941,7 +9826,10 @@
             OR(P61=0, P61=1),
             O61&lt;&gt;0
         ),
-        ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2),
+        IF(G61&gt;0,
+            ROUND((D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100)-Q61), 2),
+            ROUND((D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100)), 2)
+        ),
     "")</f>
         <v>78.599999999999994</v>
       </c>
@@ -8952,7 +9840,10 @@
             OR(P61=0,P61=1),
             O61&lt;&gt;0
         ),
-        ROUND(D61 * E61 * 1.12 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2),
+        IF(G61&gt;0,
+            ROUND((D61 * E61 * 1.12 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100)-Q61), 2),
+            ROUND(D61 * E61 * 1.12 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8963,7 +9854,10 @@
             OR(P61=0, P61=1),
             O61&lt;&gt;0
         ),
-        ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2),
+        IF(G61&gt;0,
+            ROUND((D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100) - Q61), 2),
+            ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8974,7 +9868,10 @@
             OR(P61=0, P61=1),
             O61&lt;&gt;0
         ),
-        ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100), 2),
+        IF(G61&gt;0,
+            ROUND((D61 * E61 * PRODUCT(1 - H61:H61 / 100) - Q61), 2),
+            ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -8985,7 +9882,10 @@
             OR(P61=0, P61=1),
             O61&lt;&gt;0
         ),
-        ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2),
+        IF(G61&gt;0,
+            ROUND((D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100) - Q61), 2),
+            ROUND(D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9073,7 +9973,10 @@
             OR(P62=0, P62=1),
             O62&lt;&gt;0
         ),
-        ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2),
+        IF(G62&gt;0,
+            ROUND((D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100)-Q62), 2),
+            ROUND((D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100)), 2)
+        ),
     "")</f>
         <v>35.75</v>
       </c>
@@ -9084,7 +9987,10 @@
             OR(P62=0,P62=1),
             O62&lt;&gt;0
         ),
-        ROUND(D62 * E62 * 1.12 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2),
+        IF(G62&gt;0,
+            ROUND((D62 * E62 * 1.12 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100)-Q62), 2),
+            ROUND(D62 * E62 * 1.12 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9095,7 +10001,10 @@
             OR(P62=0, P62=1),
             O62&lt;&gt;0
         ),
-        ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2),
+        IF(G62&gt;0,
+            ROUND((D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100) - Q62), 2),
+            ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9106,7 +10015,10 @@
             OR(P62=0, P62=1),
             O62&lt;&gt;0
         ),
-        ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100), 2),
+        IF(G62&gt;0,
+            ROUND((D62 * E62 * PRODUCT(1 - H62:H62 / 100) - Q62), 2),
+            ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9117,7 +10029,10 @@
             OR(P62=0, P62=1),
             O62&lt;&gt;0
         ),
-        ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2),
+        IF(G62&gt;0,
+            ROUND((D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100) - Q62), 2),
+            ROUND(D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9205,7 +10120,10 @@
             OR(P63=0, P63=1),
             O63&lt;&gt;0
         ),
-        ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2),
+        IF(G63&gt;0,
+            ROUND((D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100)-Q63), 2),
+            ROUND((D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100)), 2)
+        ),
     "")</f>
         <v>12.5</v>
       </c>
@@ -9216,7 +10134,10 @@
             OR(P63=0,P63=1),
             O63&lt;&gt;0
         ),
-        ROUND(D63 * E63 * 1.12 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2),
+        IF(G63&gt;0,
+            ROUND((D63 * E63 * 1.12 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100)-Q63), 2),
+            ROUND(D63 * E63 * 1.12 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9227,7 +10148,10 @@
             OR(P63=0, P63=1),
             O63&lt;&gt;0
         ),
-        ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2),
+        IF(G63&gt;0,
+            ROUND((D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100) - Q63), 2),
+            ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9238,7 +10162,10 @@
             OR(P63=0, P63=1),
             O63&lt;&gt;0
         ),
-        ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100), 2),
+        IF(G63&gt;0,
+            ROUND((D63 * E63 * PRODUCT(1 - H63:H63 / 100) - Q63), 2),
+            ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9249,7 +10176,10 @@
             OR(P63=0, P63=1),
             O63&lt;&gt;0
         ),
-        ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2),
+        IF(G63&gt;0,
+            ROUND((D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100) - Q63), 2),
+            ROUND(D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9337,7 +10267,10 @@
             OR(P64=0, P64=1),
             O64&lt;&gt;0
         ),
-        ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2),
+        IF(G64&gt;0,
+            ROUND((D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100)-Q64), 2),
+            ROUND((D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100)), 2)
+        ),
     "")</f>
         <v>85.5</v>
       </c>
@@ -9348,7 +10281,10 @@
             OR(P64=0,P64=1),
             O64&lt;&gt;0
         ),
-        ROUND(D64 * E64 * 1.12 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2),
+        IF(G64&gt;0,
+            ROUND((D64 * E64 * 1.12 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100)-Q64), 2),
+            ROUND(D64 * E64 * 1.12 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9359,7 +10295,10 @@
             OR(P64=0, P64=1),
             O64&lt;&gt;0
         ),
-        ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2),
+        IF(G64&gt;0,
+            ROUND((D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100) - Q64), 2),
+            ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9370,7 +10309,10 @@
             OR(P64=0, P64=1),
             O64&lt;&gt;0
         ),
-        ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100), 2),
+        IF(G64&gt;0,
+            ROUND((D64 * E64 * PRODUCT(1 - H64:H64 / 100) - Q64), 2),
+            ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9381,7 +10323,10 @@
             OR(P64=0, P64=1),
             O64&lt;&gt;0
         ),
-        ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2),
+        IF(G64&gt;0,
+            ROUND((D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100) - Q64), 2),
+            ROUND(D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9469,7 +10414,10 @@
             OR(P65=0, P65=1),
             O65&lt;&gt;0
         ),
-        ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2),
+        IF(G65&gt;0,
+            ROUND((D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100)-Q65), 2),
+            ROUND((D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100)), 2)
+        ),
     "")</f>
         <v>57</v>
       </c>
@@ -9480,7 +10428,10 @@
             OR(P65=0,P65=1),
             O65&lt;&gt;0
         ),
-        ROUND(D65 * E65 * 1.12 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2),
+        IF(G65&gt;0,
+            ROUND((D65 * E65 * 1.12 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100)-Q65), 2),
+            ROUND(D65 * E65 * 1.12 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9491,7 +10442,10 @@
             OR(P65=0, P65=1),
             O65&lt;&gt;0
         ),
-        ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2),
+        IF(G65&gt;0,
+            ROUND((D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100) - Q65), 2),
+            ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9502,7 +10456,10 @@
             OR(P65=0, P65=1),
             O65&lt;&gt;0
         ),
-        ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100), 2),
+        IF(G65&gt;0,
+            ROUND((D65 * E65 * PRODUCT(1 - H65:H65 / 100) - Q65), 2),
+            ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9513,7 +10470,10 @@
             OR(P65=0, P65=1),
             O65&lt;&gt;0
         ),
-        ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2),
+        IF(G65&gt;0,
+            ROUND((D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100) - Q65), 2),
+            ROUND(D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9601,7 +10561,10 @@
             OR(P66=0, P66=1),
             O66&lt;&gt;0
         ),
-        ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2),
+        IF(G66&gt;0,
+            ROUND((D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100)-Q66), 2),
+            ROUND((D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100)), 2)
+        ),
     "")</f>
         <v>88.25</v>
       </c>
@@ -9612,7 +10575,10 @@
             OR(P66=0,P66=1),
             O66&lt;&gt;0
         ),
-        ROUND(D66 * E66 * 1.12 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2),
+        IF(G66&gt;0,
+            ROUND((D66 * E66 * 1.12 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100)-Q66), 2),
+            ROUND(D66 * E66 * 1.12 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9623,7 +10589,10 @@
             OR(P66=0, P66=1),
             O66&lt;&gt;0
         ),
-        ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2),
+        IF(G66&gt;0,
+            ROUND((D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100) - Q66), 2),
+            ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9634,7 +10603,10 @@
             OR(P66=0, P66=1),
             O66&lt;&gt;0
         ),
-        ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100), 2),
+        IF(G66&gt;0,
+            ROUND((D66 * E66 * PRODUCT(1 - H66:H66 / 100) - Q66), 2),
+            ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9645,7 +10617,10 @@
             OR(P66=0, P66=1),
             O66&lt;&gt;0
         ),
-        ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2),
+        IF(G66&gt;0,
+            ROUND((D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100) - Q66), 2),
+            ROUND(D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9766,7 +10741,10 @@
             OR(P67=0, P67=1),
             O67&lt;&gt;0
         ),
-        ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2),
+        IF(G67&gt;0,
+            ROUND((D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100)-Q67), 2),
+            ROUND((D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100)), 2)
+        ),
     "")</f>
         <v>29.1</v>
       </c>
@@ -9777,7 +10755,10 @@
             OR(P67=0,P67=1),
             O67&lt;&gt;0
         ),
-        ROUND(D67 * E67 * 1.12 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2),
+        IF(G67&gt;0,
+            ROUND((D67 * E67 * 1.12 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100)-Q67), 2),
+            ROUND(D67 * E67 * 1.12 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9788,7 +10769,10 @@
             OR(P67=0, P67=1),
             O67&lt;&gt;0
         ),
-        ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2),
+        IF(G67&gt;0,
+            ROUND((D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100) - Q67), 2),
+            ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9799,7 +10783,10 @@
             OR(P67=0, P67=1),
             O67&lt;&gt;0
         ),
-        ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100), 2),
+        IF(G67&gt;0,
+            ROUND((D67 * E67 * PRODUCT(1 - H67:H67 / 100) - Q67), 2),
+            ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9810,7 +10797,10 @@
             OR(P67=0, P67=1),
             O67&lt;&gt;0
         ),
-        ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2),
+        IF(G67&gt;0,
+            ROUND((D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100) - Q67), 2),
+            ROUND(D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9898,7 +10888,10 @@
             OR(P68=0, P68=1),
             O68&lt;&gt;0
         ),
-        ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2),
+        IF(G68&gt;0,
+            ROUND((D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100)-Q68), 2),
+            ROUND((D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100)), 2)
+        ),
     "")</f>
         <v>16.95</v>
       </c>
@@ -9909,7 +10902,10 @@
             OR(P68=0,P68=1),
             O68&lt;&gt;0
         ),
-        ROUND(D68 * E68 * 1.12 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2),
+        IF(G68&gt;0,
+            ROUND((D68 * E68 * 1.12 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100)-Q68), 2),
+            ROUND(D68 * E68 * 1.12 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9920,7 +10916,10 @@
             OR(P68=0, P68=1),
             O68&lt;&gt;0
         ),
-        ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2),
+        IF(G68&gt;0,
+            ROUND((D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100) - Q68), 2),
+            ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9931,7 +10930,10 @@
             OR(P68=0, P68=1),
             O68&lt;&gt;0
         ),
-        ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100), 2),
+        IF(G68&gt;0,
+            ROUND((D68 * E68 * PRODUCT(1 - H68:H68 / 100) - Q68), 2),
+            ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -9942,7 +10944,10 @@
             OR(P68=0, P68=1),
             O68&lt;&gt;0
         ),
-        ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2),
+        IF(G68&gt;0,
+            ROUND((D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100) - Q68), 2),
+            ROUND(D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10030,7 +11035,10 @@
             OR(P69=0, P69=1),
             O69&lt;&gt;0
         ),
-        ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2),
+        IF(G69&gt;0,
+            ROUND((D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100)-Q69), 2),
+            ROUND((D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100)), 2)
+        ),
     "")</f>
         <v>58.5</v>
       </c>
@@ -10041,7 +11049,10 @@
             OR(P69=0,P69=1),
             O69&lt;&gt;0
         ),
-        ROUND(D69 * E69 * 1.12 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2),
+        IF(G69&gt;0,
+            ROUND((D69 * E69 * 1.12 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100)-Q69), 2),
+            ROUND(D69 * E69 * 1.12 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10052,7 +11063,10 @@
             OR(P69=0, P69=1),
             O69&lt;&gt;0
         ),
-        ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2),
+        IF(G69&gt;0,
+            ROUND((D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100) - Q69), 2),
+            ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10063,7 +11077,10 @@
             OR(P69=0, P69=1),
             O69&lt;&gt;0
         ),
-        ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100), 2),
+        IF(G69&gt;0,
+            ROUND((D69 * E69 * PRODUCT(1 - H69:H69 / 100) - Q69), 2),
+            ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10074,7 +11091,10 @@
             OR(P69=0, P69=1),
             O69&lt;&gt;0
         ),
-        ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2),
+        IF(G69&gt;0,
+            ROUND((D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100) - Q69), 2),
+            ROUND(D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10162,7 +11182,10 @@
             OR(P70=0, P70=1),
             O70&lt;&gt;0
         ),
-        ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2),
+        IF(G70&gt;0,
+            ROUND((D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100)-Q70), 2),
+            ROUND((D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100)), 2)
+        ),
     "")</f>
         <v>16.95</v>
       </c>
@@ -10173,7 +11196,10 @@
             OR(P70=0,P70=1),
             O70&lt;&gt;0
         ),
-        ROUND(D70 * E70 * 1.12 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2),
+        IF(G70&gt;0,
+            ROUND((D70 * E70 * 1.12 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100)-Q70), 2),
+            ROUND(D70 * E70 * 1.12 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10184,7 +11210,10 @@
             OR(P70=0, P70=1),
             O70&lt;&gt;0
         ),
-        ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2),
+        IF(G70&gt;0,
+            ROUND((D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100) - Q70), 2),
+            ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10195,7 +11224,10 @@
             OR(P70=0, P70=1),
             O70&lt;&gt;0
         ),
-        ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100), 2),
+        IF(G70&gt;0,
+            ROUND((D70 * E70 * PRODUCT(1 - H70:H70 / 100) - Q70), 2),
+            ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10206,7 +11238,10 @@
             OR(P70=0, P70=1),
             O70&lt;&gt;0
         ),
-        ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2),
+        IF(G70&gt;0,
+            ROUND((D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100) - Q70), 2),
+            ROUND(D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10294,7 +11329,10 @@
             OR(P71=0, P71=1),
             O71&lt;&gt;0
         ),
-        ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2),
+        IF(G71&gt;0,
+            ROUND((D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100)-Q71), 2),
+            ROUND((D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100)), 2)
+        ),
     "")</f>
         <v>79.5</v>
       </c>
@@ -10305,7 +11343,10 @@
             OR(P71=0,P71=1),
             O71&lt;&gt;0
         ),
-        ROUND(D71 * E71 * 1.12 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2),
+        IF(G71&gt;0,
+            ROUND((D71 * E71 * 1.12 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100)-Q71), 2),
+            ROUND(D71 * E71 * 1.12 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10316,7 +11357,10 @@
             OR(P71=0, P71=1),
             O71&lt;&gt;0
         ),
-        ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2),
+        IF(G71&gt;0,
+            ROUND((D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100) - Q71), 2),
+            ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10327,7 +11371,10 @@
             OR(P71=0, P71=1),
             O71&lt;&gt;0
         ),
-        ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100), 2),
+        IF(G71&gt;0,
+            ROUND((D71 * E71 * PRODUCT(1 - H71:H71 / 100) - Q71), 2),
+            ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10338,7 +11385,10 @@
             OR(P71=0, P71=1),
             O71&lt;&gt;0
         ),
-        ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2),
+        IF(G71&gt;0,
+            ROUND((D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100) - Q71), 2),
+            ROUND(D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10426,7 +11476,10 @@
             OR(P72=0, P72=1),
             O72&lt;&gt;0
         ),
-        ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2),
+        IF(G72&gt;0,
+            ROUND((D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100)-Q72), 2),
+            ROUND((D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100)), 2)
+        ),
     "")</f>
         <v>33</v>
       </c>
@@ -10437,7 +11490,10 @@
             OR(P72=0,P72=1),
             O72&lt;&gt;0
         ),
-        ROUND(D72 * E72 * 1.12 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2),
+        IF(G72&gt;0,
+            ROUND((D72 * E72 * 1.12 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100)-Q72), 2),
+            ROUND(D72 * E72 * 1.12 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10448,7 +11504,10 @@
             OR(P72=0, P72=1),
             O72&lt;&gt;0
         ),
-        ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2),
+        IF(G72&gt;0,
+            ROUND((D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100) - Q72), 2),
+            ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10459,7 +11518,10 @@
             OR(P72=0, P72=1),
             O72&lt;&gt;0
         ),
-        ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100), 2),
+        IF(G72&gt;0,
+            ROUND((D72 * E72 * PRODUCT(1 - H72:H72 / 100) - Q72), 2),
+            ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10470,7 +11532,10 @@
             OR(P72=0, P72=1),
             O72&lt;&gt;0
         ),
-        ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2),
+        IF(G72&gt;0,
+            ROUND((D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100) - Q72), 2),
+            ROUND(D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10558,7 +11623,10 @@
             OR(P73=0, P73=1),
             O73&lt;&gt;0
         ),
-        ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2),
+        IF(G73&gt;0,
+            ROUND((D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100)-Q73), 2),
+            ROUND((D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100)), 2)
+        ),
     "")</f>
         <v>33</v>
       </c>
@@ -10569,7 +11637,10 @@
             OR(P73=0,P73=1),
             O73&lt;&gt;0
         ),
-        ROUND(D73 * E73 * 1.12 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2),
+        IF(G73&gt;0,
+            ROUND((D73 * E73 * 1.12 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100)-Q73), 2),
+            ROUND(D73 * E73 * 1.12 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10580,7 +11651,10 @@
             OR(P73=0, P73=1),
             O73&lt;&gt;0
         ),
-        ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2),
+        IF(G73&gt;0,
+            ROUND((D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100) - Q73), 2),
+            ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10591,7 +11665,10 @@
             OR(P73=0, P73=1),
             O73&lt;&gt;0
         ),
-        ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100), 2),
+        IF(G73&gt;0,
+            ROUND((D73 * E73 * PRODUCT(1 - H73:H73 / 100) - Q73), 2),
+            ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10602,7 +11679,10 @@
             OR(P73=0, P73=1),
             O73&lt;&gt;0
         ),
-        ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2),
+        IF(G73&gt;0,
+            ROUND((D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100) - Q73), 2),
+            ROUND(D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10658,7 +11738,10 @@
             OR(P74=0, P74=1),
             O74&lt;&gt;0
         ),
-        ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2),
+        IF(G74&gt;0,
+            ROUND((D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100)-Q74), 2),
+            ROUND((D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10669,7 +11752,10 @@
             OR(P74=0,P74=1),
             O74&lt;&gt;0
         ),
-        ROUND(D74 * E74 * 1.12 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2),
+        IF(G74&gt;0,
+            ROUND((D74 * E74 * 1.12 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100)-Q74), 2),
+            ROUND(D74 * E74 * 1.12 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10680,7 +11766,10 @@
             OR(P74=0, P74=1),
             O74&lt;&gt;0
         ),
-        ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2),
+        IF(G74&gt;0,
+            ROUND((D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100) - Q74), 2),
+            ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10691,7 +11780,10 @@
             OR(P74=0, P74=1),
             O74&lt;&gt;0
         ),
-        ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100), 2),
+        IF(G74&gt;0,
+            ROUND((D74 * E74 * PRODUCT(1 - H74:H74 / 100) - Q74), 2),
+            ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10702,7 +11794,10 @@
             OR(P74=0, P74=1),
             O74&lt;&gt;0
         ),
-        ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2),
+        IF(G74&gt;0,
+            ROUND((D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100) - Q74), 2),
+            ROUND(D74 * E74 * PRODUCT(1 - H74:H74 / 100, 1 - L74:L74 / 100, 1 - N74:N74 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10758,7 +11853,10 @@
             OR(P75=0, P75=1),
             O75&lt;&gt;0
         ),
-        ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2),
+        IF(G75&gt;0,
+            ROUND((D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100)-Q75), 2),
+            ROUND((D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10769,7 +11867,10 @@
             OR(P75=0,P75=1),
             O75&lt;&gt;0
         ),
-        ROUND(D75 * E75 * 1.12 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2),
+        IF(G75&gt;0,
+            ROUND((D75 * E75 * 1.12 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100)-Q75), 2),
+            ROUND(D75 * E75 * 1.12 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10780,7 +11881,10 @@
             OR(P75=0, P75=1),
             O75&lt;&gt;0
         ),
-        ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2),
+        IF(G75&gt;0,
+            ROUND((D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100) - Q75), 2),
+            ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10791,7 +11895,10 @@
             OR(P75=0, P75=1),
             O75&lt;&gt;0
         ),
-        ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100), 2),
+        IF(G75&gt;0,
+            ROUND((D75 * E75 * PRODUCT(1 - H75:H75 / 100) - Q75), 2),
+            ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10802,7 +11909,10 @@
             OR(P75=0, P75=1),
             O75&lt;&gt;0
         ),
-        ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2),
+        IF(G75&gt;0,
+            ROUND((D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100) - Q75), 2),
+            ROUND(D75 * E75 * PRODUCT(1 - H75:H75 / 100, 1 - L75:L75 / 100, 1 - N75:N75 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10858,7 +11968,10 @@
             OR(P76=0, P76=1),
             O76&lt;&gt;0
         ),
-        ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2),
+        IF(G76&gt;0,
+            ROUND((D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100)-Q76), 2),
+            ROUND((D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10869,7 +11982,10 @@
             OR(P76=0,P76=1),
             O76&lt;&gt;0
         ),
-        ROUND(D76 * E76 * 1.12 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2),
+        IF(G76&gt;0,
+            ROUND((D76 * E76 * 1.12 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100)-Q76), 2),
+            ROUND(D76 * E76 * 1.12 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10880,7 +11996,10 @@
             OR(P76=0, P76=1),
             O76&lt;&gt;0
         ),
-        ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2),
+        IF(G76&gt;0,
+            ROUND((D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100) - Q76), 2),
+            ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10891,7 +12010,10 @@
             OR(P76=0, P76=1),
             O76&lt;&gt;0
         ),
-        ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100), 2),
+        IF(G76&gt;0,
+            ROUND((D76 * E76 * PRODUCT(1 - H76:H76 / 100) - Q76), 2),
+            ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10902,7 +12024,10 @@
             OR(P76=0, P76=1),
             O76&lt;&gt;0
         ),
-        ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2),
+        IF(G76&gt;0,
+            ROUND((D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100) - Q76), 2),
+            ROUND(D76 * E76 * PRODUCT(1 - H76:H76 / 100, 1 - L76:L76 / 100, 1 - N76:N76 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10958,7 +12083,10 @@
             OR(P77=0, P77=1),
             O77&lt;&gt;0
         ),
-        ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2),
+        IF(G77&gt;0,
+            ROUND((D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100)-Q77), 2),
+            ROUND((D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10969,7 +12097,10 @@
             OR(P77=0,P77=1),
             O77&lt;&gt;0
         ),
-        ROUND(D77 * E77 * 1.12 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2),
+        IF(G77&gt;0,
+            ROUND((D77 * E77 * 1.12 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100)-Q77), 2),
+            ROUND(D77 * E77 * 1.12 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10980,7 +12111,10 @@
             OR(P77=0, P77=1),
             O77&lt;&gt;0
         ),
-        ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2),
+        IF(G77&gt;0,
+            ROUND((D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100) - Q77), 2),
+            ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -10991,7 +12125,10 @@
             OR(P77=0, P77=1),
             O77&lt;&gt;0
         ),
-        ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100), 2),
+        IF(G77&gt;0,
+            ROUND((D77 * E77 * PRODUCT(1 - H77:H77 / 100) - Q77), 2),
+            ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11002,7 +12139,10 @@
             OR(P77=0, P77=1),
             O77&lt;&gt;0
         ),
-        ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2),
+        IF(G77&gt;0,
+            ROUND((D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100) - Q77), 2),
+            ROUND(D77 * E77 * PRODUCT(1 - H77:H77 / 100, 1 - L77:L77 / 100, 1 - N77:N77 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11058,7 +12198,10 @@
             OR(P78=0, P78=1),
             O78&lt;&gt;0
         ),
-        ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2),
+        IF(G78&gt;0,
+            ROUND((D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100)-Q78), 2),
+            ROUND((D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11069,7 +12212,10 @@
             OR(P78=0,P78=1),
             O78&lt;&gt;0
         ),
-        ROUND(D78 * E78 * 1.12 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2),
+        IF(G78&gt;0,
+            ROUND((D78 * E78 * 1.12 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100)-Q78), 2),
+            ROUND(D78 * E78 * 1.12 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11080,7 +12226,10 @@
             OR(P78=0, P78=1),
             O78&lt;&gt;0
         ),
-        ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2),
+        IF(G78&gt;0,
+            ROUND((D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100) - Q78), 2),
+            ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11091,7 +12240,10 @@
             OR(P78=0, P78=1),
             O78&lt;&gt;0
         ),
-        ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100), 2),
+        IF(G78&gt;0,
+            ROUND((D78 * E78 * PRODUCT(1 - H78:H78 / 100) - Q78), 2),
+            ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11102,7 +12254,10 @@
             OR(P78=0, P78=1),
             O78&lt;&gt;0
         ),
-        ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2),
+        IF(G78&gt;0,
+            ROUND((D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100) - Q78), 2),
+            ROUND(D78 * E78 * PRODUCT(1 - H78:H78 / 100, 1 - L78:L78 / 100, 1 - N78:N78 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11158,7 +12313,10 @@
             OR(P79=0, P79=1),
             O79&lt;&gt;0
         ),
-        ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2),
+        IF(G79&gt;0,
+            ROUND((D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100)-Q79), 2),
+            ROUND((D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11169,7 +12327,10 @@
             OR(P79=0,P79=1),
             O79&lt;&gt;0
         ),
-        ROUND(D79 * E79 * 1.12 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2),
+        IF(G79&gt;0,
+            ROUND((D79 * E79 * 1.12 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100)-Q79), 2),
+            ROUND(D79 * E79 * 1.12 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11180,7 +12341,10 @@
             OR(P79=0, P79=1),
             O79&lt;&gt;0
         ),
-        ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2),
+        IF(G79&gt;0,
+            ROUND((D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100) - Q79), 2),
+            ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11191,7 +12355,10 @@
             OR(P79=0, P79=1),
             O79&lt;&gt;0
         ),
-        ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100), 2),
+        IF(G79&gt;0,
+            ROUND((D79 * E79 * PRODUCT(1 - H79:H79 / 100) - Q79), 2),
+            ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11202,7 +12369,10 @@
             OR(P79=0, P79=1),
             O79&lt;&gt;0
         ),
-        ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2),
+        IF(G79&gt;0,
+            ROUND((D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100) - Q79), 2),
+            ROUND(D79 * E79 * PRODUCT(1 - H79:H79 / 100, 1 - L79:L79 / 100, 1 - N79:N79 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11258,7 +12428,10 @@
             OR(P80=0, P80=1),
             O80&lt;&gt;0
         ),
-        ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2),
+        IF(G80&gt;0,
+            ROUND((D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100)-Q80), 2),
+            ROUND((D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11269,7 +12442,10 @@
             OR(P80=0,P80=1),
             O80&lt;&gt;0
         ),
-        ROUND(D80 * E80 * 1.12 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2),
+        IF(G80&gt;0,
+            ROUND((D80 * E80 * 1.12 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100)-Q80), 2),
+            ROUND(D80 * E80 * 1.12 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11280,7 +12456,10 @@
             OR(P80=0, P80=1),
             O80&lt;&gt;0
         ),
-        ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2),
+        IF(G80&gt;0,
+            ROUND((D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100) - Q80), 2),
+            ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11291,7 +12470,10 @@
             OR(P80=0, P80=1),
             O80&lt;&gt;0
         ),
-        ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100), 2),
+        IF(G80&gt;0,
+            ROUND((D80 * E80 * PRODUCT(1 - H80:H80 / 100) - Q80), 2),
+            ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11302,7 +12484,10 @@
             OR(P80=0, P80=1),
             O80&lt;&gt;0
         ),
-        ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2),
+        IF(G80&gt;0,
+            ROUND((D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100) - Q80), 2),
+            ROUND(D80 * E80 * PRODUCT(1 - H80:H80 / 100, 1 - L80:L80 / 100, 1 - N80:N80 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11358,7 +12543,10 @@
             OR(P81=0, P81=1),
             O81&lt;&gt;0
         ),
-        ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2),
+        IF(G81&gt;0,
+            ROUND((D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100)-Q81), 2),
+            ROUND((D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11369,7 +12557,10 @@
             OR(P81=0,P81=1),
             O81&lt;&gt;0
         ),
-        ROUND(D81 * E81 * 1.12 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2),
+        IF(G81&gt;0,
+            ROUND((D81 * E81 * 1.12 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100)-Q81), 2),
+            ROUND(D81 * E81 * 1.12 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11380,7 +12571,10 @@
             OR(P81=0, P81=1),
             O81&lt;&gt;0
         ),
-        ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2),
+        IF(G81&gt;0,
+            ROUND((D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100) - Q81), 2),
+            ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11391,7 +12585,10 @@
             OR(P81=0, P81=1),
             O81&lt;&gt;0
         ),
-        ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100), 2),
+        IF(G81&gt;0,
+            ROUND((D81 * E81 * PRODUCT(1 - H81:H81 / 100) - Q81), 2),
+            ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11402,7 +12599,10 @@
             OR(P81=0, P81=1),
             O81&lt;&gt;0
         ),
-        ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2),
+        IF(G81&gt;0,
+            ROUND((D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100) - Q81), 2),
+            ROUND(D81 * E81 * PRODUCT(1 - H81:H81 / 100, 1 - L81:L81 / 100, 1 - N81:N81 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11458,7 +12658,10 @@
             OR(P82=0, P82=1),
             O82&lt;&gt;0
         ),
-        ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2),
+        IF(G82&gt;0,
+            ROUND((D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100)-Q82), 2),
+            ROUND((D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11469,7 +12672,10 @@
             OR(P82=0,P82=1),
             O82&lt;&gt;0
         ),
-        ROUND(D82 * E82 * 1.12 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2),
+        IF(G82&gt;0,
+            ROUND((D82 * E82 * 1.12 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100)-Q82), 2),
+            ROUND(D82 * E82 * 1.12 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11480,7 +12686,10 @@
             OR(P82=0, P82=1),
             O82&lt;&gt;0
         ),
-        ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2),
+        IF(G82&gt;0,
+            ROUND((D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100) - Q82), 2),
+            ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11491,7 +12700,10 @@
             OR(P82=0, P82=1),
             O82&lt;&gt;0
         ),
-        ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100), 2),
+        IF(G82&gt;0,
+            ROUND((D82 * E82 * PRODUCT(1 - H82:H82 / 100) - Q82), 2),
+            ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11502,7 +12714,10 @@
             OR(P82=0, P82=1),
             O82&lt;&gt;0
         ),
-        ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2),
+        IF(G82&gt;0,
+            ROUND((D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100) - Q82), 2),
+            ROUND(D82 * E82 * PRODUCT(1 - H82:H82 / 100, 1 - L82:L82 / 100, 1 - N82:N82 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11558,7 +12773,10 @@
             OR(P83=0, P83=1),
             O83&lt;&gt;0
         ),
-        ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2),
+        IF(G83&gt;0,
+            ROUND((D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100)-Q83), 2),
+            ROUND((D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11569,7 +12787,10 @@
             OR(P83=0,P83=1),
             O83&lt;&gt;0
         ),
-        ROUND(D83 * E83 * 1.12 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2),
+        IF(G83&gt;0,
+            ROUND((D83 * E83 * 1.12 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100)-Q83), 2),
+            ROUND(D83 * E83 * 1.12 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11580,7 +12801,10 @@
             OR(P83=0, P83=1),
             O83&lt;&gt;0
         ),
-        ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2),
+        IF(G83&gt;0,
+            ROUND((D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100) - Q83), 2),
+            ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11591,7 +12815,10 @@
             OR(P83=0, P83=1),
             O83&lt;&gt;0
         ),
-        ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100), 2),
+        IF(G83&gt;0,
+            ROUND((D83 * E83 * PRODUCT(1 - H83:H83 / 100) - Q83), 2),
+            ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11602,7 +12829,10 @@
             OR(P83=0, P83=1),
             O83&lt;&gt;0
         ),
-        ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2),
+        IF(G83&gt;0,
+            ROUND((D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100) - Q83), 2),
+            ROUND(D83 * E83 * PRODUCT(1 - H83:H83 / 100, 1 - L83:L83 / 100, 1 - N83:N83 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11658,7 +12888,10 @@
             OR(P84=0, P84=1),
             O84&lt;&gt;0
         ),
-        ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2),
+        IF(G84&gt;0,
+            ROUND((D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100)-Q84), 2),
+            ROUND((D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11669,7 +12902,10 @@
             OR(P84=0,P84=1),
             O84&lt;&gt;0
         ),
-        ROUND(D84 * E84 * 1.12 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2),
+        IF(G84&gt;0,
+            ROUND((D84 * E84 * 1.12 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100)-Q84), 2),
+            ROUND(D84 * E84 * 1.12 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11680,7 +12916,10 @@
             OR(P84=0, P84=1),
             O84&lt;&gt;0
         ),
-        ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2),
+        IF(G84&gt;0,
+            ROUND((D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100) - Q84), 2),
+            ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11691,7 +12930,10 @@
             OR(P84=0, P84=1),
             O84&lt;&gt;0
         ),
-        ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100), 2),
+        IF(G84&gt;0,
+            ROUND((D84 * E84 * PRODUCT(1 - H84:H84 / 100) - Q84), 2),
+            ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11702,7 +12944,10 @@
             OR(P84=0, P84=1),
             O84&lt;&gt;0
         ),
-        ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2),
+        IF(G84&gt;0,
+            ROUND((D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100) - Q84), 2),
+            ROUND(D84 * E84 * PRODUCT(1 - H84:H84 / 100, 1 - L84:L84 / 100, 1 - N84:N84 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11758,7 +13003,10 @@
             OR(P85=0, P85=1),
             O85&lt;&gt;0
         ),
-        ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2),
+        IF(G85&gt;0,
+            ROUND((D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100)-Q85), 2),
+            ROUND((D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11769,7 +13017,10 @@
             OR(P85=0,P85=1),
             O85&lt;&gt;0
         ),
-        ROUND(D85 * E85 * 1.12 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2),
+        IF(G85&gt;0,
+            ROUND((D85 * E85 * 1.12 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100)-Q85), 2),
+            ROUND(D85 * E85 * 1.12 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11780,7 +13031,10 @@
             OR(P85=0, P85=1),
             O85&lt;&gt;0
         ),
-        ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2),
+        IF(G85&gt;0,
+            ROUND((D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100) - Q85), 2),
+            ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11791,7 +13045,10 @@
             OR(P85=0, P85=1),
             O85&lt;&gt;0
         ),
-        ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100), 2),
+        IF(G85&gt;0,
+            ROUND((D85 * E85 * PRODUCT(1 - H85:H85 / 100) - Q85), 2),
+            ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11802,7 +13059,10 @@
             OR(P85=0, P85=1),
             O85&lt;&gt;0
         ),
-        ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2),
+        IF(G85&gt;0,
+            ROUND((D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100) - Q85), 2),
+            ROUND(D85 * E85 * PRODUCT(1 - H85:H85 / 100, 1 - L85:L85 / 100, 1 - N85:N85 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11858,7 +13118,10 @@
             OR(P86=0, P86=1),
             O86&lt;&gt;0
         ),
-        ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2),
+        IF(G86&gt;0,
+            ROUND((D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100)-Q86), 2),
+            ROUND((D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11869,7 +13132,10 @@
             OR(P86=0,P86=1),
             O86&lt;&gt;0
         ),
-        ROUND(D86 * E86 * 1.12 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2),
+        IF(G86&gt;0,
+            ROUND((D86 * E86 * 1.12 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100)-Q86), 2),
+            ROUND(D86 * E86 * 1.12 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11880,7 +13146,10 @@
             OR(P86=0, P86=1),
             O86&lt;&gt;0
         ),
-        ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2),
+        IF(G86&gt;0,
+            ROUND((D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100) - Q86), 2),
+            ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11891,7 +13160,10 @@
             OR(P86=0, P86=1),
             O86&lt;&gt;0
         ),
-        ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100), 2),
+        IF(G86&gt;0,
+            ROUND((D86 * E86 * PRODUCT(1 - H86:H86 / 100) - Q86), 2),
+            ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11902,7 +13174,10 @@
             OR(P86=0, P86=1),
             O86&lt;&gt;0
         ),
-        ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2),
+        IF(G86&gt;0,
+            ROUND((D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100) - Q86), 2),
+            ROUND(D86 * E86 * PRODUCT(1 - H86:H86 / 100, 1 - L86:L86 / 100, 1 - N86:N86 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11958,7 +13233,10 @@
             OR(P87=0, P87=1),
             O87&lt;&gt;0
         ),
-        ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2),
+        IF(G87&gt;0,
+            ROUND((D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100)-Q87), 2),
+            ROUND((D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11969,7 +13247,10 @@
             OR(P87=0,P87=1),
             O87&lt;&gt;0
         ),
-        ROUND(D87 * E87 * 1.12 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2),
+        IF(G87&gt;0,
+            ROUND((D87 * E87 * 1.12 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100)-Q87), 2),
+            ROUND(D87 * E87 * 1.12 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11980,7 +13261,10 @@
             OR(P87=0, P87=1),
             O87&lt;&gt;0
         ),
-        ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2),
+        IF(G87&gt;0,
+            ROUND((D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100) - Q87), 2),
+            ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -11991,7 +13275,10 @@
             OR(P87=0, P87=1),
             O87&lt;&gt;0
         ),
-        ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100), 2),
+        IF(G87&gt;0,
+            ROUND((D87 * E87 * PRODUCT(1 - H87:H87 / 100) - Q87), 2),
+            ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12002,7 +13289,10 @@
             OR(P87=0, P87=1),
             O87&lt;&gt;0
         ),
-        ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2),
+        IF(G87&gt;0,
+            ROUND((D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100) - Q87), 2),
+            ROUND(D87 * E87 * PRODUCT(1 - H87:H87 / 100, 1 - L87:L87 / 100, 1 - N87:N87 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12058,7 +13348,10 @@
             OR(P88=0, P88=1),
             O88&lt;&gt;0
         ),
-        ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2),
+        IF(G88&gt;0,
+            ROUND((D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100)-Q88), 2),
+            ROUND((D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12069,7 +13362,10 @@
             OR(P88=0,P88=1),
             O88&lt;&gt;0
         ),
-        ROUND(D88 * E88 * 1.12 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2),
+        IF(G88&gt;0,
+            ROUND((D88 * E88 * 1.12 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100)-Q88), 2),
+            ROUND(D88 * E88 * 1.12 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12080,7 +13376,10 @@
             OR(P88=0, P88=1),
             O88&lt;&gt;0
         ),
-        ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2),
+        IF(G88&gt;0,
+            ROUND((D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100) - Q88), 2),
+            ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12091,7 +13390,10 @@
             OR(P88=0, P88=1),
             O88&lt;&gt;0
         ),
-        ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100), 2),
+        IF(G88&gt;0,
+            ROUND((D88 * E88 * PRODUCT(1 - H88:H88 / 100) - Q88), 2),
+            ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12102,7 +13404,10 @@
             OR(P88=0, P88=1),
             O88&lt;&gt;0
         ),
-        ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2),
+        IF(G88&gt;0,
+            ROUND((D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100) - Q88), 2),
+            ROUND(D88 * E88 * PRODUCT(1 - H88:H88 / 100, 1 - L88:L88 / 100, 1 - N88:N88 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12158,7 +13463,10 @@
             OR(P89=0, P89=1),
             O89&lt;&gt;0
         ),
-        ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2),
+        IF(G89&gt;0,
+            ROUND((D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100)-Q89), 2),
+            ROUND((D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12169,7 +13477,10 @@
             OR(P89=0,P89=1),
             O89&lt;&gt;0
         ),
-        ROUND(D89 * E89 * 1.12 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2),
+        IF(G89&gt;0,
+            ROUND((D89 * E89 * 1.12 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100)-Q89), 2),
+            ROUND(D89 * E89 * 1.12 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12180,7 +13491,10 @@
             OR(P89=0, P89=1),
             O89&lt;&gt;0
         ),
-        ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2),
+        IF(G89&gt;0,
+            ROUND((D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100) - Q89), 2),
+            ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12191,7 +13505,10 @@
             OR(P89=0, P89=1),
             O89&lt;&gt;0
         ),
-        ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100), 2),
+        IF(G89&gt;0,
+            ROUND((D89 * E89 * PRODUCT(1 - H89:H89 / 100) - Q89), 2),
+            ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12202,7 +13519,10 @@
             OR(P89=0, P89=1),
             O89&lt;&gt;0
         ),
-        ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2),
+        IF(G89&gt;0,
+            ROUND((D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100) - Q89), 2),
+            ROUND(D89 * E89 * PRODUCT(1 - H89:H89 / 100, 1 - L89:L89 / 100, 1 - N89:N89 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12258,7 +13578,10 @@
             OR(P90=0, P90=1),
             O90&lt;&gt;0
         ),
-        ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2),
+        IF(G90&gt;0,
+            ROUND((D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100)-Q90), 2),
+            ROUND((D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12269,7 +13592,10 @@
             OR(P90=0,P90=1),
             O90&lt;&gt;0
         ),
-        ROUND(D90 * E90 * 1.12 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2),
+        IF(G90&gt;0,
+            ROUND((D90 * E90 * 1.12 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100)-Q90), 2),
+            ROUND(D90 * E90 * 1.12 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12280,7 +13606,10 @@
             OR(P90=0, P90=1),
             O90&lt;&gt;0
         ),
-        ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2),
+        IF(G90&gt;0,
+            ROUND((D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100) - Q90), 2),
+            ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12291,7 +13620,10 @@
             OR(P90=0, P90=1),
             O90&lt;&gt;0
         ),
-        ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100), 2),
+        IF(G90&gt;0,
+            ROUND((D90 * E90 * PRODUCT(1 - H90:H90 / 100) - Q90), 2),
+            ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12302,7 +13634,10 @@
             OR(P90=0, P90=1),
             O90&lt;&gt;0
         ),
-        ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2),
+        IF(G90&gt;0,
+            ROUND((D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100) - Q90), 2),
+            ROUND(D90 * E90 * PRODUCT(1 - H90:H90 / 100, 1 - L90:L90 / 100, 1 - N90:N90 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12358,7 +13693,10 @@
             OR(P91=0, P91=1),
             O91&lt;&gt;0
         ),
-        ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2),
+        IF(G91&gt;0,
+            ROUND((D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100)-Q91), 2),
+            ROUND((D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12369,7 +13707,10 @@
             OR(P91=0,P91=1),
             O91&lt;&gt;0
         ),
-        ROUND(D91 * E91 * 1.12 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2),
+        IF(G91&gt;0,
+            ROUND((D91 * E91 * 1.12 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100)-Q91), 2),
+            ROUND(D91 * E91 * 1.12 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12380,7 +13721,10 @@
             OR(P91=0, P91=1),
             O91&lt;&gt;0
         ),
-        ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2),
+        IF(G91&gt;0,
+            ROUND((D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100) - Q91), 2),
+            ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12391,7 +13735,10 @@
             OR(P91=0, P91=1),
             O91&lt;&gt;0
         ),
-        ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100), 2),
+        IF(G91&gt;0,
+            ROUND((D91 * E91 * PRODUCT(1 - H91:H91 / 100) - Q91), 2),
+            ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12402,7 +13749,10 @@
             OR(P91=0, P91=1),
             O91&lt;&gt;0
         ),
-        ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2),
+        IF(G91&gt;0,
+            ROUND((D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100) - Q91), 2),
+            ROUND(D91 * E91 * PRODUCT(1 - H91:H91 / 100, 1 - L91:L91 / 100, 1 - N91:N91 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12458,7 +13808,10 @@
             OR(P92=0, P92=1),
             O92&lt;&gt;0
         ),
-        ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2),
+        IF(G92&gt;0,
+            ROUND((D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100)-Q92), 2),
+            ROUND((D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12469,7 +13822,10 @@
             OR(P92=0,P92=1),
             O92&lt;&gt;0
         ),
-        ROUND(D92 * E92 * 1.12 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2),
+        IF(G92&gt;0,
+            ROUND((D92 * E92 * 1.12 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100)-Q92), 2),
+            ROUND(D92 * E92 * 1.12 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12480,7 +13836,10 @@
             OR(P92=0, P92=1),
             O92&lt;&gt;0
         ),
-        ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2),
+        IF(G92&gt;0,
+            ROUND((D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100) - Q92), 2),
+            ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12491,7 +13850,10 @@
             OR(P92=0, P92=1),
             O92&lt;&gt;0
         ),
-        ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100), 2),
+        IF(G92&gt;0,
+            ROUND((D92 * E92 * PRODUCT(1 - H92:H92 / 100) - Q92), 2),
+            ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12502,7 +13864,10 @@
             OR(P92=0, P92=1),
             O92&lt;&gt;0
         ),
-        ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2),
+        IF(G92&gt;0,
+            ROUND((D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100) - Q92), 2),
+            ROUND(D92 * E92 * PRODUCT(1 - H92:H92 / 100, 1 - L92:L92 / 100, 1 - N92:N92 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12558,7 +13923,10 @@
             OR(P93=0, P93=1),
             O93&lt;&gt;0
         ),
-        ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2),
+        IF(G93&gt;0,
+            ROUND((D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100)-Q93), 2),
+            ROUND((D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12569,7 +13937,10 @@
             OR(P93=0,P93=1),
             O93&lt;&gt;0
         ),
-        ROUND(D93 * E93 * 1.12 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2),
+        IF(G93&gt;0,
+            ROUND((D93 * E93 * 1.12 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100)-Q93), 2),
+            ROUND(D93 * E93 * 1.12 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12580,7 +13951,10 @@
             OR(P93=0, P93=1),
             O93&lt;&gt;0
         ),
-        ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2),
+        IF(G93&gt;0,
+            ROUND((D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100) - Q93), 2),
+            ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12591,7 +13965,10 @@
             OR(P93=0, P93=1),
             O93&lt;&gt;0
         ),
-        ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100), 2),
+        IF(G93&gt;0,
+            ROUND((D93 * E93 * PRODUCT(1 - H93:H93 / 100) - Q93), 2),
+            ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12602,7 +13979,10 @@
             OR(P93=0, P93=1),
             O93&lt;&gt;0
         ),
-        ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2),
+        IF(G93&gt;0,
+            ROUND((D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100) - Q93), 2),
+            ROUND(D93 * E93 * PRODUCT(1 - H93:H93 / 100, 1 - L93:L93 / 100, 1 - N93:N93 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12658,7 +14038,10 @@
             OR(P94=0, P94=1),
             O94&lt;&gt;0
         ),
-        ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2),
+        IF(G94&gt;0,
+            ROUND((D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100)-Q94), 2),
+            ROUND((D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12669,7 +14052,10 @@
             OR(P94=0,P94=1),
             O94&lt;&gt;0
         ),
-        ROUND(D94 * E94 * 1.12 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2),
+        IF(G94&gt;0,
+            ROUND((D94 * E94 * 1.12 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100)-Q94), 2),
+            ROUND(D94 * E94 * 1.12 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12680,7 +14066,10 @@
             OR(P94=0, P94=1),
             O94&lt;&gt;0
         ),
-        ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2),
+        IF(G94&gt;0,
+            ROUND((D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100) - Q94), 2),
+            ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12691,7 +14080,10 @@
             OR(P94=0, P94=1),
             O94&lt;&gt;0
         ),
-        ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100), 2),
+        IF(G94&gt;0,
+            ROUND((D94 * E94 * PRODUCT(1 - H94:H94 / 100) - Q94), 2),
+            ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12702,7 +14094,10 @@
             OR(P94=0, P94=1),
             O94&lt;&gt;0
         ),
-        ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2),
+        IF(G94&gt;0,
+            ROUND((D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100) - Q94), 2),
+            ROUND(D94 * E94 * PRODUCT(1 - H94:H94 / 100, 1 - L94:L94 / 100, 1 - N94:N94 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12758,7 +14153,10 @@
             OR(P95=0, P95=1),
             O95&lt;&gt;0
         ),
-        ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2),
+        IF(G95&gt;0,
+            ROUND((D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100)-Q95), 2),
+            ROUND((D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12769,7 +14167,10 @@
             OR(P95=0,P95=1),
             O95&lt;&gt;0
         ),
-        ROUND(D95 * E95 * 1.12 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2),
+        IF(G95&gt;0,
+            ROUND((D95 * E95 * 1.12 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100)-Q95), 2),
+            ROUND(D95 * E95 * 1.12 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12780,7 +14181,10 @@
             OR(P95=0, P95=1),
             O95&lt;&gt;0
         ),
-        ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2),
+        IF(G95&gt;0,
+            ROUND((D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100) - Q95), 2),
+            ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12791,7 +14195,10 @@
             OR(P95=0, P95=1),
             O95&lt;&gt;0
         ),
-        ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100), 2),
+        IF(G95&gt;0,
+            ROUND((D95 * E95 * PRODUCT(1 - H95:H95 / 100) - Q95), 2),
+            ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12802,7 +14209,10 @@
             OR(P95=0, P95=1),
             O95&lt;&gt;0
         ),
-        ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2),
+        IF(G95&gt;0,
+            ROUND((D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100) - Q95), 2),
+            ROUND(D95 * E95 * PRODUCT(1 - H95:H95 / 100, 1 - L95:L95 / 100, 1 - N95:N95 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12858,7 +14268,10 @@
             OR(P96=0, P96=1),
             O96&lt;&gt;0
         ),
-        ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2),
+        IF(G96&gt;0,
+            ROUND((D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100)-Q96), 2),
+            ROUND((D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12869,7 +14282,10 @@
             OR(P96=0,P96=1),
             O96&lt;&gt;0
         ),
-        ROUND(D96 * E96 * 1.12 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2),
+        IF(G96&gt;0,
+            ROUND((D96 * E96 * 1.12 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100)-Q96), 2),
+            ROUND(D96 * E96 * 1.12 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12880,7 +14296,10 @@
             OR(P96=0, P96=1),
             O96&lt;&gt;0
         ),
-        ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2),
+        IF(G96&gt;0,
+            ROUND((D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100) - Q96), 2),
+            ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12891,7 +14310,10 @@
             OR(P96=0, P96=1),
             O96&lt;&gt;0
         ),
-        ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100), 2),
+        IF(G96&gt;0,
+            ROUND((D96 * E96 * PRODUCT(1 - H96:H96 / 100) - Q96), 2),
+            ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12902,7 +14324,10 @@
             OR(P96=0, P96=1),
             O96&lt;&gt;0
         ),
-        ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2),
+        IF(G96&gt;0,
+            ROUND((D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100) - Q96), 2),
+            ROUND(D96 * E96 * PRODUCT(1 - H96:H96 / 100, 1 - L96:L96 / 100, 1 - N96:N96 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12958,7 +14383,10 @@
             OR(P97=0, P97=1),
             O97&lt;&gt;0
         ),
-        ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2),
+        IF(G97&gt;0,
+            ROUND((D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100)-Q97), 2),
+            ROUND((D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12969,7 +14397,10 @@
             OR(P97=0,P97=1),
             O97&lt;&gt;0
         ),
-        ROUND(D97 * E97 * 1.12 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2),
+        IF(G97&gt;0,
+            ROUND((D97 * E97 * 1.12 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100)-Q97), 2),
+            ROUND(D97 * E97 * 1.12 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12980,7 +14411,10 @@
             OR(P97=0, P97=1),
             O97&lt;&gt;0
         ),
-        ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2),
+        IF(G97&gt;0,
+            ROUND((D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100) - Q97), 2),
+            ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -12991,7 +14425,10 @@
             OR(P97=0, P97=1),
             O97&lt;&gt;0
         ),
-        ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100), 2),
+        IF(G97&gt;0,
+            ROUND((D97 * E97 * PRODUCT(1 - H97:H97 / 100) - Q97), 2),
+            ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13002,7 +14439,10 @@
             OR(P97=0, P97=1),
             O97&lt;&gt;0
         ),
-        ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2),
+        IF(G97&gt;0,
+            ROUND((D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100) - Q97), 2),
+            ROUND(D97 * E97 * PRODUCT(1 - H97:H97 / 100, 1 - L97:L97 / 100, 1 - N97:N97 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13058,7 +14498,10 @@
             OR(P98=0, P98=1),
             O98&lt;&gt;0
         ),
-        ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2),
+        IF(G98&gt;0,
+            ROUND((D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100)-Q98), 2),
+            ROUND((D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13069,7 +14512,10 @@
             OR(P98=0,P98=1),
             O98&lt;&gt;0
         ),
-        ROUND(D98 * E98 * 1.12 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2),
+        IF(G98&gt;0,
+            ROUND((D98 * E98 * 1.12 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100)-Q98), 2),
+            ROUND(D98 * E98 * 1.12 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13080,7 +14526,10 @@
             OR(P98=0, P98=1),
             O98&lt;&gt;0
         ),
-        ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2),
+        IF(G98&gt;0,
+            ROUND((D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100) - Q98), 2),
+            ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13091,7 +14540,10 @@
             OR(P98=0, P98=1),
             O98&lt;&gt;0
         ),
-        ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100), 2),
+        IF(G98&gt;0,
+            ROUND((D98 * E98 * PRODUCT(1 - H98:H98 / 100) - Q98), 2),
+            ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13102,7 +14554,10 @@
             OR(P98=0, P98=1),
             O98&lt;&gt;0
         ),
-        ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2),
+        IF(G98&gt;0,
+            ROUND((D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100) - Q98), 2),
+            ROUND(D98 * E98 * PRODUCT(1 - H98:H98 / 100, 1 - L98:L98 / 100, 1 - N98:N98 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13158,7 +14613,10 @@
             OR(P99=0, P99=1),
             O99&lt;&gt;0
         ),
-        ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2),
+        IF(G99&gt;0,
+            ROUND((D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100)-Q99), 2),
+            ROUND((D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13169,7 +14627,10 @@
             OR(P99=0,P99=1),
             O99&lt;&gt;0
         ),
-        ROUND(D99 * E99 * 1.12 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2),
+        IF(G99&gt;0,
+            ROUND((D99 * E99 * 1.12 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100)-Q99), 2),
+            ROUND(D99 * E99 * 1.12 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13180,7 +14641,10 @@
             OR(P99=0, P99=1),
             O99&lt;&gt;0
         ),
-        ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2),
+        IF(G99&gt;0,
+            ROUND((D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100) - Q99), 2),
+            ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13191,7 +14655,10 @@
             OR(P99=0, P99=1),
             O99&lt;&gt;0
         ),
-        ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100), 2),
+        IF(G99&gt;0,
+            ROUND((D99 * E99 * PRODUCT(1 - H99:H99 / 100) - Q99), 2),
+            ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13202,7 +14669,10 @@
             OR(P99=0, P99=1),
             O99&lt;&gt;0
         ),
-        ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2),
+        IF(G99&gt;0,
+            ROUND((D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100) - Q99), 2),
+            ROUND(D99 * E99 * PRODUCT(1 - H99:H99 / 100, 1 - L99:L99 / 100, 1 - N99:N99 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13258,7 +14728,10 @@
             OR(P100=0, P100=1),
             O100&lt;&gt;0
         ),
-        ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2),
+        IF(G100&gt;0,
+            ROUND((D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100)-Q100), 2),
+            ROUND((D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13269,7 +14742,10 @@
             OR(P100=0,P100=1),
             O100&lt;&gt;0
         ),
-        ROUND(D100 * E100 * 1.12 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2),
+        IF(G100&gt;0,
+            ROUND((D100 * E100 * 1.12 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100)-Q100), 2),
+            ROUND(D100 * E100 * 1.12 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13280,7 +14756,10 @@
             OR(P100=0, P100=1),
             O100&lt;&gt;0
         ),
-        ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2),
+        IF(G100&gt;0,
+            ROUND((D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100) - Q100), 2),
+            ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13291,7 +14770,10 @@
             OR(P100=0, P100=1),
             O100&lt;&gt;0
         ),
-        ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100), 2),
+        IF(G100&gt;0,
+            ROUND((D100 * E100 * PRODUCT(1 - H100:H100 / 100) - Q100), 2),
+            ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13302,7 +14784,10 @@
             OR(P100=0, P100=1),
             O100&lt;&gt;0
         ),
-        ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2),
+        IF(G100&gt;0,
+            ROUND((D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100) - Q100), 2),
+            ROUND(D100 * E100 * PRODUCT(1 - H100:H100 / 100, 1 - L100:L100 / 100, 1 - N100:N100 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13358,7 +14843,10 @@
             OR(P101=0, P101=1),
             O101&lt;&gt;0
         ),
-        ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2),
+        IF(G101&gt;0,
+            ROUND((D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100)-Q101), 2),
+            ROUND((D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13369,7 +14857,10 @@
             OR(P101=0,P101=1),
             O101&lt;&gt;0
         ),
-        ROUND(D101 * E101 * 1.12 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2),
+        IF(G101&gt;0,
+            ROUND((D101 * E101 * 1.12 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100)-Q101), 2),
+            ROUND(D101 * E101 * 1.12 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13380,7 +14871,10 @@
             OR(P101=0, P101=1),
             O101&lt;&gt;0
         ),
-        ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2),
+        IF(G101&gt;0,
+            ROUND((D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100) - Q101), 2),
+            ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13391,7 +14885,10 @@
             OR(P101=0, P101=1),
             O101&lt;&gt;0
         ),
-        ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100), 2),
+        IF(G101&gt;0,
+            ROUND((D101 * E101 * PRODUCT(1 - H101:H101 / 100) - Q101), 2),
+            ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13402,7 +14899,10 @@
             OR(P101=0, P101=1),
             O101&lt;&gt;0
         ),
-        ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2),
+        IF(G101&gt;0,
+            ROUND((D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100) - Q101), 2),
+            ROUND(D101 * E101 * PRODUCT(1 - H101:H101 / 100, 1 - L101:L101 / 100, 1 - N101:N101 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13458,7 +14958,10 @@
             OR(P102=0, P102=1),
             O102&lt;&gt;0
         ),
-        ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2),
+        IF(G102&gt;0,
+            ROUND((D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100)-Q102), 2),
+            ROUND((D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13469,7 +14972,10 @@
             OR(P102=0,P102=1),
             O102&lt;&gt;0
         ),
-        ROUND(D102 * E102 * 1.12 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2),
+        IF(G102&gt;0,
+            ROUND((D102 * E102 * 1.12 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100)-Q102), 2),
+            ROUND(D102 * E102 * 1.12 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13480,7 +14986,10 @@
             OR(P102=0, P102=1),
             O102&lt;&gt;0
         ),
-        ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2),
+        IF(G102&gt;0,
+            ROUND((D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100) - Q102), 2),
+            ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13491,7 +15000,10 @@
             OR(P102=0, P102=1),
             O102&lt;&gt;0
         ),
-        ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100), 2),
+        IF(G102&gt;0,
+            ROUND((D102 * E102 * PRODUCT(1 - H102:H102 / 100) - Q102), 2),
+            ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13502,7 +15014,10 @@
             OR(P102=0, P102=1),
             O102&lt;&gt;0
         ),
-        ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2),
+        IF(G102&gt;0,
+            ROUND((D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100) - Q102), 2),
+            ROUND(D102 * E102 * PRODUCT(1 - H102:H102 / 100, 1 - L102:L102 / 100, 1 - N102:N102 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13558,7 +15073,10 @@
             OR(P103=0, P103=1),
             O103&lt;&gt;0
         ),
-        ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2),
+        IF(G103&gt;0,
+            ROUND((D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100)-Q103), 2),
+            ROUND((D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13569,7 +15087,10 @@
             OR(P103=0,P103=1),
             O103&lt;&gt;0
         ),
-        ROUND(D103 * E103 * 1.12 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2),
+        IF(G103&gt;0,
+            ROUND((D103 * E103 * 1.12 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100)-Q103), 2),
+            ROUND(D103 * E103 * 1.12 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13580,7 +15101,10 @@
             OR(P103=0, P103=1),
             O103&lt;&gt;0
         ),
-        ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2),
+        IF(G103&gt;0,
+            ROUND((D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100) - Q103), 2),
+            ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13591,7 +15115,10 @@
             OR(P103=0, P103=1),
             O103&lt;&gt;0
         ),
-        ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100), 2),
+        IF(G103&gt;0,
+            ROUND((D103 * E103 * PRODUCT(1 - H103:H103 / 100) - Q103), 2),
+            ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13602,7 +15129,10 @@
             OR(P103=0, P103=1),
             O103&lt;&gt;0
         ),
-        ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2),
+        IF(G103&gt;0,
+            ROUND((D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100) - Q103), 2),
+            ROUND(D103 * E103 * PRODUCT(1 - H103:H103 / 100, 1 - L103:L103 / 100, 1 - N103:N103 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13658,7 +15188,10 @@
             OR(P104=0, P104=1),
             O104&lt;&gt;0
         ),
-        ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2),
+        IF(G104&gt;0,
+            ROUND((D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100)-Q104), 2),
+            ROUND((D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13669,7 +15202,10 @@
             OR(P104=0,P104=1),
             O104&lt;&gt;0
         ),
-        ROUND(D104 * E104 * 1.12 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2),
+        IF(G104&gt;0,
+            ROUND((D104 * E104 * 1.12 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100)-Q104), 2),
+            ROUND(D104 * E104 * 1.12 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13680,7 +15216,10 @@
             OR(P104=0, P104=1),
             O104&lt;&gt;0
         ),
-        ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2),
+        IF(G104&gt;0,
+            ROUND((D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100) - Q104), 2),
+            ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13691,7 +15230,10 @@
             OR(P104=0, P104=1),
             O104&lt;&gt;0
         ),
-        ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100), 2),
+        IF(G104&gt;0,
+            ROUND((D104 * E104 * PRODUCT(1 - H104:H104 / 100) - Q104), 2),
+            ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13702,7 +15244,10 @@
             OR(P104=0, P104=1),
             O104&lt;&gt;0
         ),
-        ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2),
+        IF(G104&gt;0,
+            ROUND((D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100) - Q104), 2),
+            ROUND(D104 * E104 * PRODUCT(1 - H104:H104 / 100, 1 - L104:L104 / 100, 1 - N104:N104 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13758,7 +15303,10 @@
             OR(P105=0, P105=1),
             O105&lt;&gt;0
         ),
-        ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2),
+        IF(G105&gt;0,
+            ROUND((D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100)-Q105), 2),
+            ROUND((D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13769,7 +15317,10 @@
             OR(P105=0,P105=1),
             O105&lt;&gt;0
         ),
-        ROUND(D105 * E105 * 1.12 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2),
+        IF(G105&gt;0,
+            ROUND((D105 * E105 * 1.12 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100)-Q105), 2),
+            ROUND(D105 * E105 * 1.12 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13780,7 +15331,10 @@
             OR(P105=0, P105=1),
             O105&lt;&gt;0
         ),
-        ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2),
+        IF(G105&gt;0,
+            ROUND((D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100) - Q105), 2),
+            ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13791,7 +15345,10 @@
             OR(P105=0, P105=1),
             O105&lt;&gt;0
         ),
-        ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100), 2),
+        IF(G105&gt;0,
+            ROUND((D105 * E105 * PRODUCT(1 - H105:H105 / 100) - Q105), 2),
+            ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13802,7 +15359,10 @@
             OR(P105=0, P105=1),
             O105&lt;&gt;0
         ),
-        ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2),
+        IF(G105&gt;0,
+            ROUND((D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100) - Q105), 2),
+            ROUND(D105 * E105 * PRODUCT(1 - H105:H105 / 100, 1 - L105:L105 / 100, 1 - N105:N105 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13858,7 +15418,10 @@
             OR(P106=0, P106=1),
             O106&lt;&gt;0
         ),
-        ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2),
+        IF(G106&gt;0,
+            ROUND((D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100)-Q106), 2),
+            ROUND((D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13869,7 +15432,10 @@
             OR(P106=0,P106=1),
             O106&lt;&gt;0
         ),
-        ROUND(D106 * E106 * 1.12 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2),
+        IF(G106&gt;0,
+            ROUND((D106 * E106 * 1.12 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100)-Q106), 2),
+            ROUND(D106 * E106 * 1.12 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13880,7 +15446,10 @@
             OR(P106=0, P106=1),
             O106&lt;&gt;0
         ),
-        ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2),
+        IF(G106&gt;0,
+            ROUND((D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100) - Q106), 2),
+            ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13891,7 +15460,10 @@
             OR(P106=0, P106=1),
             O106&lt;&gt;0
         ),
-        ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100), 2),
+        IF(G106&gt;0,
+            ROUND((D106 * E106 * PRODUCT(1 - H106:H106 / 100) - Q106), 2),
+            ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13902,7 +15474,10 @@
             OR(P106=0, P106=1),
             O106&lt;&gt;0
         ),
-        ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2),
+        IF(G106&gt;0,
+            ROUND((D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100) - Q106), 2),
+            ROUND(D106 * E106 * PRODUCT(1 - H106:H106 / 100, 1 - L106:L106 / 100, 1 - N106:N106 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13958,7 +15533,10 @@
             OR(P107=0, P107=1),
             O107&lt;&gt;0
         ),
-        ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2),
+        IF(G107&gt;0,
+            ROUND((D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100)-Q107), 2),
+            ROUND((D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13969,7 +15547,10 @@
             OR(P107=0,P107=1),
             O107&lt;&gt;0
         ),
-        ROUND(D107 * E107 * 1.12 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2),
+        IF(G107&gt;0,
+            ROUND((D107 * E107 * 1.12 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100)-Q107), 2),
+            ROUND(D107 * E107 * 1.12 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13980,7 +15561,10 @@
             OR(P107=0, P107=1),
             O107&lt;&gt;0
         ),
-        ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2),
+        IF(G107&gt;0,
+            ROUND((D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100) - Q107), 2),
+            ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -13991,7 +15575,10 @@
             OR(P107=0, P107=1),
             O107&lt;&gt;0
         ),
-        ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100), 2),
+        IF(G107&gt;0,
+            ROUND((D107 * E107 * PRODUCT(1 - H107:H107 / 100) - Q107), 2),
+            ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14002,7 +15589,10 @@
             OR(P107=0, P107=1),
             O107&lt;&gt;0
         ),
-        ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2),
+        IF(G107&gt;0,
+            ROUND((D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100) - Q107), 2),
+            ROUND(D107 * E107 * PRODUCT(1 - H107:H107 / 100, 1 - L107:L107 / 100, 1 - N107:N107 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14058,7 +15648,10 @@
             OR(P108=0, P108=1),
             O108&lt;&gt;0
         ),
-        ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2),
+        IF(G108&gt;0,
+            ROUND((D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100)-Q108), 2),
+            ROUND((D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14069,7 +15662,10 @@
             OR(P108=0,P108=1),
             O108&lt;&gt;0
         ),
-        ROUND(D108 * E108 * 1.12 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2),
+        IF(G108&gt;0,
+            ROUND((D108 * E108 * 1.12 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100)-Q108), 2),
+            ROUND(D108 * E108 * 1.12 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14080,7 +15676,10 @@
             OR(P108=0, P108=1),
             O108&lt;&gt;0
         ),
-        ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2),
+        IF(G108&gt;0,
+            ROUND((D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100) - Q108), 2),
+            ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14091,7 +15690,10 @@
             OR(P108=0, P108=1),
             O108&lt;&gt;0
         ),
-        ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100), 2),
+        IF(G108&gt;0,
+            ROUND((D108 * E108 * PRODUCT(1 - H108:H108 / 100) - Q108), 2),
+            ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14102,7 +15704,10 @@
             OR(P108=0, P108=1),
             O108&lt;&gt;0
         ),
-        ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2),
+        IF(G108&gt;0,
+            ROUND((D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100) - Q108), 2),
+            ROUND(D108 * E108 * PRODUCT(1 - H108:H108 / 100, 1 - L108:L108 / 100, 1 - N108:N108 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14158,7 +15763,10 @@
             OR(P109=0, P109=1),
             O109&lt;&gt;0
         ),
-        ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2),
+        IF(G109&gt;0,
+            ROUND((D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100)-Q109), 2),
+            ROUND((D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14169,7 +15777,10 @@
             OR(P109=0,P109=1),
             O109&lt;&gt;0
         ),
-        ROUND(D109 * E109 * 1.12 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2),
+        IF(G109&gt;0,
+            ROUND((D109 * E109 * 1.12 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100)-Q109), 2),
+            ROUND(D109 * E109 * 1.12 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14180,7 +15791,10 @@
             OR(P109=0, P109=1),
             O109&lt;&gt;0
         ),
-        ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2),
+        IF(G109&gt;0,
+            ROUND((D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100) - Q109), 2),
+            ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14191,7 +15805,10 @@
             OR(P109=0, P109=1),
             O109&lt;&gt;0
         ),
-        ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100), 2),
+        IF(G109&gt;0,
+            ROUND((D109 * E109 * PRODUCT(1 - H109:H109 / 100) - Q109), 2),
+            ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14202,7 +15819,10 @@
             OR(P109=0, P109=1),
             O109&lt;&gt;0
         ),
-        ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2),
+        IF(G109&gt;0,
+            ROUND((D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100) - Q109), 2),
+            ROUND(D109 * E109 * PRODUCT(1 - H109:H109 / 100, 1 - L109:L109 / 100, 1 - N109:N109 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14258,7 +15878,10 @@
             OR(P110=0, P110=1),
             O110&lt;&gt;0
         ),
-        ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2),
+        IF(G110&gt;0,
+            ROUND((D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100)-Q110), 2),
+            ROUND((D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14269,7 +15892,10 @@
             OR(P110=0,P110=1),
             O110&lt;&gt;0
         ),
-        ROUND(D110 * E110 * 1.12 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2),
+        IF(G110&gt;0,
+            ROUND((D110 * E110 * 1.12 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100)-Q110), 2),
+            ROUND(D110 * E110 * 1.12 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14280,7 +15906,10 @@
             OR(P110=0, P110=1),
             O110&lt;&gt;0
         ),
-        ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2),
+        IF(G110&gt;0,
+            ROUND((D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100) - Q110), 2),
+            ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14291,7 +15920,10 @@
             OR(P110=0, P110=1),
             O110&lt;&gt;0
         ),
-        ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100), 2),
+        IF(G110&gt;0,
+            ROUND((D110 * E110 * PRODUCT(1 - H110:H110 / 100) - Q110), 2),
+            ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14302,7 +15934,10 @@
             OR(P110=0, P110=1),
             O110&lt;&gt;0
         ),
-        ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2),
+        IF(G110&gt;0,
+            ROUND((D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100) - Q110), 2),
+            ROUND(D110 * E110 * PRODUCT(1 - H110:H110 / 100, 1 - L110:L110 / 100, 1 - N110:N110 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14358,7 +15993,10 @@
             OR(P111=0, P111=1),
             O111&lt;&gt;0
         ),
-        ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2),
+        IF(G111&gt;0,
+            ROUND((D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100)-Q111), 2),
+            ROUND((D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14369,7 +16007,10 @@
             OR(P111=0,P111=1),
             O111&lt;&gt;0
         ),
-        ROUND(D111 * E111 * 1.12 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2),
+        IF(G111&gt;0,
+            ROUND((D111 * E111 * 1.12 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100)-Q111), 2),
+            ROUND(D111 * E111 * 1.12 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14380,7 +16021,10 @@
             OR(P111=0, P111=1),
             O111&lt;&gt;0
         ),
-        ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2),
+        IF(G111&gt;0,
+            ROUND((D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100) - Q111), 2),
+            ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14391,7 +16035,10 @@
             OR(P111=0, P111=1),
             O111&lt;&gt;0
         ),
-        ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100), 2),
+        IF(G111&gt;0,
+            ROUND((D111 * E111 * PRODUCT(1 - H111:H111 / 100) - Q111), 2),
+            ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14402,7 +16049,10 @@
             OR(P111=0, P111=1),
             O111&lt;&gt;0
         ),
-        ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2),
+        IF(G111&gt;0,
+            ROUND((D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100) - Q111), 2),
+            ROUND(D111 * E111 * PRODUCT(1 - H111:H111 / 100, 1 - L111:L111 / 100, 1 - N111:N111 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14458,7 +16108,10 @@
             OR(P112=0, P112=1),
             O112&lt;&gt;0
         ),
-        ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2),
+        IF(G112&gt;0,
+            ROUND((D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100)-Q112), 2),
+            ROUND((D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14469,7 +16122,10 @@
             OR(P112=0,P112=1),
             O112&lt;&gt;0
         ),
-        ROUND(D112 * E112 * 1.12 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2),
+        IF(G112&gt;0,
+            ROUND((D112 * E112 * 1.12 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100)-Q112), 2),
+            ROUND(D112 * E112 * 1.12 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14480,7 +16136,10 @@
             OR(P112=0, P112=1),
             O112&lt;&gt;0
         ),
-        ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2),
+        IF(G112&gt;0,
+            ROUND((D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100) - Q112), 2),
+            ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14491,7 +16150,10 @@
             OR(P112=0, P112=1),
             O112&lt;&gt;0
         ),
-        ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100), 2),
+        IF(G112&gt;0,
+            ROUND((D112 * E112 * PRODUCT(1 - H112:H112 / 100) - Q112), 2),
+            ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14502,7 +16164,10 @@
             OR(P112=0, P112=1),
             O112&lt;&gt;0
         ),
-        ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2),
+        IF(G112&gt;0,
+            ROUND((D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100) - Q112), 2),
+            ROUND(D112 * E112 * PRODUCT(1 - H112:H112 / 100, 1 - L112:L112 / 100, 1 - N112:N112 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14558,7 +16223,10 @@
             OR(P113=0, P113=1),
             O113&lt;&gt;0
         ),
-        ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2),
+        IF(G113&gt;0,
+            ROUND((D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100)-Q113), 2),
+            ROUND((D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14569,7 +16237,10 @@
             OR(P113=0,P113=1),
             O113&lt;&gt;0
         ),
-        ROUND(D113 * E113 * 1.12 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2),
+        IF(G113&gt;0,
+            ROUND((D113 * E113 * 1.12 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100)-Q113), 2),
+            ROUND(D113 * E113 * 1.12 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14580,7 +16251,10 @@
             OR(P113=0, P113=1),
             O113&lt;&gt;0
         ),
-        ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2),
+        IF(G113&gt;0,
+            ROUND((D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100) - Q113), 2),
+            ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14591,7 +16265,10 @@
             OR(P113=0, P113=1),
             O113&lt;&gt;0
         ),
-        ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100), 2),
+        IF(G113&gt;0,
+            ROUND((D113 * E113 * PRODUCT(1 - H113:H113 / 100) - Q113), 2),
+            ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14602,7 +16279,10 @@
             OR(P113=0, P113=1),
             O113&lt;&gt;0
         ),
-        ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2),
+        IF(G113&gt;0,
+            ROUND((D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100) - Q113), 2),
+            ROUND(D113 * E113 * PRODUCT(1 - H113:H113 / 100, 1 - L113:L113 / 100, 1 - N113:N113 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14658,7 +16338,10 @@
             OR(P114=0, P114=1),
             O114&lt;&gt;0
         ),
-        ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2),
+        IF(G114&gt;0,
+            ROUND((D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100)-Q114), 2),
+            ROUND((D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14669,7 +16352,10 @@
             OR(P114=0,P114=1),
             O114&lt;&gt;0
         ),
-        ROUND(D114 * E114 * 1.12 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2),
+        IF(G114&gt;0,
+            ROUND((D114 * E114 * 1.12 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100)-Q114), 2),
+            ROUND(D114 * E114 * 1.12 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14680,7 +16366,10 @@
             OR(P114=0, P114=1),
             O114&lt;&gt;0
         ),
-        ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2),
+        IF(G114&gt;0,
+            ROUND((D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100) - Q114), 2),
+            ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14691,7 +16380,10 @@
             OR(P114=0, P114=1),
             O114&lt;&gt;0
         ),
-        ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100), 2),
+        IF(G114&gt;0,
+            ROUND((D114 * E114 * PRODUCT(1 - H114:H114 / 100) - Q114), 2),
+            ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14702,7 +16394,10 @@
             OR(P114=0, P114=1),
             O114&lt;&gt;0
         ),
-        ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2),
+        IF(G114&gt;0,
+            ROUND((D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100) - Q114), 2),
+            ROUND(D114 * E114 * PRODUCT(1 - H114:H114 / 100, 1 - L114:L114 / 100, 1 - N114:N114 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14758,7 +16453,10 @@
             OR(P115=0, P115=1),
             O115&lt;&gt;0
         ),
-        ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2),
+        IF(G115&gt;0,
+            ROUND((D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100)-Q115), 2),
+            ROUND((D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14769,7 +16467,10 @@
             OR(P115=0,P115=1),
             O115&lt;&gt;0
         ),
-        ROUND(D115 * E115 * 1.12 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2),
+        IF(G115&gt;0,
+            ROUND((D115 * E115 * 1.12 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100)-Q115), 2),
+            ROUND(D115 * E115 * 1.12 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14780,7 +16481,10 @@
             OR(P115=0, P115=1),
             O115&lt;&gt;0
         ),
-        ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2),
+        IF(G115&gt;0,
+            ROUND((D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100) - Q115), 2),
+            ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14791,7 +16495,10 @@
             OR(P115=0, P115=1),
             O115&lt;&gt;0
         ),
-        ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100), 2),
+        IF(G115&gt;0,
+            ROUND((D115 * E115 * PRODUCT(1 - H115:H115 / 100) - Q115), 2),
+            ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14802,7 +16509,10 @@
             OR(P115=0, P115=1),
             O115&lt;&gt;0
         ),
-        ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2),
+        IF(G115&gt;0,
+            ROUND((D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100) - Q115), 2),
+            ROUND(D115 * E115 * PRODUCT(1 - H115:H115 / 100, 1 - L115:L115 / 100, 1 - N115:N115 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14858,7 +16568,10 @@
             OR(P116=0, P116=1),
             O116&lt;&gt;0
         ),
-        ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2),
+        IF(G116&gt;0,
+            ROUND((D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100)-Q116), 2),
+            ROUND((D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14869,7 +16582,10 @@
             OR(P116=0,P116=1),
             O116&lt;&gt;0
         ),
-        ROUND(D116 * E116 * 1.12 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2),
+        IF(G116&gt;0,
+            ROUND((D116 * E116 * 1.12 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100)-Q116), 2),
+            ROUND(D116 * E116 * 1.12 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14880,7 +16596,10 @@
             OR(P116=0, P116=1),
             O116&lt;&gt;0
         ),
-        ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2),
+        IF(G116&gt;0,
+            ROUND((D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100) - Q116), 2),
+            ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14891,7 +16610,10 @@
             OR(P116=0, P116=1),
             O116&lt;&gt;0
         ),
-        ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100), 2),
+        IF(G116&gt;0,
+            ROUND((D116 * E116 * PRODUCT(1 - H116:H116 / 100) - Q116), 2),
+            ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14902,7 +16624,10 @@
             OR(P116=0, P116=1),
             O116&lt;&gt;0
         ),
-        ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2),
+        IF(G116&gt;0,
+            ROUND((D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100) - Q116), 2),
+            ROUND(D116 * E116 * PRODUCT(1 - H116:H116 / 100, 1 - L116:L116 / 100, 1 - N116:N116 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14958,7 +16683,10 @@
             OR(P117=0, P117=1),
             O117&lt;&gt;0
         ),
-        ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2),
+        IF(G117&gt;0,
+            ROUND((D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100)-Q117), 2),
+            ROUND((D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14969,7 +16697,10 @@
             OR(P117=0,P117=1),
             O117&lt;&gt;0
         ),
-        ROUND(D117 * E117 * 1.12 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2),
+        IF(G117&gt;0,
+            ROUND((D117 * E117 * 1.12 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100)-Q117), 2),
+            ROUND(D117 * E117 * 1.12 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14980,7 +16711,10 @@
             OR(P117=0, P117=1),
             O117&lt;&gt;0
         ),
-        ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2),
+        IF(G117&gt;0,
+            ROUND((D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100) - Q117), 2),
+            ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -14991,7 +16725,10 @@
             OR(P117=0, P117=1),
             O117&lt;&gt;0
         ),
-        ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100), 2),
+        IF(G117&gt;0,
+            ROUND((D117 * E117 * PRODUCT(1 - H117:H117 / 100) - Q117), 2),
+            ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15002,7 +16739,10 @@
             OR(P117=0, P117=1),
             O117&lt;&gt;0
         ),
-        ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2),
+        IF(G117&gt;0,
+            ROUND((D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100) - Q117), 2),
+            ROUND(D117 * E117 * PRODUCT(1 - H117:H117 / 100, 1 - L117:L117 / 100, 1 - N117:N117 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15058,7 +16798,10 @@
             OR(P118=0, P118=1),
             O118&lt;&gt;0
         ),
-        ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2),
+        IF(G118&gt;0,
+            ROUND((D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100)-Q118), 2),
+            ROUND((D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15069,7 +16812,10 @@
             OR(P118=0,P118=1),
             O118&lt;&gt;0
         ),
-        ROUND(D118 * E118 * 1.12 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2),
+        IF(G118&gt;0,
+            ROUND((D118 * E118 * 1.12 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100)-Q118), 2),
+            ROUND(D118 * E118 * 1.12 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15080,7 +16826,10 @@
             OR(P118=0, P118=1),
             O118&lt;&gt;0
         ),
-        ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2),
+        IF(G118&gt;0,
+            ROUND((D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100) - Q118), 2),
+            ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15091,7 +16840,10 @@
             OR(P118=0, P118=1),
             O118&lt;&gt;0
         ),
-        ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100), 2),
+        IF(G118&gt;0,
+            ROUND((D118 * E118 * PRODUCT(1 - H118:H118 / 100) - Q118), 2),
+            ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15102,7 +16854,10 @@
             OR(P118=0, P118=1),
             O118&lt;&gt;0
         ),
-        ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2),
+        IF(G118&gt;0,
+            ROUND((D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100) - Q118), 2),
+            ROUND(D118 * E118 * PRODUCT(1 - H118:H118 / 100, 1 - L118:L118 / 100, 1 - N118:N118 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15158,7 +16913,10 @@
             OR(P119=0, P119=1),
             O119&lt;&gt;0
         ),
-        ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2),
+        IF(G119&gt;0,
+            ROUND((D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100)-Q119), 2),
+            ROUND((D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15169,7 +16927,10 @@
             OR(P119=0,P119=1),
             O119&lt;&gt;0
         ),
-        ROUND(D119 * E119 * 1.12 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2),
+        IF(G119&gt;0,
+            ROUND((D119 * E119 * 1.12 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100)-Q119), 2),
+            ROUND(D119 * E119 * 1.12 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15180,7 +16941,10 @@
             OR(P119=0, P119=1),
             O119&lt;&gt;0
         ),
-        ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2),
+        IF(G119&gt;0,
+            ROUND((D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100) - Q119), 2),
+            ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15191,7 +16955,10 @@
             OR(P119=0, P119=1),
             O119&lt;&gt;0
         ),
-        ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100), 2),
+        IF(G119&gt;0,
+            ROUND((D119 * E119 * PRODUCT(1 - H119:H119 / 100) - Q119), 2),
+            ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15202,7 +16969,10 @@
             OR(P119=0, P119=1),
             O119&lt;&gt;0
         ),
-        ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2),
+        IF(G119&gt;0,
+            ROUND((D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100) - Q119), 2),
+            ROUND(D119 * E119 * PRODUCT(1 - H119:H119 / 100, 1 - L119:L119 / 100, 1 - N119:N119 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15258,7 +17028,10 @@
             OR(P120=0, P120=1),
             O120&lt;&gt;0
         ),
-        ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2),
+        IF(G120&gt;0,
+            ROUND((D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100)-Q120), 2),
+            ROUND((D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15269,7 +17042,10 @@
             OR(P120=0,P120=1),
             O120&lt;&gt;0
         ),
-        ROUND(D120 * E120 * 1.12 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2),
+        IF(G120&gt;0,
+            ROUND((D120 * E120 * 1.12 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100)-Q120), 2),
+            ROUND(D120 * E120 * 1.12 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15280,7 +17056,10 @@
             OR(P120=0, P120=1),
             O120&lt;&gt;0
         ),
-        ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2),
+        IF(G120&gt;0,
+            ROUND((D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100) - Q120), 2),
+            ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15291,7 +17070,10 @@
             OR(P120=0, P120=1),
             O120&lt;&gt;0
         ),
-        ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100), 2),
+        IF(G120&gt;0,
+            ROUND((D120 * E120 * PRODUCT(1 - H120:H120 / 100) - Q120), 2),
+            ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15302,7 +17084,10 @@
             OR(P120=0, P120=1),
             O120&lt;&gt;0
         ),
-        ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2),
+        IF(G120&gt;0,
+            ROUND((D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100) - Q120), 2),
+            ROUND(D120 * E120 * PRODUCT(1 - H120:H120 / 100, 1 - L120:L120 / 100, 1 - N120:N120 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15358,7 +17143,10 @@
             OR(P121=0, P121=1),
             O121&lt;&gt;0
         ),
-        ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2),
+        IF(G121&gt;0,
+            ROUND((D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100)-Q121), 2),
+            ROUND((D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15369,7 +17157,10 @@
             OR(P121=0,P121=1),
             O121&lt;&gt;0
         ),
-        ROUND(D121 * E121 * 1.12 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2),
+        IF(G121&gt;0,
+            ROUND((D121 * E121 * 1.12 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100)-Q121), 2),
+            ROUND(D121 * E121 * 1.12 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15380,7 +17171,10 @@
             OR(P121=0, P121=1),
             O121&lt;&gt;0
         ),
-        ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2),
+        IF(G121&gt;0,
+            ROUND((D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100) - Q121), 2),
+            ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15391,7 +17185,10 @@
             OR(P121=0, P121=1),
             O121&lt;&gt;0
         ),
-        ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100), 2),
+        IF(G121&gt;0,
+            ROUND((D121 * E121 * PRODUCT(1 - H121:H121 / 100) - Q121), 2),
+            ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15402,7 +17199,10 @@
             OR(P121=0, P121=1),
             O121&lt;&gt;0
         ),
-        ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2),
+        IF(G121&gt;0,
+            ROUND((D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100) - Q121), 2),
+            ROUND(D121 * E121 * PRODUCT(1 - H121:H121 / 100, 1 - L121:L121 / 100, 1 - N121:N121 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15458,7 +17258,10 @@
             OR(P122=0, P122=1),
             O122&lt;&gt;0
         ),
-        ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2),
+        IF(G122&gt;0,
+            ROUND((D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100)-Q122), 2),
+            ROUND((D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15469,7 +17272,10 @@
             OR(P122=0,P122=1),
             O122&lt;&gt;0
         ),
-        ROUND(D122 * E122 * 1.12 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2),
+        IF(G122&gt;0,
+            ROUND((D122 * E122 * 1.12 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100)-Q122), 2),
+            ROUND(D122 * E122 * 1.12 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15480,7 +17286,10 @@
             OR(P122=0, P122=1),
             O122&lt;&gt;0
         ),
-        ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2),
+        IF(G122&gt;0,
+            ROUND((D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100) - Q122), 2),
+            ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15491,7 +17300,10 @@
             OR(P122=0, P122=1),
             O122&lt;&gt;0
         ),
-        ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100), 2),
+        IF(G122&gt;0,
+            ROUND((D122 * E122 * PRODUCT(1 - H122:H122 / 100) - Q122), 2),
+            ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15502,7 +17314,10 @@
             OR(P122=0, P122=1),
             O122&lt;&gt;0
         ),
-        ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2),
+        IF(G122&gt;0,
+            ROUND((D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100) - Q122), 2),
+            ROUND(D122 * E122 * PRODUCT(1 - H122:H122 / 100, 1 - L122:L122 / 100, 1 - N122:N122 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15558,7 +17373,10 @@
             OR(P123=0, P123=1),
             O123&lt;&gt;0
         ),
-        ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2),
+        IF(G123&gt;0,
+            ROUND((D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100)-Q123), 2),
+            ROUND((D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15569,7 +17387,10 @@
             OR(P123=0,P123=1),
             O123&lt;&gt;0
         ),
-        ROUND(D123 * E123 * 1.12 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2),
+        IF(G123&gt;0,
+            ROUND((D123 * E123 * 1.12 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100)-Q123), 2),
+            ROUND(D123 * E123 * 1.12 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15580,7 +17401,10 @@
             OR(P123=0, P123=1),
             O123&lt;&gt;0
         ),
-        ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2),
+        IF(G123&gt;0,
+            ROUND((D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100) - Q123), 2),
+            ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15591,7 +17415,10 @@
             OR(P123=0, P123=1),
             O123&lt;&gt;0
         ),
-        ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100), 2),
+        IF(G123&gt;0,
+            ROUND((D123 * E123 * PRODUCT(1 - H123:H123 / 100) - Q123), 2),
+            ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15602,7 +17429,10 @@
             OR(P123=0, P123=1),
             O123&lt;&gt;0
         ),
-        ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2),
+        IF(G123&gt;0,
+            ROUND((D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100) - Q123), 2),
+            ROUND(D123 * E123 * PRODUCT(1 - H123:H123 / 100, 1 - L123:L123 / 100, 1 - N123:N123 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15658,7 +17488,10 @@
             OR(P124=0, P124=1),
             O124&lt;&gt;0
         ),
-        ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2),
+        IF(G124&gt;0,
+            ROUND((D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100)-Q124), 2),
+            ROUND((D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15669,7 +17502,10 @@
             OR(P124=0,P124=1),
             O124&lt;&gt;0
         ),
-        ROUND(D124 * E124 * 1.12 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2),
+        IF(G124&gt;0,
+            ROUND((D124 * E124 * 1.12 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100)-Q124), 2),
+            ROUND(D124 * E124 * 1.12 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15680,7 +17516,10 @@
             OR(P124=0, P124=1),
             O124&lt;&gt;0
         ),
-        ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2),
+        IF(G124&gt;0,
+            ROUND((D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100) - Q124), 2),
+            ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15691,7 +17530,10 @@
             OR(P124=0, P124=1),
             O124&lt;&gt;0
         ),
-        ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100), 2),
+        IF(G124&gt;0,
+            ROUND((D124 * E124 * PRODUCT(1 - H124:H124 / 100) - Q124), 2),
+            ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15702,7 +17544,10 @@
             OR(P124=0, P124=1),
             O124&lt;&gt;0
         ),
-        ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2),
+        IF(G124&gt;0,
+            ROUND((D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100) - Q124), 2),
+            ROUND(D124 * E124 * PRODUCT(1 - H124:H124 / 100, 1 - L124:L124 / 100, 1 - N124:N124 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15758,7 +17603,10 @@
             OR(P125=0, P125=1),
             O125&lt;&gt;0
         ),
-        ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2),
+        IF(G125&gt;0,
+            ROUND((D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100)-Q125), 2),
+            ROUND((D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15769,7 +17617,10 @@
             OR(P125=0,P125=1),
             O125&lt;&gt;0
         ),
-        ROUND(D125 * E125 * 1.12 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2),
+        IF(G125&gt;0,
+            ROUND((D125 * E125 * 1.12 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100)-Q125), 2),
+            ROUND(D125 * E125 * 1.12 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15780,7 +17631,10 @@
             OR(P125=0, P125=1),
             O125&lt;&gt;0
         ),
-        ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2),
+        IF(G125&gt;0,
+            ROUND((D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100) - Q125), 2),
+            ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15791,7 +17645,10 @@
             OR(P125=0, P125=1),
             O125&lt;&gt;0
         ),
-        ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100), 2),
+        IF(G125&gt;0,
+            ROUND((D125 * E125 * PRODUCT(1 - H125:H125 / 100) - Q125), 2),
+            ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15802,7 +17659,10 @@
             OR(P125=0, P125=1),
             O125&lt;&gt;0
         ),
-        ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2),
+        IF(G125&gt;0,
+            ROUND((D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100) - Q125), 2),
+            ROUND(D125 * E125 * PRODUCT(1 - H125:H125 / 100, 1 - L125:L125 / 100, 1 - N125:N125 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15858,7 +17718,10 @@
             OR(P126=0, P126=1),
             O126&lt;&gt;0
         ),
-        ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2),
+        IF(G126&gt;0,
+            ROUND((D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100)-Q126), 2),
+            ROUND((D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15869,7 +17732,10 @@
             OR(P126=0,P126=1),
             O126&lt;&gt;0
         ),
-        ROUND(D126 * E126 * 1.12 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2),
+        IF(G126&gt;0,
+            ROUND((D126 * E126 * 1.12 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100)-Q126), 2),
+            ROUND(D126 * E126 * 1.12 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15880,7 +17746,10 @@
             OR(P126=0, P126=1),
             O126&lt;&gt;0
         ),
-        ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2),
+        IF(G126&gt;0,
+            ROUND((D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100) - Q126), 2),
+            ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15891,7 +17760,10 @@
             OR(P126=0, P126=1),
             O126&lt;&gt;0
         ),
-        ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100), 2),
+        IF(G126&gt;0,
+            ROUND((D126 * E126 * PRODUCT(1 - H126:H126 / 100) - Q126), 2),
+            ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15902,7 +17774,10 @@
             OR(P126=0, P126=1),
             O126&lt;&gt;0
         ),
-        ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2),
+        IF(G126&gt;0,
+            ROUND((D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100) - Q126), 2),
+            ROUND(D126 * E126 * PRODUCT(1 - H126:H126 / 100, 1 - L126:L126 / 100, 1 - N126:N126 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15958,7 +17833,10 @@
             OR(P127=0, P127=1),
             O127&lt;&gt;0
         ),
-        ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2),
+        IF(G127&gt;0,
+            ROUND((D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100)-Q127), 2),
+            ROUND((D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15969,7 +17847,10 @@
             OR(P127=0,P127=1),
             O127&lt;&gt;0
         ),
-        ROUND(D127 * E127 * 1.12 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2),
+        IF(G127&gt;0,
+            ROUND((D127 * E127 * 1.12 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100)-Q127), 2),
+            ROUND(D127 * E127 * 1.12 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15980,7 +17861,10 @@
             OR(P127=0, P127=1),
             O127&lt;&gt;0
         ),
-        ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2),
+        IF(G127&gt;0,
+            ROUND((D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100) - Q127), 2),
+            ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -15991,7 +17875,10 @@
             OR(P127=0, P127=1),
             O127&lt;&gt;0
         ),
-        ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100), 2),
+        IF(G127&gt;0,
+            ROUND((D127 * E127 * PRODUCT(1 - H127:H127 / 100) - Q127), 2),
+            ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16002,7 +17889,10 @@
             OR(P127=0, P127=1),
             O127&lt;&gt;0
         ),
-        ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2),
+        IF(G127&gt;0,
+            ROUND((D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100) - Q127), 2),
+            ROUND(D127 * E127 * PRODUCT(1 - H127:H127 / 100, 1 - L127:L127 / 100, 1 - N127:N127 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16058,7 +17948,10 @@
             OR(P128=0, P128=1),
             O128&lt;&gt;0
         ),
-        ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2),
+        IF(G128&gt;0,
+            ROUND((D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100)-Q128), 2),
+            ROUND((D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16069,7 +17962,10 @@
             OR(P128=0,P128=1),
             O128&lt;&gt;0
         ),
-        ROUND(D128 * E128 * 1.12 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2),
+        IF(G128&gt;0,
+            ROUND((D128 * E128 * 1.12 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100)-Q128), 2),
+            ROUND(D128 * E128 * 1.12 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16080,7 +17976,10 @@
             OR(P128=0, P128=1),
             O128&lt;&gt;0
         ),
-        ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2),
+        IF(G128&gt;0,
+            ROUND((D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100) - Q128), 2),
+            ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16091,7 +17990,10 @@
             OR(P128=0, P128=1),
             O128&lt;&gt;0
         ),
-        ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100), 2),
+        IF(G128&gt;0,
+            ROUND((D128 * E128 * PRODUCT(1 - H128:H128 / 100) - Q128), 2),
+            ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16102,7 +18004,10 @@
             OR(P128=0, P128=1),
             O128&lt;&gt;0
         ),
-        ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2),
+        IF(G128&gt;0,
+            ROUND((D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100) - Q128), 2),
+            ROUND(D128 * E128 * PRODUCT(1 - H128:H128 / 100, 1 - L128:L128 / 100, 1 - N128:N128 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16158,7 +18063,10 @@
             OR(P129=0, P129=1),
             O129&lt;&gt;0
         ),
-        ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2),
+        IF(G129&gt;0,
+            ROUND((D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100)-Q129), 2),
+            ROUND((D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16169,7 +18077,10 @@
             OR(P129=0,P129=1),
             O129&lt;&gt;0
         ),
-        ROUND(D129 * E129 * 1.12 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2),
+        IF(G129&gt;0,
+            ROUND((D129 * E129 * 1.12 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100)-Q129), 2),
+            ROUND(D129 * E129 * 1.12 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16180,7 +18091,10 @@
             OR(P129=0, P129=1),
             O129&lt;&gt;0
         ),
-        ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2),
+        IF(G129&gt;0,
+            ROUND((D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100) - Q129), 2),
+            ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16191,7 +18105,10 @@
             OR(P129=0, P129=1),
             O129&lt;&gt;0
         ),
-        ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100), 2),
+        IF(G129&gt;0,
+            ROUND((D129 * E129 * PRODUCT(1 - H129:H129 / 100) - Q129), 2),
+            ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16202,7 +18119,10 @@
             OR(P129=0, P129=1),
             O129&lt;&gt;0
         ),
-        ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2),
+        IF(G129&gt;0,
+            ROUND((D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100) - Q129), 2),
+            ROUND(D129 * E129 * PRODUCT(1 - H129:H129 / 100, 1 - L129:L129 / 100, 1 - N129:N129 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16258,7 +18178,10 @@
             OR(P130=0, P130=1),
             O130&lt;&gt;0
         ),
-        ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2),
+        IF(G130&gt;0,
+            ROUND((D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100)-Q130), 2),
+            ROUND((D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16269,7 +18192,10 @@
             OR(P130=0,P130=1),
             O130&lt;&gt;0
         ),
-        ROUND(D130 * E130 * 1.12 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2),
+        IF(G130&gt;0,
+            ROUND((D130 * E130 * 1.12 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100)-Q130), 2),
+            ROUND(D130 * E130 * 1.12 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16280,7 +18206,10 @@
             OR(P130=0, P130=1),
             O130&lt;&gt;0
         ),
-        ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2),
+        IF(G130&gt;0,
+            ROUND((D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100) - Q130), 2),
+            ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16291,7 +18220,10 @@
             OR(P130=0, P130=1),
             O130&lt;&gt;0
         ),
-        ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100), 2),
+        IF(G130&gt;0,
+            ROUND((D130 * E130 * PRODUCT(1 - H130:H130 / 100) - Q130), 2),
+            ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16302,7 +18234,10 @@
             OR(P130=0, P130=1),
             O130&lt;&gt;0
         ),
-        ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2),
+        IF(G130&gt;0,
+            ROUND((D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100) - Q130), 2),
+            ROUND(D130 * E130 * PRODUCT(1 - H130:H130 / 100, 1 - L130:L130 / 100, 1 - N130:N130 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16391,7 +18326,10 @@
             OR(P131=0, P131=1),
             O131&lt;&gt;0
         ),
-        ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2),
+        IF(G131&gt;0,
+            ROUND((D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100)-Q131), 2),
+            ROUND((D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16402,7 +18340,10 @@
             OR(P131=0,P131=1),
             O131&lt;&gt;0
         ),
-        ROUND(D131 * E131 * 1.12 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2),
+        IF(G131&gt;0,
+            ROUND((D131 * E131 * 1.12 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100)-Q131), 2),
+            ROUND(D131 * E131 * 1.12 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16413,7 +18354,10 @@
             OR(P131=0, P131=1),
             O131&lt;&gt;0
         ),
-        ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2),
+        IF(G131&gt;0,
+            ROUND((D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100) - Q131), 2),
+            ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16424,7 +18368,10 @@
             OR(P131=0, P131=1),
             O131&lt;&gt;0
         ),
-        ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100), 2),
+        IF(G131&gt;0,
+            ROUND((D131 * E131 * PRODUCT(1 - H131:H131 / 100) - Q131), 2),
+            ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16435,7 +18382,10 @@
             OR(P131=0, P131=1),
             O131&lt;&gt;0
         ),
-        ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2),
+        IF(G131&gt;0,
+            ROUND((D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100) - Q131), 2),
+            ROUND(D131 * E131 * PRODUCT(1 - H131:H131 / 100, 1 - L131:L131 / 100, 1 - N131:N131 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16491,7 +18441,10 @@
             OR(P132=0, P132=1),
             O132&lt;&gt;0
         ),
-        ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2),
+        IF(G132&gt;0,
+            ROUND((D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100)-Q132), 2),
+            ROUND((D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16502,7 +18455,10 @@
             OR(P132=0,P132=1),
             O132&lt;&gt;0
         ),
-        ROUND(D132 * E132 * 1.12 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2),
+        IF(G132&gt;0,
+            ROUND((D132 * E132 * 1.12 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100)-Q132), 2),
+            ROUND(D132 * E132 * 1.12 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16513,7 +18469,10 @@
             OR(P132=0, P132=1),
             O132&lt;&gt;0
         ),
-        ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2),
+        IF(G132&gt;0,
+            ROUND((D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100) - Q132), 2),
+            ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16524,7 +18483,10 @@
             OR(P132=0, P132=1),
             O132&lt;&gt;0
         ),
-        ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100), 2),
+        IF(G132&gt;0,
+            ROUND((D132 * E132 * PRODUCT(1 - H132:H132 / 100) - Q132), 2),
+            ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16535,7 +18497,10 @@
             OR(P132=0, P132=1),
             O132&lt;&gt;0
         ),
-        ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2),
+        IF(G132&gt;0,
+            ROUND((D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100) - Q132), 2),
+            ROUND(D132 * E132 * PRODUCT(1 - H132:H132 / 100, 1 - L132:L132 / 100, 1 - N132:N132 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16591,7 +18556,10 @@
             OR(P133=0, P133=1),
             O133&lt;&gt;0
         ),
-        ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2),
+        IF(G133&gt;0,
+            ROUND((D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100)-Q133), 2),
+            ROUND((D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16602,7 +18570,10 @@
             OR(P133=0,P133=1),
             O133&lt;&gt;0
         ),
-        ROUND(D133 * E133 * 1.12 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2),
+        IF(G133&gt;0,
+            ROUND((D133 * E133 * 1.12 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100)-Q133), 2),
+            ROUND(D133 * E133 * 1.12 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16613,7 +18584,10 @@
             OR(P133=0, P133=1),
             O133&lt;&gt;0
         ),
-        ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2),
+        IF(G133&gt;0,
+            ROUND((D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100) - Q133), 2),
+            ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16624,7 +18598,10 @@
             OR(P133=0, P133=1),
             O133&lt;&gt;0
         ),
-        ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100), 2),
+        IF(G133&gt;0,
+            ROUND((D133 * E133 * PRODUCT(1 - H133:H133 / 100) - Q133), 2),
+            ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16635,7 +18612,10 @@
             OR(P133=0, P133=1),
             O133&lt;&gt;0
         ),
-        ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2),
+        IF(G133&gt;0,
+            ROUND((D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100) - Q133), 2),
+            ROUND(D133 * E133 * PRODUCT(1 - H133:H133 / 100, 1 - L133:L133 / 100, 1 - N133:N133 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16691,7 +18671,10 @@
             OR(P134=0, P134=1),
             O134&lt;&gt;0
         ),
-        ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2),
+        IF(G134&gt;0,
+            ROUND((D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100)-Q134), 2),
+            ROUND((D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100)), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16702,7 +18685,10 @@
             OR(P134=0,P134=1),
             O134&lt;&gt;0
         ),
-        ROUND(D134 * E134 * 1.12 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2),
+        IF(G134&gt;0,
+            ROUND((D134 * E134 * 1.12 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100)-Q134), 2),
+            ROUND(D134 * E134 * 1.12 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16713,7 +18699,10 @@
             OR(P134=0, P134=1),
             O134&lt;&gt;0
         ),
-        ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2),
+        IF(G134&gt;0,
+            ROUND((D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100) - Q134), 2),
+            ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16724,7 +18713,10 @@
             OR(P134=0, P134=1),
             O134&lt;&gt;0
         ),
-        ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100), 2),
+        IF(G134&gt;0,
+            ROUND((D134 * E134 * PRODUCT(1 - H134:H134 / 100) - Q134), 2),
+            ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>
@@ -16735,7 +18727,10 @@
             OR(P134=0, P134=1),
             O134&lt;&gt;0
         ),
-        ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2),
+        IF(G134&gt;0,
+            ROUND((D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100) - Q134), 2),
+            ROUND(D134 * E134 * PRODUCT(1 - H134:H134 / 100, 1 - L134:L134 / 100, 1 - N134:N134 / 100), 2)
+        ),
     "")</f>
         <v/>
       </c>

--- a/Documents/Tax Checker.xlsx
+++ b/Documents/Tax Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\My Files\My-WorkFiles-Backup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DF03E5-EDA5-430B-A11D-90751C59649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0630E60-F955-45B0-BC43-AF0C400C0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47E34C20-F3B6-4417-B647-E842E10E84EB}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="131">
   <si>
     <t>frecno</t>
   </si>
@@ -331,223 +331,136 @@
     <t>ftotal_discount</t>
   </si>
   <si>
-    <t>P4806503950028</t>
+    <t>total_discount</t>
   </si>
   <si>
-    <t>P4801981119981</t>
+    <t>P00091765</t>
   </si>
   <si>
-    <t>P00000969</t>
+    <t>P7622300501525</t>
   </si>
   <si>
-    <t>P4806011812269</t>
+    <t>A</t>
   </si>
   <si>
-    <t>P00110247</t>
+    <t>O</t>
   </si>
   <si>
-    <t>P1250</t>
+    <t>U</t>
   </si>
   <si>
-    <t>P00093668</t>
+    <t>P</t>
   </si>
   <si>
-    <t>BIRCH401744</t>
+    <t>T</t>
   </si>
   <si>
-    <t>P00111479</t>
+    <t>B</t>
   </si>
   <si>
-    <t>P4800361426398</t>
+    <t>C</t>
   </si>
   <si>
-    <t>P00144612</t>
+    <t>D</t>
   </si>
   <si>
-    <t>P00144741</t>
+    <t>E</t>
   </si>
   <si>
-    <t>P4800163443043</t>
+    <t>F</t>
   </si>
   <si>
-    <t>P00135509</t>
+    <t>Q</t>
   </si>
   <si>
-    <t>P00137875</t>
+    <t>R</t>
   </si>
   <si>
-    <t>P4804880551494</t>
+    <t>S</t>
   </si>
   <si>
-    <t>P00088338</t>
+    <t>V</t>
   </si>
   <si>
-    <t>P4800016077913</t>
+    <t>W</t>
   </si>
   <si>
-    <t>P4806506318764</t>
+    <t>X</t>
   </si>
   <si>
-    <t>P4800016077999</t>
+    <t>Y</t>
   </si>
   <si>
-    <t>P4801288850082</t>
+    <t>Z</t>
   </si>
   <si>
-    <t>P00117477</t>
+    <t>AA</t>
   </si>
   <si>
-    <t>P00095000</t>
+    <t>AB</t>
   </si>
   <si>
-    <t>P00094998</t>
+    <t>AC</t>
   </si>
   <si>
-    <t>P00117082</t>
+    <t>AD</t>
   </si>
   <si>
-    <t>P4808888201184</t>
+    <t>AF</t>
   </si>
   <si>
-    <t>P4801668603659</t>
+    <t>AG</t>
   </si>
   <si>
-    <t>P00145072</t>
+    <t>AH</t>
   </si>
   <si>
-    <t>P331626</t>
+    <t>AI</t>
   </si>
   <si>
-    <t>P4806517042801</t>
+    <t>AJ</t>
   </si>
   <si>
-    <t>P4806517042832</t>
+    <t>AK</t>
   </si>
   <si>
-    <t>P00125153</t>
+    <t>AL</t>
   </si>
   <si>
-    <t>P00139122</t>
+    <t>AM</t>
   </si>
   <si>
-    <t>P00135426</t>
+    <t>AN</t>
   </si>
   <si>
-    <t>P00134664</t>
+    <t>AO</t>
   </si>
   <si>
-    <t>P4806516215138</t>
+    <t>AP</t>
   </si>
   <si>
-    <t>P4800024577122</t>
+    <t>AQ</t>
   </si>
   <si>
-    <t>P00090458</t>
+    <t>AE</t>
   </si>
   <si>
-    <t>P00134663</t>
+    <t>-</t>
   </si>
   <si>
-    <t>P4800092332050</t>
+    <t>fextprice</t>
   </si>
   <si>
-    <t>P00139439</t>
+    <t>P00091769</t>
   </si>
   <si>
-    <t>P4806502161364</t>
+    <t>P00132666</t>
   </si>
   <si>
-    <t>P00136476</t>
+    <t>P00107029</t>
   </si>
   <si>
-    <t>P4902430884013</t>
-  </si>
-  <si>
-    <t>P4801234134495</t>
-  </si>
-  <si>
-    <t>P4800888189813</t>
-  </si>
-  <si>
-    <t>P8850006327449</t>
-  </si>
-  <si>
-    <t>P4800011113968</t>
-  </si>
-  <si>
-    <t>P00090622</t>
-  </si>
-  <si>
-    <t>P00092790</t>
-  </si>
-  <si>
-    <t>P00092792</t>
-  </si>
-  <si>
-    <t>P8801179</t>
-  </si>
-  <si>
-    <t>P00140523</t>
-  </si>
-  <si>
-    <t>P006741</t>
-  </si>
-  <si>
-    <t>P8934868115717</t>
-  </si>
-  <si>
-    <t>P223609</t>
-  </si>
-  <si>
-    <t>P4800045380190</t>
-  </si>
-  <si>
-    <t>P00140868</t>
-  </si>
-  <si>
-    <t>P560449</t>
-  </si>
-  <si>
-    <t>P4806515160958</t>
-  </si>
-  <si>
-    <t>P00135825</t>
-  </si>
-  <si>
-    <t>P4800047841781</t>
-  </si>
-  <si>
-    <t>P4800047865305</t>
-  </si>
-  <si>
-    <t>P4809013300215</t>
-  </si>
-  <si>
-    <t>P4902430708241</t>
-  </si>
-  <si>
-    <t>P8934868074533</t>
-  </si>
-  <si>
-    <t>P00092820</t>
-  </si>
-  <si>
-    <t>P00141063</t>
-  </si>
-  <si>
-    <t>P00092821</t>
-  </si>
-  <si>
-    <t>P4902430800846</t>
-  </si>
-  <si>
-    <t>P8934868139362</t>
-  </si>
-  <si>
-    <t>P8934868094982</t>
-  </si>
-  <si>
-    <t>total_discount</t>
+    <t>MG762398</t>
   </si>
 </sst>
 </file>
@@ -624,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -692,6 +605,9 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,10 +926,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4F2DD-03B4-4EB2-B799-B7EBE31253DA}">
   <dimension ref="A1:AR134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -1144,7 +1060,7 @@
       <c r="R1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="9" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>13</v>
@@ -1196,16 +1112,16 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>309399</v>
+        <v>311113</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2">
-        <v>60.5</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1235,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="P2" s="22">
         <v>0</v>
@@ -1249,44 +1165,61 @@
         <v>=</v>
       </c>
       <c r="U2" s="33">
-        <f>IF(G2&gt;0,
-Q2,
-IF(H2&gt;0,(D2*E2)*(H2/100),
-IF(OR(I2=5,J2=5),(D2*E2)*((I2/100)+(J2/100)),
-IF(AND(OR(I2&gt;5,J2&gt;5,K2&gt;0,M2&gt;0),F2=0),((D2*E2)/1.12)*((I2/100)+(J2/100)+(K2/100)+(M2/100)),
-IF(OR(L2&gt;0,N2&gt;0),(D2*E2)*((L2/100)+(N2/100)), 0)))))</f>
+        <f>IF(
+            OR(P2=0, P2=1),
+            IF(G2&gt;0,
+                Q2,
+                IF(
+                    H2&gt;0,(D2*E2)*(H2/100),
+                    IF(OR(I2=5,J2=5),(D2*E2)*((I2/100)+(J2/100)),
+                        IF(AND(OR(I2&gt;5,J2&gt;5,K2&gt;0,M2&gt;0),F2=0),
+                            ((D2*E2)/1.12)*((I2/100)+(J2/100)+(K2/100)+(M2/100)),
+                            IF(OR(L2&gt;0,N2&gt;0),
+                                (D2*E2)*((L2/100)+(N2/100)),
+                                0
+                            )
+                        )
+                    )
+                )
+            ),
+            0
+        )</f>
         <v>0</v>
       </c>
       <c r="V2" s="33">
         <f>IF(
-  OR(G2&gt;0, H2&gt;0),
-  D2 * E2 - IF(G2&gt;0, Q2, D2 * E2 * H2 / 100),
-  IF(
-    COUNTA(I2:N2)=0,
-    D2 * E2,
-    IF(
-      AND(
-        F2=0,
-        OR(I2=20, J2=20, M2=20)
-      ),
-      (D2 * E2) / 1.12 *
-      (1 - I2 / 100) *
-      (1 - J2 / 100) *
-      (1 - K2 / 100) *
-      (1 - L2 / 100) *
-      (1 - M2 / 100) *
-      (1 - N2 / 100),
-      D2 * E2 *
-      (1 - I2 / 100) *
-      (1 - J2 / 100) *
-      (1 - K2 / 100) *
-      (1 - L2 / 100) *
-      (1 - M2 / 100) *
-      (1 - N2 / 100)
-    )
-  )
-)</f>
-        <v>121</v>
+            OR(P2=0, P2=1),
+            IF(
+                OR(G2&gt;0, H2&gt;0),
+                D2 * E2 - IF(G2&gt;0, Q2, D2 * E2 * H2 / 100),
+                IF(
+                    COUNTA(I2:N2)=0,
+                    D2 * E2,
+                    IF(
+                    AND(
+                        F2=0,
+                        OR(I2=20, J2=20, M2=20)
+                    ),
+                    (D2 * E2) / 1.12 *
+                    (1 - I2 / 100) *
+                    (1 - J2 / 100) *
+                    (1 - K2 / 100) *
+                    (1 - L2 / 100) *
+                    (1 - M2 / 100) *
+                    (1 - N2 / 100),
+                    D2 * E2 *
+                    (1 - I2 / 100) *
+                    (1 - J2 / 100) *
+                    (1 - K2 / 100) *
+                    (1 - L2 / 100) *
+                    (1 - M2 / 100) *
+                    (1 - N2 / 100)
+                    )
+                )
+            ),
+            0
+        )</f>
+        <v>54</v>
       </c>
       <c r="X2" s="1" cm="1">
         <f t="array" ref="X2">IF(
@@ -1300,7 +1233,7 @@
             ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100)), 2)
         ),
     "")</f>
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="Y2" s="1" t="str" cm="1">
         <f t="array" ref="Y2">IF(
@@ -1386,34 +1319,34 @@
             * ( AE6 + AE9 + AE12 + AE18)
             / 1.12 + AK18
         )
-    ), 2)</f>
-        <v>4748.53</v>
+    ), 4)</f>
+        <v>0</v>
       </c>
       <c r="AP2" s="6">
         <f>AK24
     / AE3
     * (AE3 - AE6 -  AE9 - AE12 - AE15 - AE18 - AE21)
     - (AK3*(AG3/100))</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AQ2" s="7">
         <f>AP2 / 1.12 * 0.12</f>
-        <v>0</v>
+        <v>29.571428571428569</v>
       </c>
       <c r="AR2" s="18"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>309399</v>
+        <v>311113</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="2">
-        <v>16.75</v>
+        <v>11.5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1443,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>16.75</v>
+        <v>23</v>
       </c>
       <c r="P3" s="22">
         <v>0</v>
@@ -1457,44 +1390,61 @@
         <v>=</v>
       </c>
       <c r="U3" s="33">
-        <f t="shared" ref="U3:U66" si="1">IF(G3&gt;0,
-Q3,
-IF(H3&gt;0,(D3*E3)*(H3/100),
-IF(OR(I3=5,J3=5),(D3*E3)*((I3/100)+(J3/100)),
-IF(AND(OR(I3&gt;5,J3&gt;5,K3&gt;0,M3&gt;0),F3=0),((D3*E3)/1.12)*((I3/100)+(J3/100)+(K3/100)+(M3/100)),
-IF(OR(L3&gt;0,N3&gt;0),(D3*E3)*((L3/100)+(N3/100)), 0)))))</f>
+        <f t="shared" ref="U3:U66" si="1">IF(
+            OR(P3=0, P3=1),
+            IF(G3&gt;0,
+                Q3,
+                IF(
+                    H3&gt;0,(D3*E3)*(H3/100),
+                    IF(OR(I3=5,J3=5),(D3*E3)*((I3/100)+(J3/100)),
+                        IF(AND(OR(I3&gt;5,J3&gt;5,K3&gt;0,M3&gt;0),F3=0),
+                            ((D3*E3)/1.12)*((I3/100)+(J3/100)+(K3/100)+(M3/100)),
+                            IF(OR(L3&gt;0,N3&gt;0),
+                                (D3*E3)*((L3/100)+(N3/100)),
+                                0
+                            )
+                        )
+                    )
+                )
+            ),
+            0
+        )</f>
         <v>0</v>
       </c>
       <c r="V3" s="33">
         <f t="shared" ref="V3:V66" si="2">IF(
-  OR(G3&gt;0, H3&gt;0),
-  D3 * E3 - IF(G3&gt;0, Q3, D3 * E3 * H3 / 100),
-  IF(
-    COUNTA(I3:N3)=0,
-    D3 * E3,
-    IF(
-      AND(
-        F3=0,
-        OR(I3=20, J3=20, M3=20)
-      ),
-      (D3 * E3) / 1.12 *
-      (1 - I3 / 100) *
-      (1 - J3 / 100) *
-      (1 - K3 / 100) *
-      (1 - L3 / 100) *
-      (1 - M3 / 100) *
-      (1 - N3 / 100),
-      D3 * E3 *
-      (1 - I3 / 100) *
-      (1 - J3 / 100) *
-      (1 - K3 / 100) *
-      (1 - L3 / 100) *
-      (1 - M3 / 100) *
-      (1 - N3 / 100)
-    )
-  )
-)</f>
-        <v>16.75</v>
+            OR(P3=0, P3=1),
+            IF(
+                OR(G3&gt;0, H3&gt;0),
+                D3 * E3 - IF(G3&gt;0, Q3, D3 * E3 * H3 / 100),
+                IF(
+                    COUNTA(I3:N3)=0,
+                    D3 * E3,
+                    IF(
+                    AND(
+                        F3=0,
+                        OR(I3=20, J3=20, M3=20)
+                    ),
+                    (D3 * E3) / 1.12 *
+                    (1 - I3 / 100) *
+                    (1 - J3 / 100) *
+                    (1 - K3 / 100) *
+                    (1 - L3 / 100) *
+                    (1 - M3 / 100) *
+                    (1 - N3 / 100),
+                    D3 * E3 *
+                    (1 - I3 / 100) *
+                    (1 - J3 / 100) *
+                    (1 - K3 / 100) *
+                    (1 - L3 / 100) *
+                    (1 - M3 / 100) *
+                    (1 - N3 / 100)
+                    )
+                )
+            ),
+            0
+        )</f>
+        <v>23</v>
       </c>
       <c r="X3" s="1" cm="1">
         <f t="array" ref="X3">IF(
@@ -1508,7 +1458,7 @@
             ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100)), 2)
         ),
     "")</f>
-        <v>16.75</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="1" t="str" cm="1">
         <f t="array" ref="Y3">IF(
@@ -1574,7 +1524,7 @@
       </c>
       <c r="AK3" s="5">
         <f>SUM(V:V)</f>
-        <v>5318.3500000000013</v>
+        <v>276</v>
       </c>
       <c r="AL3" s="18"/>
       <c r="AM3" s="18"/>
@@ -1586,46 +1536,46 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>309399</v>
+        <v>311113</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2">
-        <v>8.4499999999999993</v>
+        <v>10</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>84.5</v>
       </c>
       <c r="P4" s="22">
         <v>0</v>
@@ -1643,7 +1593,7 @@
       </c>
       <c r="V4" s="33">
         <f t="shared" si="2"/>
-        <v>84.5</v>
+        <v>10</v>
       </c>
       <c r="X4" s="1" cm="1">
         <f t="array" ref="X4">IF(
@@ -1657,7 +1607,7 @@
             ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100)), 2)
         ),
     "")</f>
-        <v>84.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="1" t="str" cm="1">
         <f t="array" ref="Y4">IF(
@@ -1723,26 +1673,26 @@
   ),
   2
 )</f>
-        <v>4748.53</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="3">
         <f>AK24 / AE3 * (AE3 - AE6)</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AQ4" s="3">
         <f>ROUND(AP2 / 1.12 * 0.12, 2)</f>
-        <v>0</v>
+        <v>29.57</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>309399</v>
+        <v>311113</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
-        <v>37.4</v>
+        <v>29.6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1775,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>37.4</v>
+        <v>29.6</v>
       </c>
       <c r="P5" s="22">
         <v>0</v>
@@ -1793,7 +1743,7 @@
       </c>
       <c r="V5" s="33">
         <f t="shared" si="2"/>
-        <v>37.4</v>
+        <v>29.6</v>
       </c>
       <c r="X5" s="1" cm="1">
         <f t="array" ref="X5">IF(
@@ -1807,7 +1757,7 @@
             ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100)), 2)
         ),
     "")</f>
-        <v>37.4</v>
+        <v>29.6</v>
       </c>
       <c r="Y5" s="1" t="str" cm="1">
         <f t="array" ref="Y5">IF(
@@ -1876,18 +1826,18 @@
       </c>
       <c r="AP5" s="3">
         <f>(AK24)/AE3*(AE3-AE6-AE9-AE12-AE15-AE18-AE21)</f>
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>309399</v>
+        <v>311113</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2">
-        <v>38.75</v>
+        <v>159.4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1920,17 +1870,17 @@
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>38.75</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
+        <v>159.4</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="Q6" s="22">
         <v>0</v>
       </c>
       <c r="S6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>=</v>
+        <v>VOIDED</v>
       </c>
       <c r="U6" s="33">
         <f t="shared" si="1"/>
@@ -1938,9 +1888,9 @@
       </c>
       <c r="V6" s="33">
         <f t="shared" si="2"/>
-        <v>38.75</v>
-      </c>
-      <c r="X6" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="str" cm="1">
         <f t="array" ref="X6">IF(
         AND(
             F6=0,
@@ -1952,7 +1902,7 @@
             ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100)), 2)
         ),
     "")</f>
-        <v>38.75</v>
+        <v/>
       </c>
       <c r="Y6" s="1" t="str" cm="1">
         <f t="array" ref="Y6">IF(
@@ -2011,33 +1961,33 @@
         <v/>
       </c>
       <c r="AE6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="12">
         <v>20</v>
       </c>
       <c r="AK6" s="5">
         <f xml:space="preserve"> (SUM(X:X))</f>
-        <v>5318.3500000000013</v>
+        <v>276</v>
       </c>
       <c r="AO6" s="2">
         <f>ROUND(((AE6=0)*AK18) + ((AE6&lt;&gt;0)*((AK6 + AK9) / AE3 * AE6 / 1.12 + AK18)), 2)</f>
-        <v>4748.53</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="3">
         <f>(AK24)/AE3*(AE3-AE6-AE9)</f>
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>309399</v>
+        <v>311113</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2">
-        <v>74.75</v>
+        <v>159.4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2070,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>74.75</v>
+        <v>159.4</v>
       </c>
       <c r="P7" s="22">
         <v>0</v>
@@ -2088,7 +2038,7 @@
       </c>
       <c r="V7" s="33">
         <f t="shared" si="2"/>
-        <v>74.75</v>
+        <v>159.4</v>
       </c>
       <c r="X7" s="1" cm="1">
         <f t="array" ref="X7">IF(
@@ -2102,7 +2052,7 @@
             ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100)), 2)
         ),
     "")</f>
-        <v>74.75</v>
+        <v>159.4</v>
       </c>
       <c r="Y7" s="1" t="str" cm="1">
         <f t="array" ref="Y7">IF(
@@ -2162,54 +2112,6 @@
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>309399</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="2">
-        <v>14.05</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>56.2</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0</v>
-      </c>
       <c r="S8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2220,9 +2122,9 @@
       </c>
       <c r="V8" s="33">
         <f t="shared" si="2"/>
-        <v>56.2</v>
-      </c>
-      <c r="X8" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="str" cm="1">
         <f t="array" ref="X8">IF(
         AND(
             F8=0,
@@ -2234,7 +2136,7 @@
             ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100)), 2)
         ),
     "")</f>
-        <v>56.2</v>
+        <v/>
       </c>
       <c r="Y8" s="1" t="str" cm="1">
         <f t="array" ref="Y8">IF(
@@ -2306,71 +2208,23 @@
      IF((AE6+AE9)=0,
      AK18,
      ((AK6 + AK9) / AE3 *( AE6 + AE9) / 1.12 + AK18)), 2)</f>
-        <v>4748.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>309399</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2">
-        <v>14.2</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>316.8</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>24</v>
-      </c>
       <c r="S9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
       <c r="U9" s="33">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V9" s="33">
         <f t="shared" si="2"/>
-        <v>316.79999999999995</v>
-      </c>
-      <c r="X9" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="str" cm="1">
         <f t="array" ref="X9">IF(
         AND(
             F9=0,
@@ -2382,7 +2236,7 @@
             ROUND((D9 * E9 * PRODUCT(1 - H9:H9 / 100, 1 - L9:L9 / 100, 1 - N9:N9 / 100)), 2)
         ),
     "")</f>
-        <v>316.8</v>
+        <v/>
       </c>
       <c r="Y9" s="1" t="str" cm="1">
         <f t="array" ref="Y9">IF(
@@ -2453,54 +2307,6 @@
       <c r="AM9" s="3"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>309399</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2">
-        <v>223.4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>223.4</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
       <c r="S10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2511,9 +2317,9 @@
       </c>
       <c r="V10" s="33">
         <f t="shared" si="2"/>
-        <v>223.4</v>
-      </c>
-      <c r="X10" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="str" cm="1">
         <f t="array" ref="X10">IF(
         AND(
             F10=0,
@@ -2525,7 +2331,7 @@
             ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100)), 2)
         ),
     "")</f>
-        <v>223.4</v>
+        <v/>
       </c>
       <c r="Y10" s="1" t="str" cm="1">
         <f t="array" ref="Y10">IF(
@@ -2587,54 +2393,8 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11">
-        <v>309399</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="27">
-        <v>290.10000000000002</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>290.10000000000002</v>
-      </c>
-      <c r="P11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>0</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="27"/>
       <c r="S11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2645,9 +2405,9 @@
       </c>
       <c r="V11" s="33">
         <f t="shared" si="2"/>
-        <v>290.10000000000002</v>
-      </c>
-      <c r="X11" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="str" cm="1">
         <f t="array" ref="X11">IF(
         AND(
             F11=0,
@@ -2659,7 +2419,7 @@
             ROUND((D11 * E11 * PRODUCT(1 - H11:H11 / 100, 1 - L11:L11 / 100, 1 - N11:N11 / 100)), 2)
         ),
     "")</f>
-        <v>290.10000000000002</v>
+        <v/>
       </c>
       <c r="Y11" s="1" t="str" cm="1">
         <f t="array" ref="Y11">IF(
@@ -2730,54 +2490,8 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12">
-        <v>309399</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="27">
-        <v>23.75</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>71.25</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>0</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="27"/>
       <c r="S12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2788,9 +2502,9 @@
       </c>
       <c r="V12" s="33">
         <f t="shared" si="2"/>
-        <v>71.25</v>
-      </c>
-      <c r="X12" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="str" cm="1">
         <f t="array" ref="X12">IF(
         AND(
             F12=0,
@@ -2802,7 +2516,7 @@
             ROUND((D12 * E12 * PRODUCT(1 - H12:H12 / 100, 1 - L12:L12 / 100, 1 - N12:N12 / 100)), 2)
         ),
     "")</f>
-        <v>71.25</v>
+        <v/>
       </c>
       <c r="Y12" s="1" t="str" cm="1">
         <f t="array" ref="Y12">IF(
@@ -2874,54 +2588,8 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13">
-        <v>309399</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="27">
-        <v>57.3</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>114.6</v>
-      </c>
-      <c r="P13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>0</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="27"/>
       <c r="S13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2932,9 +2600,9 @@
       </c>
       <c r="V13" s="33">
         <f t="shared" si="2"/>
-        <v>114.6</v>
-      </c>
-      <c r="X13" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="str" cm="1">
         <f t="array" ref="X13">IF(
         AND(
             F13=0,
@@ -2946,7 +2614,7 @@
             ROUND((D13 * E13 * PRODUCT(1 - H13:H13 / 100, 1 - L13:L13 / 100, 1 - N13:N13 / 100)), 2)
         ),
     "")</f>
-        <v>114.6</v>
+        <v/>
       </c>
       <c r="Y13" s="1" t="str" cm="1">
         <f t="array" ref="Y13">IF(
@@ -3007,54 +2675,8 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14">
-        <v>309399</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="27">
-        <v>24.8</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="P14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>0</v>
-      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
       <c r="S14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3065,9 +2687,9 @@
       </c>
       <c r="V14" s="33">
         <f t="shared" si="2"/>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="X14" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="str" cm="1">
         <f t="array" ref="X14">IF(
         AND(
             F14=0,
@@ -3079,7 +2701,7 @@
             ROUND((D14 * E14 * PRODUCT(1 - H14:H14 / 100, 1 - L14:L14 / 100, 1 - N14:N14 / 100)), 2)
         ),
     "")</f>
-        <v>74.400000000000006</v>
+        <v/>
       </c>
       <c r="Y14" s="1" t="str" cm="1">
         <f t="array" ref="Y14">IF(
@@ -3149,54 +2771,8 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15">
-        <v>309399</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="27">
-        <v>27.8</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>55.6</v>
-      </c>
-      <c r="P15" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>0</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="27"/>
       <c r="S15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3207,9 +2783,9 @@
       </c>
       <c r="V15" s="33">
         <f t="shared" si="2"/>
-        <v>55.6</v>
-      </c>
-      <c r="X15" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="str" cm="1">
         <f t="array" ref="X15">IF(
         AND(
             F15=0,
@@ -3221,7 +2797,7 @@
             ROUND((D15 * E15 * PRODUCT(1 - H15:H15 / 100, 1 - L15:L15 / 100, 1 - N15:N15 / 100)), 2)
         ),
     "")</f>
-        <v>55.6</v>
+        <v/>
       </c>
       <c r="Y15" s="1" t="str" cm="1">
         <f t="array" ref="Y15">IF(
@@ -3292,54 +2868,8 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16">
-        <v>309399</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="27">
-        <v>54.9</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>54.9</v>
-      </c>
-      <c r="P16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>0</v>
-      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="27"/>
       <c r="S16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3350,9 +2880,9 @@
       </c>
       <c r="V16" s="33">
         <f t="shared" si="2"/>
-        <v>54.9</v>
-      </c>
-      <c r="X16" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="str" cm="1">
         <f t="array" ref="X16">IF(
         AND(
             F16=0,
@@ -3364,7 +2894,7 @@
             ROUND((D16 * E16 * PRODUCT(1 - H16:H16 / 100, 1 - L16:L16 / 100, 1 - N16:N16 / 100)), 2)
         ),
     "")</f>
-        <v>54.9</v>
+        <v/>
       </c>
       <c r="Y16" s="1" t="str" cm="1">
         <f t="array" ref="Y16">IF(
@@ -3425,54 +2955,8 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17">
-        <v>309399</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="27">
-        <v>247.9</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>247.9</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>0</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="27"/>
       <c r="S17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3483,9 +2967,9 @@
       </c>
       <c r="V17" s="33">
         <f t="shared" si="2"/>
-        <v>247.9</v>
-      </c>
-      <c r="X17" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="str" cm="1">
         <f t="array" ref="X17">IF(
         AND(
             F17=0,
@@ -3497,7 +2981,7 @@
             ROUND((D17 * E17 * PRODUCT(1 - H17:H17 / 100, 1 - L17:L17 / 100, 1 - N17:N17 / 100)), 2)
         ),
     "")</f>
-        <v>247.9</v>
+        <v/>
       </c>
       <c r="Y17" s="1" t="str" cm="1">
         <f t="array" ref="Y17">IF(
@@ -3567,54 +3051,8 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18">
-        <v>309399</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="27">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="P18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>0</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="27"/>
       <c r="S18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3625,9 +3063,9 @@
       </c>
       <c r="V18" s="33">
         <f t="shared" si="2"/>
-        <v>67.849999999999994</v>
-      </c>
-      <c r="X18" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="str" cm="1">
         <f t="array" ref="X18">IF(
         AND(
             F18=0,
@@ -3639,7 +3077,7 @@
             ROUND((D18 * E18 * PRODUCT(1 - H18:H18 / 100, 1 - L18:L18 / 100, 1 - N18:N18 / 100)), 2)
         ),
     "")</f>
-        <v>67.849999999999994</v>
+        <v/>
       </c>
       <c r="Y18" s="1" t="str" cm="1">
         <f t="array" ref="Y18">IF(
@@ -3710,54 +3148,8 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19">
-        <v>309399</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="27">
-        <v>59.4</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>59.4</v>
-      </c>
-      <c r="P19" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>0</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="27"/>
       <c r="S19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3768,9 +3160,9 @@
       </c>
       <c r="V19" s="33">
         <f t="shared" si="2"/>
-        <v>59.4</v>
-      </c>
-      <c r="X19" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="str" cm="1">
         <f t="array" ref="X19">IF(
         AND(
             F19=0,
@@ -3782,7 +3174,7 @@
             ROUND((D19 * E19 * PRODUCT(1 - H19:H19 / 100, 1 - L19:L19 / 100, 1 - N19:N19 / 100)), 2)
         ),
     "")</f>
-        <v>59.4</v>
+        <v/>
       </c>
       <c r="Y19" s="1" t="str" cm="1">
         <f t="array" ref="Y19">IF(
@@ -3843,54 +3235,8 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20">
-        <v>309399</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="27">
-        <v>31.25</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>31.25</v>
-      </c>
-      <c r="P20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>0</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="27"/>
       <c r="S20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3901,9 +3247,9 @@
       </c>
       <c r="V20" s="33">
         <f t="shared" si="2"/>
-        <v>31.25</v>
-      </c>
-      <c r="X20" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="str" cm="1">
         <f t="array" ref="X20">IF(
         AND(
             F20=0,
@@ -3915,7 +3261,7 @@
             ROUND((D20 * E20 * PRODUCT(1 - H20:H20 / 100, 1 - L20:L20 / 100, 1 - N20:N20 / 100)), 2)
         ),
     "")</f>
-        <v>31.25</v>
+        <v/>
       </c>
       <c r="Y20" s="1" t="str" cm="1">
         <f t="array" ref="Y20">IF(
@@ -3982,54 +3328,8 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21">
-        <v>309399</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="27">
-        <v>89.5</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>89.5</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>0</v>
-      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="27"/>
       <c r="S21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4040,9 +3340,9 @@
       </c>
       <c r="V21" s="33">
         <f t="shared" si="2"/>
-        <v>89.5</v>
-      </c>
-      <c r="X21" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="str" cm="1">
         <f t="array" ref="X21">IF(
         AND(
             F21=0,
@@ -4054,7 +3354,7 @@
             ROUND((D21 * E21 * PRODUCT(1 - H21:H21 / 100, 1 - L21:L21 / 100, 1 - N21:N21 / 100)), 2)
         ),
     "")</f>
-        <v>89.5</v>
+        <v/>
       </c>
       <c r="Y21" s="1" t="str" cm="1">
         <f t="array" ref="Y21">IF(
@@ -4121,54 +3421,8 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22">
-        <v>309399</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="27">
-        <v>18.75</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>0</v>
-      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="27"/>
       <c r="S22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4179,9 +3433,9 @@
       </c>
       <c r="V22" s="33">
         <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-      <c r="X22" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="str" cm="1">
         <f t="array" ref="X22">IF(
         AND(
             F22=0,
@@ -4193,7 +3447,7 @@
             ROUND((D22 * E22 * PRODUCT(1 - H22:H22 / 100, 1 - L22:L22 / 100, 1 - N22:N22 / 100)), 2)
         ),
     "")</f>
-        <v>37.5</v>
+        <v/>
       </c>
       <c r="Y22" s="1" t="str" cm="1">
         <f t="array" ref="Y22">IF(
@@ -4254,54 +3508,8 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23">
-        <v>309399</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="27">
-        <v>20.75</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="P23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>0</v>
-      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="27"/>
       <c r="S23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4312,9 +3520,9 @@
       </c>
       <c r="V23" s="33">
         <f t="shared" si="2"/>
-        <v>41.5</v>
-      </c>
-      <c r="X23" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="str" cm="1">
         <f t="array" ref="X23">IF(
         AND(
             F23=0,
@@ -4326,7 +3534,7 @@
             ROUND((D23 * E23 * PRODUCT(1 - H23:H23 / 100, 1 - L23:L23 / 100, 1 - N23:N23 / 100)), 2)
         ),
     "")</f>
-        <v>41.5</v>
+        <v/>
       </c>
       <c r="Y23" s="1" t="str" cm="1">
         <f t="array" ref="Y23">IF(
@@ -4390,54 +3598,8 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24">
-        <v>309399</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="27">
-        <v>13.7</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>41.1</v>
-      </c>
-      <c r="P24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>0</v>
-      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
       <c r="S24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4448,9 +3610,9 @@
       </c>
       <c r="V24" s="33">
         <f t="shared" si="2"/>
-        <v>41.099999999999994</v>
-      </c>
-      <c r="X24" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="str" cm="1">
         <f t="array" ref="X24">IF(
         AND(
             F24=0,
@@ -4462,7 +3624,7 @@
             ROUND((D24 * E24 * PRODUCT(1 - H24:H24 / 100, 1 - L24:L24 / 100, 1 - N24:N24 / 100)), 2)
         ),
     "")</f>
-        <v>41.1</v>
+        <v/>
       </c>
       <c r="Y24" s="1" t="str" cm="1">
         <f t="array" ref="Y24">IF(
@@ -4525,59 +3687,13 @@
       </c>
       <c r="AK24" s="5">
         <f>AK6+AK9</f>
-        <v>5318.3500000000013</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25">
-        <v>309399</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="27">
-        <v>13.7</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>41.1</v>
-      </c>
-      <c r="P25" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="22">
-        <v>0</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="27"/>
       <c r="S25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4588,9 +3704,9 @@
       </c>
       <c r="V25" s="33">
         <f t="shared" si="2"/>
-        <v>41.099999999999994</v>
-      </c>
-      <c r="X25" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="str" cm="1">
         <f t="array" ref="X25">IF(
         AND(
             F25=0,
@@ -4602,7 +3718,7 @@
             ROUND((D25 * E25 * PRODUCT(1 - H25:H25 / 100, 1 - L25:L25 / 100, 1 - N25:N25 / 100)), 2)
         ),
     "")</f>
-        <v>41.1</v>
+        <v/>
       </c>
       <c r="Y25" s="1" t="str" cm="1">
         <f t="array" ref="Y25">IF(
@@ -4686,58 +3802,10 @@
         )
     ),
 "Voided")</f>
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>309399</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="P26" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="22">
-        <v>0</v>
-      </c>
       <c r="S26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4748,9 +3816,9 @@
       </c>
       <c r="V26" s="33">
         <f t="shared" si="2"/>
-        <v>27.8</v>
-      </c>
-      <c r="X26" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="str" cm="1">
         <f t="array" ref="X26">IF(
         AND(
             F26=0,
@@ -4762,7 +3830,7 @@
             ROUND((D26 * E26 * PRODUCT(1 - H26:H26 / 100, 1 - L26:L26 / 100, 1 - N26:N26 / 100)), 2)
         ),
     "")</f>
-        <v>27.8</v>
+        <v/>
       </c>
       <c r="Y26" s="1" t="str" cm="1">
         <f t="array" ref="Y26">IF(
@@ -4825,54 +3893,6 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>309399</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="2">
-        <v>75.55</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>75.55</v>
-      </c>
-      <c r="P27" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>0</v>
-      </c>
       <c r="S27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4883,9 +3903,9 @@
       </c>
       <c r="V27" s="33">
         <f t="shared" si="2"/>
-        <v>75.55</v>
-      </c>
-      <c r="X27" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="str" cm="1">
         <f t="array" ref="X27">IF(
         AND(
             F27=0,
@@ -4897,7 +3917,7 @@
             ROUND((D27 * E27 * PRODUCT(1 - H27:H27 / 100, 1 - L27:L27 / 100, 1 - N27:N27 / 100)), 2)
         ),
     "")</f>
-        <v>75.55</v>
+        <v/>
       </c>
       <c r="Y27" s="1" t="str" cm="1">
         <f t="array" ref="Y27">IF(
@@ -4960,58 +3980,10 @@
       </c>
       <c r="AK27" s="5">
         <f>AK6 / 1.12 * 0.12</f>
-        <v>569.82321428571436</v>
+        <v>29.571428571428569</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>309399</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>67.2</v>
-      </c>
-      <c r="P28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>0</v>
-      </c>
       <c r="S28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5022,9 +3994,9 @@
       </c>
       <c r="V28" s="33">
         <f t="shared" si="2"/>
-        <v>67.199999999999989</v>
-      </c>
-      <c r="X28" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="str" cm="1">
         <f t="array" ref="X28">IF(
         AND(
             F28=0,
@@ -5036,7 +4008,7 @@
             ROUND((D28 * E28 * PRODUCT(1 - H28:H28 / 100, 1 - L28:L28 / 100, 1 - N28:N28 / 100)), 2)
         ),
     "")</f>
-        <v>67.2</v>
+        <v/>
       </c>
       <c r="Y28" s="1" t="str" cm="1">
         <f t="array" ref="Y28">IF(
@@ -5111,58 +4083,10 @@
         )
     ),
 "Voided")</f>
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>309399</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>62.4</v>
-      </c>
-      <c r="P29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>0</v>
-      </c>
       <c r="S29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5173,9 +4097,9 @@
       </c>
       <c r="V29" s="33">
         <f t="shared" si="2"/>
-        <v>62.4</v>
-      </c>
-      <c r="X29" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1" t="str" cm="1">
         <f t="array" ref="X29">IF(
         AND(
             F29=0,
@@ -5187,7 +4111,7 @@
             ROUND((D29 * E29 * PRODUCT(1 - H29:H29 / 100, 1 - L29:L29 / 100, 1 - N29:N29 / 100)), 2)
         ),
     "")</f>
-        <v>62.4</v>
+        <v/>
       </c>
       <c r="Y29" s="1" t="str" cm="1">
         <f t="array" ref="Y29">IF(
@@ -5250,54 +4174,6 @@
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>309399</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="2">
-        <v>15.15</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>15.15</v>
-      </c>
-      <c r="P30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
       <c r="S30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5308,9 +4184,9 @@
       </c>
       <c r="V30" s="33">
         <f t="shared" si="2"/>
-        <v>15.15</v>
-      </c>
-      <c r="X30" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="str" cm="1">
         <f t="array" ref="X30">IF(
         AND(
             F30=0,
@@ -5322,7 +4198,7 @@
             ROUND((D30 * E30 * PRODUCT(1 - H30:H30 / 100, 1 - L30:L30 / 100, 1 - N30:N30 / 100)), 2)
         ),
     "")</f>
-        <v>15.15</v>
+        <v/>
       </c>
       <c r="Y30" s="1" t="str" cm="1">
         <f t="array" ref="Y30">IF(
@@ -5386,54 +4262,6 @@
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>309399</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="2">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>44.75</v>
-      </c>
-      <c r="P31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="22">
-        <v>0</v>
-      </c>
       <c r="S31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5444,9 +4272,9 @@
       </c>
       <c r="V31" s="33">
         <f t="shared" si="2"/>
-        <v>44.75</v>
-      </c>
-      <c r="X31" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1" t="str" cm="1">
         <f t="array" ref="X31">IF(
         AND(
             F31=0,
@@ -5458,7 +4286,7 @@
             ROUND((D31 * E31 * PRODUCT(1 - H31:H31 / 100, 1 - L31:L31 / 100, 1 - N31:N31 / 100)), 2)
         ),
     "")</f>
-        <v>44.75</v>
+        <v/>
       </c>
       <c r="Y31" s="1" t="str" cm="1">
         <f t="array" ref="Y31">IF(
@@ -5518,54 +4346,6 @@
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>309399</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="2">
-        <v>9.25</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>46.25</v>
-      </c>
-      <c r="P32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>0</v>
-      </c>
       <c r="S32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5576,9 +4356,9 @@
       </c>
       <c r="V32" s="33">
         <f t="shared" si="2"/>
-        <v>46.25</v>
-      </c>
-      <c r="X32" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="str" cm="1">
         <f t="array" ref="X32">IF(
         AND(
             F32=0,
@@ -5590,7 +4370,7 @@
             ROUND((D32 * E32 * PRODUCT(1 - H32:H32 / 100, 1 - L32:L32 / 100, 1 - N32:N32 / 100)), 2)
         ),
     "")</f>
-        <v>46.25</v>
+        <v/>
       </c>
       <c r="Y32" s="1" t="str" cm="1">
         <f t="array" ref="Y32">IF(
@@ -5653,54 +4433,6 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>309399</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>0</v>
-      </c>
       <c r="S33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5711,9 +4443,9 @@
       </c>
       <c r="V33" s="33">
         <f t="shared" si="2"/>
-        <v>43.5</v>
-      </c>
-      <c r="X33" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="str" cm="1">
         <f t="array" ref="X33">IF(
         AND(
             F33=0,
@@ -5725,7 +4457,7 @@
             ROUND((D33 * E33 * PRODUCT(1 - H33:H33 / 100, 1 - L33:L33 / 100, 1 - N33:N33 / 100)), 2)
         ),
     "")</f>
-        <v>43.5</v>
+        <v/>
       </c>
       <c r="Y33" s="1" t="str" cm="1">
         <f t="array" ref="Y33">IF(
@@ -5785,58 +4517,10 @@
       </c>
       <c r="AK33" s="5">
         <f>(((AK3-(AK6/1.12*0.12)) * (AG6*0.01)) / AE3) * AE6</f>
-        <v>949.70535714285745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>309399</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="2">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="P34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>0</v>
-      </c>
       <c r="S34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5847,9 +4531,9 @@
       </c>
       <c r="V34" s="33">
         <f t="shared" si="2"/>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="X34" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="str" cm="1">
         <f t="array" ref="X34">IF(
         AND(
             F34=0,
@@ -5861,7 +4545,7 @@
             ROUND((D34 * E34 * PRODUCT(1 - H34:H34 / 100, 1 - L34:L34 / 100, 1 - N34:N34 / 100)), 2)
         ),
     "")</f>
-        <v>33.799999999999997</v>
+        <v/>
       </c>
       <c r="Y34" s="1" t="str" cm="1">
         <f t="array" ref="Y34">IF(
@@ -5921,58 +4605,10 @@
       </c>
       <c r="AK34" s="2">
         <f>(((AK3-(AK24/1.12*0.12)) * (AG6*0.01)) / AE3) * AE6</f>
-        <v>949.70535714285745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>309399</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="2">
-        <v>42.25</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>42.25</v>
-      </c>
-      <c r="P35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22">
-        <v>0</v>
-      </c>
       <c r="S35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5983,9 +4619,9 @@
       </c>
       <c r="V35" s="33">
         <f t="shared" si="2"/>
-        <v>42.25</v>
-      </c>
-      <c r="X35" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="str" cm="1">
         <f t="array" ref="X35">IF(
         AND(
             F35=0,
@@ -5997,7 +4633,7 @@
             ROUND((D35 * E35 * PRODUCT(1 - H35:H35 / 100, 1 - L35:L35 / 100, 1 - N35:N35 / 100)), 2)
         ),
     "")</f>
-        <v>42.25</v>
+        <v/>
       </c>
       <c r="Y35" s="1" t="str" cm="1">
         <f t="array" ref="Y35">IF(
@@ -6061,54 +4697,22 @@
     </row>
     <row r="36" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="B36">
-        <v>309399</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="2">
-        <v>35</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>35</v>
-      </c>
-      <c r="P36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22">
-        <v>0</v>
-      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" s="2"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
       <c r="S36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6119,9 +4723,9 @@
       </c>
       <c r="V36" s="33">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="X36" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="str" cm="1">
         <f t="array" ref="X36">IF(
         AND(
             F36=0,
@@ -6133,7 +4737,7 @@
             ROUND((D36 * E36 * PRODUCT(1 - H36:H36 / 100, 1 - L36:L36 / 100, 1 - N36:N36 / 100)), 2)
         ),
     "")</f>
-        <v>35</v>
+        <v/>
       </c>
       <c r="Y36" s="1" t="str" cm="1">
         <f t="array" ref="Y36">IF(
@@ -6211,54 +4815,22 @@
     </row>
     <row r="37" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
-      <c r="B37">
-        <v>309399</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="P37" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="22">
-        <v>0</v>
-      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
       <c r="S37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6269,9 +4841,9 @@
       </c>
       <c r="V37" s="33">
         <f t="shared" si="2"/>
-        <v>43.5</v>
-      </c>
-      <c r="X37" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="str" cm="1">
         <f t="array" ref="X37">IF(
         AND(
             F37=0,
@@ -6283,7 +4855,7 @@
             ROUND((D37 * E37 * PRODUCT(1 - H37:H37 / 100, 1 - L37:L37 / 100, 1 - N37:N37 / 100)), 2)
         ),
     "")</f>
-        <v>43.5</v>
+        <v/>
       </c>
       <c r="Y37" s="1" t="str" cm="1">
         <f t="array" ref="Y37">IF(
@@ -6358,54 +4930,22 @@
     </row>
     <row r="38" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
-      <c r="B38">
-        <v>309399</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="2">
-        <v>31.8</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>31.8</v>
-      </c>
-      <c r="P38" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="22">
-        <v>0</v>
-      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="2"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
       <c r="S38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6416,9 +4956,9 @@
       </c>
       <c r="V38" s="33">
         <f t="shared" si="2"/>
-        <v>31.8</v>
-      </c>
-      <c r="X38" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1" t="str" cm="1">
         <f t="array" ref="X38">IF(
         AND(
             F38=0,
@@ -6430,7 +4970,7 @@
             ROUND((D38 * E38 * PRODUCT(1 - H38:H38 / 100, 1 - L38:L38 / 100, 1 - N38:N38 / 100)), 2)
         ),
     "")</f>
-        <v>31.8</v>
+        <v/>
       </c>
       <c r="Y38" s="1" t="str" cm="1">
         <f t="array" ref="Y38">IF(
@@ -6507,54 +5047,22 @@
     </row>
     <row r="39" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
-      <c r="B39">
-        <v>309399</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="P39" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="22">
-        <v>0</v>
-      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39" s="2"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
       <c r="S39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6565,9 +5073,9 @@
       </c>
       <c r="V39" s="33">
         <f t="shared" si="2"/>
-        <v>5.35</v>
-      </c>
-      <c r="X39" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1" t="str" cm="1">
         <f t="array" ref="X39">IF(
         AND(
             F39=0,
@@ -6579,7 +5087,7 @@
             ROUND((D39 * E39 * PRODUCT(1 - H39:H39 / 100, 1 - L39:L39 / 100, 1 - N39:N39 / 100)), 2)
         ),
     "")</f>
-        <v>5.35</v>
+        <v/>
       </c>
       <c r="Y39" s="1" t="str" cm="1">
         <f t="array" ref="Y39">IF(
@@ -6645,7 +5153,7 @@
       <c r="AJ39"/>
       <c r="AK39" s="5">
         <f>ROUND(((AE6=0)*AK18) + ((AE6&lt;&gt;0)*((AK6 + AK9) / AE3 * AE6 / 1.12 + AK18)) *0.12, 2)</f>
-        <v>569.82000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="26"/>
       <c r="AM39"/>
@@ -6657,54 +5165,22 @@
     </row>
     <row r="40" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40">
-        <v>309399</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="2">
-        <v>35</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>35</v>
-      </c>
-      <c r="P40" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="22">
-        <v>0</v>
-      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" s="2"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
       <c r="S40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6715,9 +5191,9 @@
       </c>
       <c r="V40" s="33">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="X40" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1" t="str" cm="1">
         <f t="array" ref="X40">IF(
         AND(
             F40=0,
@@ -6729,7 +5205,7 @@
             ROUND((D40 * E40 * PRODUCT(1 - H40:H40 / 100, 1 - L40:L40 / 100, 1 - N40:N40 / 100)), 2)
         ),
     "")</f>
-        <v>35</v>
+        <v/>
       </c>
       <c r="Y40" s="1" t="str" cm="1">
         <f t="array" ref="Y40">IF(
@@ -6804,54 +5280,22 @@
     </row>
     <row r="41" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41">
-        <v>309399</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="2">
-        <v>15.15</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>15.15</v>
-      </c>
-      <c r="P41" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>0</v>
-      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" s="2"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="S41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6862,9 +5306,9 @@
       </c>
       <c r="V41" s="33">
         <f t="shared" si="2"/>
-        <v>15.15</v>
-      </c>
-      <c r="X41" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1" t="str" cm="1">
         <f t="array" ref="X41">IF(
         AND(
             F41=0,
@@ -6876,7 +5320,7 @@
             ROUND((D41 * E41 * PRODUCT(1 - H41:H41 / 100, 1 - L41:L41 / 100, 1 - N41:N41 / 100)), 2)
         ),
     "")</f>
-        <v>15.15</v>
+        <v/>
       </c>
       <c r="Y41" s="1" t="str" cm="1">
         <f t="array" ref="Y41">IF(
@@ -6953,54 +5397,22 @@
     </row>
     <row r="42" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42">
-        <v>309399</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="2">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>24</v>
-      </c>
-      <c r="P42" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="22">
-        <v>0</v>
-      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
       <c r="S42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7011,9 +5423,9 @@
       </c>
       <c r="V42" s="33">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="X42" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1" t="str" cm="1">
         <f t="array" ref="X42">IF(
         AND(
             F42=0,
@@ -7025,7 +5437,7 @@
             ROUND((D42 * E42 * PRODUCT(1 - H42:H42 / 100, 1 - L42:L42 / 100, 1 - N42:N42 / 100)), 2)
         ),
     "")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="Y42" s="1" t="str" cm="1">
         <f t="array" ref="Y42">IF(
@@ -7091,7 +5503,7 @@
       <c r="AJ42"/>
       <c r="AK42" s="5">
         <f xml:space="preserve"> (SUM(X:X)) - (SUM(X:X) / AE3 * AE6)</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AL42"/>
       <c r="AM42"/>
@@ -7103,54 +5515,22 @@
     </row>
     <row r="43" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="B43">
-        <v>309399</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="2">
-        <v>53.8</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>53.8</v>
-      </c>
-      <c r="P43" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="22">
-        <v>0</v>
-      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="2"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
       <c r="S43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7161,9 +5541,9 @@
       </c>
       <c r="V43" s="33">
         <f t="shared" si="2"/>
-        <v>53.8</v>
-      </c>
-      <c r="X43" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1" t="str" cm="1">
         <f t="array" ref="X43">IF(
         AND(
             F43=0,
@@ -7175,7 +5555,7 @@
             ROUND((D43 * E43 * PRODUCT(1 - H43:H43 / 100, 1 - L43:L43 / 100, 1 - N43:N43 / 100)), 2)
         ),
     "")</f>
-        <v>53.8</v>
+        <v/>
       </c>
       <c r="Y43" s="1" t="str" cm="1">
         <f t="array" ref="Y43">IF(
@@ -7250,54 +5630,22 @@
     </row>
     <row r="44" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="B44">
-        <v>309399</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="2">
-        <v>60.7</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>60.7</v>
-      </c>
-      <c r="P44" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="22">
-        <v>0</v>
-      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44" s="2"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
       <c r="S44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7308,9 +5656,9 @@
       </c>
       <c r="V44" s="33">
         <f t="shared" si="2"/>
-        <v>60.7</v>
-      </c>
-      <c r="X44" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1" t="str" cm="1">
         <f t="array" ref="X44">IF(
         AND(
             F44=0,
@@ -7322,7 +5670,7 @@
             ROUND((D44 * E44 * PRODUCT(1 - H44:H44 / 100, 1 - L44:L44 / 100, 1 - N44:N44 / 100)), 2)
         ),
     "")</f>
-        <v>60.7</v>
+        <v/>
       </c>
       <c r="Y44" s="1" t="str" cm="1">
         <f t="array" ref="Y44">IF(
@@ -7399,54 +5747,22 @@
     </row>
     <row r="45" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
-      <c r="B45">
-        <v>309399</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="2">
-        <v>87.85</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>87.85</v>
-      </c>
-      <c r="P45" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="22">
-        <v>0</v>
-      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45" s="2"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
       <c r="S45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7457,9 +5773,9 @@
       </c>
       <c r="V45" s="33">
         <f t="shared" si="2"/>
-        <v>87.85</v>
-      </c>
-      <c r="X45" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1" t="str" cm="1">
         <f t="array" ref="X45">IF(
         AND(
             F45=0,
@@ -7471,7 +5787,7 @@
             ROUND((D45 * E45 * PRODUCT(1 - H45:H45 / 100, 1 - L45:L45 / 100, 1 - N45:N45 / 100)), 2)
         ),
     "")</f>
-        <v>87.85</v>
+        <v/>
       </c>
       <c r="Y45" s="1" t="str" cm="1">
         <f t="array" ref="Y45">IF(
@@ -7549,54 +5865,22 @@
     </row>
     <row r="46" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="B46">
-        <v>309399</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="2">
-        <v>20.85</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
-        <v>20.85</v>
-      </c>
-      <c r="P46" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="22">
-        <v>0</v>
-      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" s="2"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
       <c r="S46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7607,9 +5891,9 @@
       </c>
       <c r="V46" s="33">
         <f t="shared" si="2"/>
-        <v>20.85</v>
-      </c>
-      <c r="X46" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1" t="str" cm="1">
         <f t="array" ref="X46">IF(
         AND(
             F46=0,
@@ -7621,7 +5905,7 @@
             ROUND((D46 * E46 * PRODUCT(1 - H46:H46 / 100, 1 - L46:L46 / 100, 1 - N46:N46 / 100)), 2)
         ),
     "")</f>
-        <v>20.85</v>
+        <v/>
       </c>
       <c r="Y46" s="1" t="str" cm="1">
         <f t="array" ref="Y46">IF(
@@ -7696,54 +5980,22 @@
     </row>
     <row r="47" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47">
-        <v>309399</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="2">
-        <v>109.4</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>109.4</v>
-      </c>
-      <c r="P47" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="22">
-        <v>0</v>
-      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="2"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
       <c r="S47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7754,9 +6006,9 @@
       </c>
       <c r="V47" s="33">
         <f t="shared" si="2"/>
-        <v>109.4</v>
-      </c>
-      <c r="X47" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1" t="str" cm="1">
         <f t="array" ref="X47">IF(
         AND(
             F47=0,
@@ -7768,7 +6020,7 @@
             ROUND((D47 * E47 * PRODUCT(1 - H47:H47 / 100, 1 - L47:L47 / 100, 1 - N47:N47 / 100)), 2)
         ),
     "")</f>
-        <v>109.4</v>
+        <v/>
       </c>
       <c r="Y47" s="1" t="str" cm="1">
         <f t="array" ref="Y47">IF(
@@ -7845,54 +6097,22 @@
     </row>
     <row r="48" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48">
-        <v>309399</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="2">
-        <v>151.5</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>151.5</v>
-      </c>
-      <c r="P48" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="22">
-        <v>0</v>
-      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" s="2"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
       <c r="S48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7903,9 +6123,9 @@
       </c>
       <c r="V48" s="33">
         <f t="shared" si="2"/>
-        <v>151.5</v>
-      </c>
-      <c r="X48" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1" t="str" cm="1">
         <f t="array" ref="X48">IF(
         AND(
             F48=0,
@@ -7917,7 +6137,7 @@
             ROUND((D48 * E48 * PRODUCT(1 - H48:H48 / 100, 1 - L48:L48 / 100, 1 - N48:N48 / 100)), 2)
         ),
     "")</f>
-        <v>151.5</v>
+        <v/>
       </c>
       <c r="Y48" s="1" t="str" cm="1">
         <f t="array" ref="Y48">IF(
@@ -7983,7 +6203,7 @@
       <c r="AJ48"/>
       <c r="AK48" s="5" cm="1">
         <f t="array" ref="AK48">SUMPRODUCT((I2:I1048576&lt;&gt;"") * ((D2:D1048576 * E2:E1048576) - O2:O1048576))</f>
-        <v>23.999999999999915</v>
+        <v>0</v>
       </c>
       <c r="AL48"/>
       <c r="AM48"/>
@@ -7995,54 +6215,22 @@
     </row>
     <row r="49" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49">
-        <v>309399</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="2">
-        <v>42.25</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>84.5</v>
-      </c>
-      <c r="P49" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="22">
-        <v>0</v>
-      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49" s="2"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
       <c r="S49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8053,9 +6241,9 @@
       </c>
       <c r="V49" s="33">
         <f t="shared" si="2"/>
-        <v>84.5</v>
-      </c>
-      <c r="X49" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1" t="str" cm="1">
         <f t="array" ref="X49">IF(
         AND(
             F49=0,
@@ -8067,7 +6255,7 @@
             ROUND((D49 * E49 * PRODUCT(1 - H49:H49 / 100, 1 - L49:L49 / 100, 1 - N49:N49 / 100)), 2)
         ),
     "")</f>
-        <v>84.5</v>
+        <v/>
       </c>
       <c r="Y49" s="1" t="str" cm="1">
         <f t="array" ref="Y49">IF(
@@ -8142,54 +6330,22 @@
     </row>
     <row r="50" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50">
-        <v>309399</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="2">
-        <v>79.7</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
-        <v>79.7</v>
-      </c>
-      <c r="P50" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="22">
-        <v>0</v>
-      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50" s="2"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
       <c r="S50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8200,9 +6356,9 @@
       </c>
       <c r="V50" s="33">
         <f t="shared" si="2"/>
-        <v>79.7</v>
-      </c>
-      <c r="X50" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1" t="str" cm="1">
         <f t="array" ref="X50">IF(
         AND(
             F50=0,
@@ -8214,7 +6370,7 @@
             ROUND((D50 * E50 * PRODUCT(1 - H50:H50 / 100, 1 - L50:L50 / 100, 1 - N50:N50 / 100)), 2)
         ),
     "")</f>
-        <v>79.7</v>
+        <v/>
       </c>
       <c r="Y50" s="1" t="str" cm="1">
         <f t="array" ref="Y50">IF(
@@ -8289,54 +6445,22 @@
     </row>
     <row r="51" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="B51">
-        <v>309399</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="2">
-        <v>22.75</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>45.5</v>
-      </c>
-      <c r="P51" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="22">
-        <v>0</v>
-      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" s="2"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
       <c r="S51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8347,9 +6471,9 @@
       </c>
       <c r="V51" s="33">
         <f t="shared" si="2"/>
-        <v>45.5</v>
-      </c>
-      <c r="X51" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1" t="str" cm="1">
         <f t="array" ref="X51">IF(
         AND(
             F51=0,
@@ -8361,7 +6485,7 @@
             ROUND((D51 * E51 * PRODUCT(1 - H51:H51 / 100, 1 - L51:L51 / 100, 1 - N51:N51 / 100)), 2)
         ),
     "")</f>
-        <v>45.5</v>
+        <v/>
       </c>
       <c r="Y51" s="1" t="str" cm="1">
         <f t="array" ref="Y51">IF(
@@ -8436,54 +6560,22 @@
     </row>
     <row r="52" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="B52">
-        <v>309399</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <v>44.5</v>
-      </c>
-      <c r="P52" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="22">
-        <v>0</v>
-      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="2"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
       <c r="S52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8494,9 +6586,9 @@
       </c>
       <c r="V52" s="33">
         <f t="shared" si="2"/>
-        <v>44.5</v>
-      </c>
-      <c r="X52" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1" t="str" cm="1">
         <f t="array" ref="X52">IF(
         AND(
             F52=0,
@@ -8508,7 +6600,7 @@
             ROUND((D52 * E52 * PRODUCT(1 - H52:H52 / 100, 1 - L52:L52 / 100, 1 - N52:N52 / 100)), 2)
         ),
     "")</f>
-        <v>44.5</v>
+        <v/>
       </c>
       <c r="Y52" s="1" t="str" cm="1">
         <f t="array" ref="Y52">IF(
@@ -8583,54 +6675,22 @@
     </row>
     <row r="53" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="B53">
-        <v>309399</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="2">
-        <v>88.25</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" s="2">
-        <v>88.25</v>
-      </c>
-      <c r="P53" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="22">
-        <v>0</v>
-      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="2"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
       <c r="S53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8641,9 +6701,9 @@
       </c>
       <c r="V53" s="33">
         <f t="shared" si="2"/>
-        <v>88.25</v>
-      </c>
-      <c r="X53" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1" t="str" cm="1">
         <f t="array" ref="X53">IF(
         AND(
             F53=0,
@@ -8655,7 +6715,7 @@
             ROUND((D53 * E53 * PRODUCT(1 - H53:H53 / 100, 1 - L53:L53 / 100, 1 - N53:N53 / 100)), 2)
         ),
     "")</f>
-        <v>88.25</v>
+        <v/>
       </c>
       <c r="Y53" s="1" t="str" cm="1">
         <f t="array" ref="Y53">IF(
@@ -8730,54 +6790,22 @@
     </row>
     <row r="54" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="B54">
-        <v>309399</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="2">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="P54" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="22">
-        <v>0</v>
-      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="2"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
       <c r="S54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8788,9 +6816,9 @@
       </c>
       <c r="V54" s="33">
         <f t="shared" si="2"/>
-        <v>77.099999999999994</v>
-      </c>
-      <c r="X54" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1" t="str" cm="1">
         <f t="array" ref="X54">IF(
         AND(
             F54=0,
@@ -8802,7 +6830,7 @@
             ROUND((D54 * E54 * PRODUCT(1 - H54:H54 / 100, 1 - L54:L54 / 100, 1 - N54:N54 / 100)), 2)
         ),
     "")</f>
-        <v>77.099999999999994</v>
+        <v/>
       </c>
       <c r="Y54" s="1" t="str" cm="1">
         <f t="array" ref="Y54">IF(
@@ -8877,54 +6905,22 @@
     </row>
     <row r="55" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55">
-        <v>309399</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="2">
-        <v>67.05</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>67.05</v>
-      </c>
-      <c r="P55" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="22">
-        <v>0</v>
-      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55" s="2"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
       <c r="S55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8935,9 +6931,9 @@
       </c>
       <c r="V55" s="33">
         <f t="shared" si="2"/>
-        <v>67.05</v>
-      </c>
-      <c r="X55" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1" t="str" cm="1">
         <f t="array" ref="X55">IF(
         AND(
             F55=0,
@@ -8949,7 +6945,7 @@
             ROUND((D55 * E55 * PRODUCT(1 - H55:H55 / 100, 1 - L55:L55 / 100, 1 - N55:N55 / 100)), 2)
         ),
     "")</f>
-        <v>67.05</v>
+        <v/>
       </c>
       <c r="Y55" s="1" t="str" cm="1">
         <f t="array" ref="Y55">IF(
@@ -9024,54 +7020,22 @@
     </row>
     <row r="56" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="B56">
-        <v>309399</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="2">
-        <v>150</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>150</v>
-      </c>
-      <c r="P56" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="22">
-        <v>0</v>
-      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56" s="2"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
       <c r="S56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9082,9 +7046,9 @@
       </c>
       <c r="V56" s="33">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="X56" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1" t="str" cm="1">
         <f t="array" ref="X56">IF(
         AND(
             F56=0,
@@ -9096,7 +7060,7 @@
             ROUND((D56 * E56 * PRODUCT(1 - H56:H56 / 100, 1 - L56:L56 / 100, 1 - N56:N56 / 100)), 2)
         ),
     "")</f>
-        <v>150</v>
+        <v/>
       </c>
       <c r="Y56" s="1" t="str" cm="1">
         <f t="array" ref="Y56">IF(
@@ -9171,54 +7135,22 @@
     </row>
     <row r="57" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="B57">
-        <v>309399</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="2">
-        <v>284.55</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>284.55</v>
-      </c>
-      <c r="P57" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="22">
-        <v>0</v>
-      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57" s="2"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
       <c r="S57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9229,9 +7161,9 @@
       </c>
       <c r="V57" s="33">
         <f t="shared" si="2"/>
-        <v>284.55</v>
-      </c>
-      <c r="X57" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1" t="str" cm="1">
         <f t="array" ref="X57">IF(
         AND(
             F57=0,
@@ -9243,7 +7175,7 @@
             ROUND((D57 * E57 * PRODUCT(1 - H57:H57 / 100, 1 - L57:L57 / 100, 1 - N57:N57 / 100)), 2)
         ),
     "")</f>
-        <v>284.55</v>
+        <v/>
       </c>
       <c r="Y57" s="1" t="str" cm="1">
         <f t="array" ref="Y57">IF(
@@ -9318,54 +7250,22 @@
     </row>
     <row r="58" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58">
-        <v>309399</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="2">
-        <v>14.3</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>85.8</v>
-      </c>
-      <c r="P58" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="22">
-        <v>0</v>
-      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58" s="2"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
       <c r="S58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9376,9 +7276,9 @@
       </c>
       <c r="V58" s="33">
         <f t="shared" si="2"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="X58" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1" t="str" cm="1">
         <f t="array" ref="X58">IF(
         AND(
             F58=0,
@@ -9390,7 +7290,7 @@
             ROUND((D58 * E58 * PRODUCT(1 - H58:H58 / 100, 1 - L58:L58 / 100, 1 - N58:N58 / 100)), 2)
         ),
     "")</f>
-        <v>85.8</v>
+        <v/>
       </c>
       <c r="Y58" s="1" t="str" cm="1">
         <f t="array" ref="Y58">IF(
@@ -9465,54 +7365,22 @@
     </row>
     <row r="59" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
-      <c r="B59">
-        <v>309399</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="2">
-        <v>139.85</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>139.85</v>
-      </c>
-      <c r="P59" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="22">
-        <v>0</v>
-      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" s="2"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
       <c r="S59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9523,9 +7391,9 @@
       </c>
       <c r="V59" s="33">
         <f t="shared" si="2"/>
-        <v>139.85</v>
-      </c>
-      <c r="X59" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1" t="str" cm="1">
         <f t="array" ref="X59">IF(
         AND(
             F59=0,
@@ -9537,7 +7405,7 @@
             ROUND((D59 * E59 * PRODUCT(1 - H59:H59 / 100, 1 - L59:L59 / 100, 1 - N59:N59 / 100)), 2)
         ),
     "")</f>
-        <v>139.85</v>
+        <v/>
       </c>
       <c r="Y59" s="1" t="str" cm="1">
         <f t="array" ref="Y59">IF(
@@ -9612,54 +7480,22 @@
     </row>
     <row r="60" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
-      <c r="B60">
-        <v>309399</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="2">
-        <v>21.15</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <v>126.9</v>
-      </c>
-      <c r="P60" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="22">
-        <v>0</v>
-      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="2"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
       <c r="S60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9670,9 +7506,9 @@
       </c>
       <c r="V60" s="33">
         <f t="shared" si="2"/>
-        <v>126.89999999999999</v>
-      </c>
-      <c r="X60" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1" t="str" cm="1">
         <f t="array" ref="X60">IF(
         AND(
             F60=0,
@@ -9684,7 +7520,7 @@
             ROUND((D60 * E60 * PRODUCT(1 - H60:H60 / 100, 1 - L60:L60 / 100, 1 - N60:N60 / 100)), 2)
         ),
     "")</f>
-        <v>126.9</v>
+        <v/>
       </c>
       <c r="Y60" s="1" t="str" cm="1">
         <f t="array" ref="Y60">IF(
@@ -9759,54 +7595,22 @@
     </row>
     <row r="61" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
-      <c r="B61">
-        <v>309399</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="2">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="P61" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="22">
-        <v>0</v>
-      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61" s="2"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
       <c r="S61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9817,9 +7621,9 @@
       </c>
       <c r="V61" s="33">
         <f t="shared" si="2"/>
-        <v>78.599999999999994</v>
-      </c>
-      <c r="X61" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1" t="str" cm="1">
         <f t="array" ref="X61">IF(
         AND(
             F61=0,
@@ -9831,7 +7635,7 @@
             ROUND((D61 * E61 * PRODUCT(1 - H61:H61 / 100, 1 - L61:L61 / 100, 1 - N61:N61 / 100)), 2)
         ),
     "")</f>
-        <v>78.599999999999994</v>
+        <v/>
       </c>
       <c r="Y61" s="1" t="str" cm="1">
         <f t="array" ref="Y61">IF(
@@ -9906,54 +7710,22 @@
     </row>
     <row r="62" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
-      <c r="B62">
-        <v>309399</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="2">
-        <v>35.75</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2">
-        <v>35.75</v>
-      </c>
-      <c r="P62" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="22">
-        <v>0</v>
-      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" s="2"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
       <c r="S62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -9964,9 +7736,9 @@
       </c>
       <c r="V62" s="33">
         <f t="shared" si="2"/>
-        <v>35.75</v>
-      </c>
-      <c r="X62" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1" t="str" cm="1">
         <f t="array" ref="X62">IF(
         AND(
             F62=0,
@@ -9978,7 +7750,7 @@
             ROUND((D62 * E62 * PRODUCT(1 - H62:H62 / 100, 1 - L62:L62 / 100, 1 - N62:N62 / 100)), 2)
         ),
     "")</f>
-        <v>35.75</v>
+        <v/>
       </c>
       <c r="Y62" s="1" t="str" cm="1">
         <f t="array" ref="Y62">IF(
@@ -10053,54 +7825,22 @@
     </row>
     <row r="63" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
-      <c r="B63">
-        <v>309399</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="P63" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="22">
-        <v>0</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63" s="2"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
       <c r="S63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -10111,9 +7851,9 @@
       </c>
       <c r="V63" s="33">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="X63" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1" t="str" cm="1">
         <f t="array" ref="X63">IF(
         AND(
             F63=0,
@@ -10125,7 +7865,7 @@
             ROUND((D63 * E63 * PRODUCT(1 - H63:H63 / 100, 1 - L63:L63 / 100, 1 - N63:N63 / 100)), 2)
         ),
     "")</f>
-        <v>12.5</v>
+        <v/>
       </c>
       <c r="Y63" s="1" t="str" cm="1">
         <f t="array" ref="Y63">IF(
@@ -10200,54 +7940,22 @@
     </row>
     <row r="64" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
-      <c r="B64">
-        <v>309399</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="2">
-        <v>14.25</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>85.5</v>
-      </c>
-      <c r="P64" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="22">
-        <v>0</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64" s="2"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
       <c r="S64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -10258,9 +7966,9 @@
       </c>
       <c r="V64" s="33">
         <f t="shared" si="2"/>
-        <v>85.5</v>
-      </c>
-      <c r="X64" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1" t="str" cm="1">
         <f t="array" ref="X64">IF(
         AND(
             F64=0,
@@ -10272,7 +7980,7 @@
             ROUND((D64 * E64 * PRODUCT(1 - H64:H64 / 100, 1 - L64:L64 / 100, 1 - N64:N64 / 100)), 2)
         ),
     "")</f>
-        <v>85.5</v>
+        <v/>
       </c>
       <c r="Y64" s="1" t="str" cm="1">
         <f t="array" ref="Y64">IF(
@@ -10347,54 +8055,22 @@
     </row>
     <row r="65" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
-      <c r="B65">
-        <v>309399</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="2">
-        <v>57</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65" s="2">
-        <v>57</v>
-      </c>
-      <c r="P65" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="22">
-        <v>0</v>
-      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65" s="2"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
       <c r="S65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -10405,9 +8081,9 @@
       </c>
       <c r="V65" s="33">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="X65" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1" t="str" cm="1">
         <f t="array" ref="X65">IF(
         AND(
             F65=0,
@@ -10419,7 +8095,7 @@
             ROUND((D65 * E65 * PRODUCT(1 - H65:H65 / 100, 1 - L65:L65 / 100, 1 - N65:N65 / 100)), 2)
         ),
     "")</f>
-        <v>57</v>
+        <v/>
       </c>
       <c r="Y65" s="1" t="str" cm="1">
         <f t="array" ref="Y65">IF(
@@ -10494,54 +8170,22 @@
     </row>
     <row r="66" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
-      <c r="B66">
-        <v>309399</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="2">
-        <v>88.25</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66" s="2">
-        <v>88.25</v>
-      </c>
-      <c r="P66" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="22">
-        <v>0</v>
-      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66" s="2"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
       <c r="S66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -10552,9 +8196,9 @@
       </c>
       <c r="V66" s="33">
         <f t="shared" si="2"/>
-        <v>88.25</v>
-      </c>
-      <c r="X66" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1" t="str" cm="1">
         <f t="array" ref="X66">IF(
         AND(
             F66=0,
@@ -10566,7 +8210,7 @@
             ROUND((D66 * E66 * PRODUCT(1 - H66:H66 / 100, 1 - L66:L66 / 100, 1 - N66:N66 / 100)), 2)
         ),
     "")</f>
-        <v>88.25</v>
+        <v/>
       </c>
       <c r="Y66" s="1" t="str" cm="1">
         <f t="array" ref="Y66">IF(
@@ -10641,100 +8285,85 @@
     </row>
     <row r="67" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
-      <c r="B67">
-        <v>309399</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="P67" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="22">
-        <v>0</v>
-      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67" s="2"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
       <c r="S67" s="8" t="str">
         <f t="shared" ref="S67:S130" si="3">IF(OR(P67=0,P67=1),
 IF(AND(O67=V67, Q67=U67), "=","NOT EQUAL"), "VOIDED")</f>
         <v>=</v>
       </c>
       <c r="U67" s="33">
-        <f t="shared" ref="U67:U130" si="4">IF(G67&gt;0,
-Q67,
-IF(H67&gt;0,(D67*E67)*(H67/100),
-IF(OR(I67=5,J67=5),(D67*E67)*((I67/100)+(J67/100)),
-IF(AND(OR(I67&gt;5,J67&gt;5,K67&gt;0,M67&gt;0),F67=0),((D67*E67)/1.12)*((I67/100)+(J67/100)+(K67/100)+(M67/100)),
-IF(OR(L67&gt;0,N67&gt;0),(D67*E67)*((L67/100)+(N67/100)), 0)))))</f>
+        <f t="shared" ref="U67:U130" si="4">IF(
+            OR(P67=0, P67=1),
+            IF(G67&gt;0,
+                Q67,
+                IF(
+                    H67&gt;0,(D67*E67)*(H67/100),
+                    IF(OR(I67=5,J67=5),(D67*E67)*((I67/100)+(J67/100)),
+                        IF(AND(OR(I67&gt;5,J67&gt;5,K67&gt;0,M67&gt;0),F67=0),
+                            ((D67*E67)/1.12)*((I67/100)+(J67/100)+(K67/100)+(M67/100)),
+                            IF(OR(L67&gt;0,N67&gt;0),
+                                (D67*E67)*((L67/100)+(N67/100)),
+                                0
+                            )
+                        )
+                    )
+                )
+            ),
+            0
+        )</f>
         <v>0</v>
       </c>
       <c r="V67" s="33">
         <f t="shared" ref="V67:V130" si="5">IF(
-  OR(G67&gt;0, H67&gt;0),
-  D67 * E67 - IF(G67&gt;0, Q67, D67 * E67 * H67 / 100),
-  IF(
-    COUNTA(I67:N67)=0,
-    D67 * E67,
-    IF(
-      AND(
-        F67=0,
-        OR(I67=20, J67=20, M67=20)
-      ),
-      (D67 * E67) / 1.12 *
-      (1 - I67 / 100) *
-      (1 - J67 / 100) *
-      (1 - K67 / 100) *
-      (1 - L67 / 100) *
-      (1 - M67 / 100) *
-      (1 - N67 / 100),
-      D67 * E67 *
-      (1 - I67 / 100) *
-      (1 - J67 / 100) *
-      (1 - K67 / 100) *
-      (1 - L67 / 100) *
-      (1 - M67 / 100) *
-      (1 - N67 / 100)
-    )
-  )
-)</f>
-        <v>29.1</v>
-      </c>
-      <c r="X67" s="1" cm="1">
+            OR(P67=0, P67=1),
+            IF(
+                OR(G67&gt;0, H67&gt;0),
+                D67 * E67 - IF(G67&gt;0, Q67, D67 * E67 * H67 / 100),
+                IF(
+                    COUNTA(I67:N67)=0,
+                    D67 * E67,
+                    IF(
+                    AND(
+                        F67=0,
+                        OR(I67=20, J67=20, M67=20)
+                    ),
+                    (D67 * E67) / 1.12 *
+                    (1 - I67 / 100) *
+                    (1 - J67 / 100) *
+                    (1 - K67 / 100) *
+                    (1 - L67 / 100) *
+                    (1 - M67 / 100) *
+                    (1 - N67 / 100),
+                    D67 * E67 *
+                    (1 - I67 / 100) *
+                    (1 - J67 / 100) *
+                    (1 - K67 / 100) *
+                    (1 - L67 / 100) *
+                    (1 - M67 / 100) *
+                    (1 - N67 / 100)
+                    )
+                )
+            ),
+            0
+        )</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="1" t="str" cm="1">
         <f t="array" ref="X67">IF(
         AND(
             F67=0,
@@ -10746,7 +8375,7 @@
             ROUND((D67 * E67 * PRODUCT(1 - H67:H67 / 100, 1 - L67:L67 / 100, 1 - N67:N67 / 100)), 2)
         ),
     "")</f>
-        <v>29.1</v>
+        <v/>
       </c>
       <c r="Y67" s="1" t="str" cm="1">
         <f t="array" ref="Y67">IF(
@@ -10821,54 +8450,22 @@
     </row>
     <row r="68" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
-      <c r="B68">
-        <v>309399</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="2">
-        <v>16.95</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68" s="2">
-        <v>16.95</v>
-      </c>
-      <c r="P68" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="22">
-        <v>0</v>
-      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68" s="2"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
       <c r="S68" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10879,9 +8476,9 @@
       </c>
       <c r="V68" s="33">
         <f t="shared" si="5"/>
-        <v>16.95</v>
-      </c>
-      <c r="X68" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1" t="str" cm="1">
         <f t="array" ref="X68">IF(
         AND(
             F68=0,
@@ -10893,7 +8490,7 @@
             ROUND((D68 * E68 * PRODUCT(1 - H68:H68 / 100, 1 - L68:L68 / 100, 1 - N68:N68 / 100)), 2)
         ),
     "")</f>
-        <v>16.95</v>
+        <v/>
       </c>
       <c r="Y68" s="1" t="str" cm="1">
         <f t="array" ref="Y68">IF(
@@ -10968,54 +8565,22 @@
     </row>
     <row r="69" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
-      <c r="B69">
-        <v>309399</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" s="2">
-        <v>58.5</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" s="2">
-        <v>58.5</v>
-      </c>
-      <c r="P69" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="22">
-        <v>0</v>
-      </c>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69" s="2"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
       <c r="S69" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11026,9 +8591,9 @@
       </c>
       <c r="V69" s="33">
         <f t="shared" si="5"/>
-        <v>58.5</v>
-      </c>
-      <c r="X69" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1" t="str" cm="1">
         <f t="array" ref="X69">IF(
         AND(
             F69=0,
@@ -11040,7 +8605,7 @@
             ROUND((D69 * E69 * PRODUCT(1 - H69:H69 / 100, 1 - L69:L69 / 100, 1 - N69:N69 / 100)), 2)
         ),
     "")</f>
-        <v>58.5</v>
+        <v/>
       </c>
       <c r="Y69" s="1" t="str" cm="1">
         <f t="array" ref="Y69">IF(
@@ -11115,54 +8680,22 @@
     </row>
     <row r="70" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
-      <c r="B70">
-        <v>309399</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="2">
-        <v>16.95</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70" s="2">
-        <v>16.95</v>
-      </c>
-      <c r="P70" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="22">
-        <v>0</v>
-      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70" s="2"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
       <c r="S70" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11173,9 +8706,9 @@
       </c>
       <c r="V70" s="33">
         <f t="shared" si="5"/>
-        <v>16.95</v>
-      </c>
-      <c r="X70" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1" t="str" cm="1">
         <f t="array" ref="X70">IF(
         AND(
             F70=0,
@@ -11187,7 +8720,7 @@
             ROUND((D70 * E70 * PRODUCT(1 - H70:H70 / 100, 1 - L70:L70 / 100, 1 - N70:N70 / 100)), 2)
         ),
     "")</f>
-        <v>16.95</v>
+        <v/>
       </c>
       <c r="Y70" s="1" t="str" cm="1">
         <f t="array" ref="Y70">IF(
@@ -11262,54 +8795,22 @@
     </row>
     <row r="71" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
-      <c r="B71">
-        <v>309399</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="2">
-        <v>13.25</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71" s="2">
-        <v>79.5</v>
-      </c>
-      <c r="P71" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="22">
-        <v>0</v>
-      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71" s="2"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
       <c r="S71" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11320,9 +8821,9 @@
       </c>
       <c r="V71" s="33">
         <f t="shared" si="5"/>
-        <v>79.5</v>
-      </c>
-      <c r="X71" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1" t="str" cm="1">
         <f t="array" ref="X71">IF(
         AND(
             F71=0,
@@ -11334,7 +8835,7 @@
             ROUND((D71 * E71 * PRODUCT(1 - H71:H71 / 100, 1 - L71:L71 / 100, 1 - N71:N71 / 100)), 2)
         ),
     "")</f>
-        <v>79.5</v>
+        <v/>
       </c>
       <c r="Y71" s="1" t="str" cm="1">
         <f t="array" ref="Y71">IF(
@@ -11409,54 +8910,22 @@
     </row>
     <row r="72" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
-      <c r="B72">
-        <v>309399</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E72">
-        <v>6</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" s="2">
-        <v>33</v>
-      </c>
-      <c r="P72" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="22">
-        <v>0</v>
-      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72" s="2"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
       <c r="S72" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11467,9 +8936,9 @@
       </c>
       <c r="V72" s="33">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="X72" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1" t="str" cm="1">
         <f t="array" ref="X72">IF(
         AND(
             F72=0,
@@ -11481,7 +8950,7 @@
             ROUND((D72 * E72 * PRODUCT(1 - H72:H72 / 100, 1 - L72:L72 / 100, 1 - N72:N72 / 100)), 2)
         ),
     "")</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="Y72" s="1" t="str" cm="1">
         <f t="array" ref="Y72">IF(
@@ -11556,54 +9025,22 @@
     </row>
     <row r="73" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
-      <c r="B73">
-        <v>309399</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" s="2">
-        <v>33</v>
-      </c>
-      <c r="P73" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="22">
-        <v>0</v>
-      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73" s="2"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
       <c r="S73" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11614,9 +9051,9 @@
       </c>
       <c r="V73" s="33">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="X73" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1" t="str" cm="1">
         <f t="array" ref="X73">IF(
         AND(
             F73=0,
@@ -11628,7 +9065,7 @@
             ROUND((D73 * E73 * PRODUCT(1 - H73:H73 / 100, 1 - L73:L73 / 100, 1 - N73:N73 / 100)), 2)
         ),
     "")</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="Y73" s="1" t="str" cm="1">
         <f t="array" ref="Y73">IF(
@@ -18280,43 +15717,60 @@
         <v>=</v>
       </c>
       <c r="U131" s="33">
-        <f t="shared" ref="U131:U134" si="7">IF(G131&gt;0,
-Q131,
-IF(H131&gt;0,(D131*E131)*(H131/100),
-IF(OR(I131=5,J131=5),(D131*E131)*((I131/100)+(J131/100)),
-IF(AND(OR(I131&gt;5,J131&gt;5,K131&gt;0,M131&gt;0),F131=0),((D131*E131)/1.12)*((I131/100)+(J131/100)+(K131/100)+(M131/100)),
-IF(OR(L131&gt;0,N131&gt;0),(D131*E131)*((L131/100)+(N131/100)), 0)))))</f>
+        <f t="shared" ref="U131:U134" si="7">IF(
+            OR(P131=0, P131=1),
+            IF(G131&gt;0,
+                Q131,
+                IF(
+                    H131&gt;0,(D131*E131)*(H131/100),
+                    IF(OR(I131=5,J131=5),(D131*E131)*((I131/100)+(J131/100)),
+                        IF(AND(OR(I131&gt;5,J131&gt;5,K131&gt;0,M131&gt;0),F131=0),
+                            ((D131*E131)/1.12)*((I131/100)+(J131/100)+(K131/100)+(M131/100)),
+                            IF(OR(L131&gt;0,N131&gt;0),
+                                (D131*E131)*((L131/100)+(N131/100)),
+                                0
+                            )
+                        )
+                    )
+                )
+            ),
+            0
+        )</f>
         <v>0</v>
       </c>
       <c r="V131" s="33">
         <f t="shared" ref="V131:V134" si="8">IF(
-  OR(G131&gt;0, H131&gt;0),
-  D131 * E131 - IF(G131&gt;0, Q131, D131 * E131 * H131 / 100),
-  IF(
-    COUNTA(I131:N131)=0,
-    D131 * E131,
-    IF(
-      AND(
-        F131=0,
-        OR(I131=20, J131=20, M131=20)
-      ),
-      (D131 * E131) / 1.12 *
-      (1 - I131 / 100) *
-      (1 - J131 / 100) *
-      (1 - K131 / 100) *
-      (1 - L131 / 100) *
-      (1 - M131 / 100) *
-      (1 - N131 / 100),
-      D131 * E131 *
-      (1 - I131 / 100) *
-      (1 - J131 / 100) *
-      (1 - K131 / 100) *
-      (1 - L131 / 100) *
-      (1 - M131 / 100) *
-      (1 - N131 / 100)
-    )
-  )
-)</f>
+            OR(P131=0, P131=1),
+            IF(
+                OR(G131&gt;0, H131&gt;0),
+                D131 * E131 - IF(G131&gt;0, Q131, D131 * E131 * H131 / 100),
+                IF(
+                    COUNTA(I131:N131)=0,
+                    D131 * E131,
+                    IF(
+                    AND(
+                        F131=0,
+                        OR(I131=20, J131=20, M131=20)
+                    ),
+                    (D131 * E131) / 1.12 *
+                    (1 - I131 / 100) *
+                    (1 - J131 / 100) *
+                    (1 - K131 / 100) *
+                    (1 - L131 / 100) *
+                    (1 - M131 / 100) *
+                    (1 - N131 / 100),
+                    D131 * E131 *
+                    (1 - I131 / 100) *
+                    (1 - J131 / 100) *
+                    (1 - K131 / 100) *
+                    (1 - L131 / 100) *
+                    (1 - M131 / 100) *
+                    (1 - N131 / 100)
+                    )
+                )
+            ),
+            0
+        )</f>
         <v>0</v>
       </c>
       <c r="X131" s="1" t="str" cm="1">
@@ -18757,18 +16211,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00988E51-10CD-4DAD-9A34-B044E97383F6}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
@@ -18814,8 +16269,17 @@
       <c r="O1" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>311359</v>
       </c>
@@ -18858,8 +16322,17 @@
       <c r="O2" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>311359</v>
       </c>
@@ -18902,8 +16375,17 @@
       <c r="O3" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>311359</v>
       </c>
@@ -18946,8 +16428,17 @@
       <c r="O4" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>311359</v>
       </c>
@@ -18990,69 +16481,458 @@
       <c r="O5" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>84</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>94</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>110</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>124</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>112</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>113</v>
+      </c>
+      <c r="R33" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>114</v>
+      </c>
+      <c r="R34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>117</v>
+      </c>
+      <c r="R37" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R38" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>119</v>
+      </c>
+      <c r="R39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>122</v>
+      </c>
+      <c r="R42" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>123</v>
+      </c>
+      <c r="R43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Tax Checker.xlsx
+++ b/Documents/Tax Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\My Files\My-WorkFiles-Backup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0630E60-F955-45B0-BC43-AF0C400C0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6E20D-9601-4EC5-8889-0BC2DA870314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47E34C20-F3B6-4417-B647-E842E10E84EB}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="134">
   <si>
     <t>frecno</t>
   </si>
@@ -334,12 +334,6 @@
     <t>total_discount</t>
   </si>
   <si>
-    <t>P00091765</t>
-  </si>
-  <si>
-    <t>P7622300501525</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -451,16 +445,31 @@
     <t>fextprice</t>
   </si>
   <si>
-    <t>P00091769</t>
+    <t>CHOICE1</t>
   </si>
   <si>
-    <t>P00132666</t>
+    <t>MLIK99</t>
   </si>
   <si>
-    <t>P00107029</t>
+    <t>CHOICE49</t>
   </si>
   <si>
-    <t>MG762398</t>
+    <t>COMPLIMENTARY</t>
+  </si>
+  <si>
+    <t>FREE1</t>
+  </si>
+  <si>
+    <t>MLIK32</t>
+  </si>
+  <si>
+    <t>MLIK27</t>
+  </si>
+  <si>
+    <t>MLIK75</t>
+  </si>
+  <si>
+    <t>total SC discount</t>
   </si>
 </sst>
 </file>
@@ -926,24 +935,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4F2DD-03B4-4EB2-B799-B7EBE31253DA}">
   <dimension ref="A1:AR134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomLeft" activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="22" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="22" customWidth="1"/>
+    <col min="10" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="4" customWidth="1"/>
     <col min="19" max="19" width="11.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="1.7109375" style="4" customWidth="1"/>
@@ -1016,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -1045,10 +1051,8 @@
       <c r="M1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="13" t="s">
@@ -1112,51 +1116,48 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>311113</v>
+        <v>35710</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>54</v>
-      </c>
-      <c r="P2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="22">
+      <c r="Q2">
         <v>0</v>
       </c>
       <c r="S2" s="8" t="str">
@@ -1166,7 +1167,10 @@
       </c>
       <c r="U2" s="33">
         <f>IF(
-            OR(P2=0, P2=1),
+            AND(
+                OR(P2=0, P2=1),
+                O2&lt;&gt;0
+            ),
             IF(G2&gt;0,
                 Q2,
                 IF(
@@ -1188,7 +1192,10 @@
       </c>
       <c r="V2" s="33">
         <f>IF(
-            OR(P2=0, P2=1),
+            AND(
+                OR(P2=0, P2=1),
+                O2&lt;&gt;0
+            ),
             IF(
                 OR(G2&gt;0, H2&gt;0),
                 D2 * E2 - IF(G2&gt;0, Q2, D2 * E2 * H2 / 100),
@@ -1219,9 +1226,9 @@
             ),
             0
         )</f>
-        <v>54</v>
-      </c>
-      <c r="X2" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="str" cm="1">
         <f t="array" ref="X2">IF(
         AND(
             F2=0,
@@ -1233,7 +1240,7 @@
             ROUND((D2 * E2 * PRODUCT(1 - H2:H2 / 100, 1 - L2:L2 / 100, 1 - N2:N2 / 100)), 2)
         ),
     "")</f>
-        <v>54</v>
+        <v/>
       </c>
       <c r="Y2" s="1" t="str" cm="1">
         <f t="array" ref="Y2">IF(
@@ -1320,33 +1327,33 @@
             / 1.12 + AK18
         )
     ), 4)</f>
-        <v>0</v>
+        <v>802.67859999999996</v>
       </c>
       <c r="AP2" s="6">
         <f>AK24
     / AE3
     * (AE3 - AE6 -  AE9 - AE12 - AE15 - AE18 - AE21)
     - (AK3*(AG3/100))</f>
-        <v>276</v>
+        <v>899</v>
       </c>
       <c r="AQ2" s="7">
         <f>AP2 / 1.12 * 0.12</f>
-        <v>29.571428571428569</v>
+        <v>96.321428571428555</v>
       </c>
       <c r="AR2" s="18"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>311113</v>
+        <v>35710</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1372,16 +1379,13 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>23</v>
-      </c>
-      <c r="P3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="22">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
       <c r="S3" s="8" t="str">
@@ -1391,7 +1395,10 @@
       </c>
       <c r="U3" s="33">
         <f t="shared" ref="U3:U66" si="1">IF(
-            OR(P3=0, P3=1),
+            AND(
+                OR(P3=0, P3=1),
+                O3&lt;&gt;0
+            ),
             IF(G3&gt;0,
                 Q3,
                 IF(
@@ -1413,7 +1420,10 @@
       </c>
       <c r="V3" s="33">
         <f t="shared" ref="V3:V66" si="2">IF(
-            OR(P3=0, P3=1),
+            AND(
+                OR(P3=0, P3=1),
+                O3&lt;&gt;0
+            ),
             IF(
                 OR(G3&gt;0, H3&gt;0),
                 D3 * E3 - IF(G3&gt;0, Q3, D3 * E3 * H3 / 100),
@@ -1444,9 +1454,9 @@
             ),
             0
         )</f>
-        <v>23</v>
-      </c>
-      <c r="X3" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="str" cm="1">
         <f t="array" ref="X3">IF(
         AND(
             F3=0,
@@ -1458,7 +1468,7 @@
             ROUND((D3 * E3 * PRODUCT(1 - H3:H3 / 100, 1 - L3:L3 / 100, 1 - N3:N3 / 100)), 2)
         ),
     "")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="Y3" s="1" t="str" cm="1">
         <f t="array" ref="Y3">IF(
@@ -1517,14 +1527,14 @@
         <v/>
       </c>
       <c r="AE3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="12">
         <v>0</v>
       </c>
       <c r="AK3" s="5">
         <f>SUM(V:V)</f>
-        <v>276</v>
+        <v>1798</v>
       </c>
       <c r="AL3" s="18"/>
       <c r="AM3" s="18"/>
@@ -1536,13 +1546,13 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>311113</v>
+        <v>35710</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>488</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1571,16 +1581,13 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>10</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
+      <c r="O4">
+        <v>488</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
       <c r="S4" s="8" t="str">
@@ -1593,7 +1600,7 @@
       </c>
       <c r="V4" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>488</v>
       </c>
       <c r="X4" s="1" cm="1">
         <f t="array" ref="X4">IF(
@@ -1607,7 +1614,7 @@
             ROUND((D4 * E4 * PRODUCT(1 - H4:H4 / 100, 1 - L4:L4 / 100, 1 - N4:N4 / 100)), 2)
         ),
     "")</f>
-        <v>10</v>
+        <v>488</v>
       </c>
       <c r="Y4" s="1" t="str" cm="1">
         <f t="array" ref="Y4">IF(
@@ -1673,26 +1680,26 @@
   ),
   2
 )</f>
-        <v>0</v>
+        <v>802.68</v>
       </c>
       <c r="AP4" s="3">
         <f>AK24 / AE3 * (AE3 - AE6)</f>
-        <v>276</v>
+        <v>899</v>
       </c>
       <c r="AQ4" s="3">
         <f>ROUND(AP2 / 1.12 * 0.12, 2)</f>
-        <v>29.57</v>
+        <v>96.32</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>311113</v>
+        <v>35710</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2">
-        <v>29.6</v>
+        <v>488</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1721,16 +1728,13 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>29.6</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
       <c r="S5" s="8" t="str">
@@ -1743,9 +1747,9 @@
       </c>
       <c r="V5" s="33">
         <f t="shared" si="2"/>
-        <v>29.6</v>
-      </c>
-      <c r="X5" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="str" cm="1">
         <f t="array" ref="X5">IF(
         AND(
             F5=0,
@@ -1757,7 +1761,7 @@
             ROUND((D5 * E5 * PRODUCT(1 - H5:H5 / 100, 1 - L5:L5 / 100, 1 - N5:N5 / 100)), 2)
         ),
     "")</f>
-        <v>29.6</v>
+        <v/>
       </c>
       <c r="Y5" s="1" t="str" cm="1">
         <f t="array" ref="Y5">IF(
@@ -1826,18 +1830,18 @@
       </c>
       <c r="AP5" s="3">
         <f>(AK24)/AE3*(AE3-AE6-AE9-AE12-AE15-AE18-AE21)</f>
-        <v>276</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>311113</v>
+        <v>35710</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2">
-        <v>159.4</v>
+        <v>645</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1866,21 +1870,18 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>159.4</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="O6">
+        <v>645</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
       <c r="S6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>VOIDED</v>
+        <v>=</v>
       </c>
       <c r="U6" s="33">
         <f t="shared" si="1"/>
@@ -1888,9 +1889,9 @@
       </c>
       <c r="V6" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="str" cm="1">
+        <v>645</v>
+      </c>
+      <c r="X6" s="1" cm="1">
         <f t="array" ref="X6">IF(
         AND(
             F6=0,
@@ -1902,7 +1903,7 @@
             ROUND((D6 * E6 * PRODUCT(1 - H6:H6 / 100, 1 - L6:L6 / 100, 1 - N6:N6 / 100)), 2)
         ),
     "")</f>
-        <v/>
+        <v>645</v>
       </c>
       <c r="Y6" s="1" t="str" cm="1">
         <f t="array" ref="Y6">IF(
@@ -1961,33 +1962,33 @@
         <v/>
       </c>
       <c r="AE6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="12">
         <v>20</v>
       </c>
       <c r="AK6" s="5">
         <f xml:space="preserve"> (SUM(X:X))</f>
-        <v>276</v>
+        <v>1798</v>
       </c>
       <c r="AO6" s="2">
         <f>ROUND(((AE6=0)*AK18) + ((AE6&lt;&gt;0)*((AK6 + AK9) / AE3 * AE6 / 1.12 + AK18)), 2)</f>
-        <v>0</v>
+        <v>802.68</v>
       </c>
       <c r="AP6" s="3">
         <f>(AK24)/AE3*(AE3-AE6-AE9)</f>
-        <v>276</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>311113</v>
+        <v>35710</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2">
-        <v>159.4</v>
+        <v>645</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2016,16 +2017,13 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>159.4</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
       <c r="S7" s="8" t="str">
@@ -2038,9 +2036,9 @@
       </c>
       <c r="V7" s="33">
         <f t="shared" si="2"/>
-        <v>159.4</v>
-      </c>
-      <c r="X7" s="1" cm="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="str" cm="1">
         <f t="array" ref="X7">IF(
         AND(
             F7=0,
@@ -2052,7 +2050,7 @@
             ROUND((D7 * E7 * PRODUCT(1 - H7:H7 / 100, 1 - L7:L7 / 100, 1 - N7:N7 / 100)), 2)
         ),
     "")</f>
-        <v>159.4</v>
+        <v/>
       </c>
       <c r="Y7" s="1" t="str" cm="1">
         <f t="array" ref="Y7">IF(
@@ -2112,6 +2110,51 @@
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>35710</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="2">
+        <v>445</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>445</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
       <c r="S8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2122,9 +2165,9 @@
       </c>
       <c r="V8" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="str" cm="1">
+        <v>445</v>
+      </c>
+      <c r="X8" s="1" cm="1">
         <f t="array" ref="X8">IF(
         AND(
             F8=0,
@@ -2136,7 +2179,7 @@
             ROUND((D8 * E8 * PRODUCT(1 - H8:H8 / 100, 1 - L8:L8 / 100, 1 - N8:N8 / 100)), 2)
         ),
     "")</f>
-        <v/>
+        <v>445</v>
       </c>
       <c r="Y8" s="1" t="str" cm="1">
         <f t="array" ref="Y8">IF(
@@ -2208,10 +2251,55 @@
      IF((AE6+AE9)=0,
      AK18,
      ((AK6 + AK9) / AE3 *( AE6 + AE9) / 1.12 + AK18)), 2)</f>
-        <v>0</v>
+        <v>802.68</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>35710</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="2">
+        <v>445</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="S9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2307,6 +2395,51 @@
       <c r="AM9" s="3"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>35710</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="2">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>220</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
       <c r="S10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -2317,9 +2450,9 @@
       </c>
       <c r="V10" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="str" cm="1">
+        <v>220</v>
+      </c>
+      <c r="X10" s="1" cm="1">
         <f t="array" ref="X10">IF(
         AND(
             F10=0,
@@ -2331,7 +2464,7 @@
             ROUND((D10 * E10 * PRODUCT(1 - H10:H10 / 100, 1 - L10:L10 / 100, 1 - N10:N10 / 100)), 2)
         ),
     "")</f>
-        <v/>
+        <v>220</v>
       </c>
       <c r="Y10" s="1" t="str" cm="1">
         <f t="array" ref="Y10">IF(
@@ -2393,8 +2526,51 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="27"/>
+      <c r="B11">
+        <v>35710</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="27">
+        <v>110</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
       <c r="S11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -3687,7 +3863,7 @@
       </c>
       <c r="AK24" s="5">
         <f>AK6+AK9</f>
-        <v>276</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -3802,7 +3978,7 @@
         )
     ),
 "Voided")</f>
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -3980,7 +4156,7 @@
       </c>
       <c r="AK27" s="5">
         <f>AK6 / 1.12 * 0.12</f>
-        <v>29.571428571428569</v>
+        <v>192.64285714285711</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -4083,7 +4259,7 @@
         )
     ),
 "Voided")</f>
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -4517,7 +4693,7 @@
       </c>
       <c r="AK33" s="5">
         <f>(((AK3-(AK6/1.12*0.12)) * (AG6*0.01)) / AE3) * AE6</f>
-        <v>0</v>
+        <v>160.53571428571431</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -4605,7 +4781,7 @@
       </c>
       <c r="AK34" s="2">
         <f>(((AK3-(AK24/1.12*0.12)) * (AG6*0.01)) / AE3) * AE6</f>
-        <v>0</v>
+        <v>160.53571428571431</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -4710,9 +4886,9 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
       <c r="S36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4828,9 +5004,9 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
       <c r="S37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -4943,9 +5119,9 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
       <c r="S38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5060,9 +5236,9 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
       <c r="S39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5153,7 +5329,7 @@
       <c r="AJ39"/>
       <c r="AK39" s="5">
         <f>ROUND(((AE6=0)*AK18) + ((AE6&lt;&gt;0)*((AK6 + AK9) / AE3 * AE6 / 1.12 + AK18)) *0.12, 2)</f>
-        <v>0</v>
+        <v>96.32</v>
       </c>
       <c r="AL39" s="26"/>
       <c r="AM39"/>
@@ -5178,9 +5354,9 @@
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
       <c r="S40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5293,9 +5469,9 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
       <c r="S41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5410,9 +5586,9 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
       <c r="S42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5503,7 +5679,7 @@
       <c r="AJ42"/>
       <c r="AK42" s="5">
         <f xml:space="preserve"> (SUM(X:X)) - (SUM(X:X) / AE3 * AE6)</f>
-        <v>276</v>
+        <v>899</v>
       </c>
       <c r="AL42"/>
       <c r="AM42"/>
@@ -5528,9 +5704,9 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
       <c r="S43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5643,9 +5819,9 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
       <c r="S44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5760,9 +5936,9 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
       <c r="S45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5878,9 +6054,9 @@
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
       <c r="S46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -5993,9 +6169,9 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
       <c r="S47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6110,9 +6286,9 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
       <c r="S48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6203,7 +6379,7 @@
       <c r="AJ48"/>
       <c r="AK48" s="5" cm="1">
         <f t="array" ref="AK48">SUMPRODUCT((I2:I1048576&lt;&gt;"") * ((D2:D1048576 * E2:E1048576) - O2:O1048576))</f>
-        <v>0</v>
+        <v>1688</v>
       </c>
       <c r="AL48"/>
       <c r="AM48"/>
@@ -6228,9 +6404,9 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
       <c r="S49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6343,9 +6519,9 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
       <c r="S50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6434,7 +6610,9 @@
       <c r="AG50"/>
       <c r="AH50"/>
       <c r="AJ50"/>
-      <c r="AK50" s="2"/>
+      <c r="AK50" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AL50"/>
       <c r="AM50"/>
       <c r="AN50"/>
@@ -6458,9 +6636,9 @@
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
       <c r="S51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6549,7 +6727,10 @@
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AJ51"/>
-      <c r="AK51" s="2"/>
+      <c r="AK51" s="5">
+        <f>(AK6+AK9) / AE3 * AE6 / 1.12 * 0.2</f>
+        <v>160.53571428571428</v>
+      </c>
       <c r="AL51"/>
       <c r="AM51"/>
       <c r="AN51"/>
@@ -6573,9 +6754,9 @@
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
       <c r="S52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6688,9 +6869,9 @@
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
       <c r="S53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6803,9 +6984,9 @@
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
       <c r="S54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -6918,9 +7099,9 @@
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
       <c r="S55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7033,9 +7214,9 @@
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
       <c r="S56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7148,9 +7329,9 @@
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
       <c r="S57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7263,9 +7444,9 @@
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
       <c r="S58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7378,9 +7559,9 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
       <c r="S59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7493,9 +7674,9 @@
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
       <c r="S60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7608,9 +7789,9 @@
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
       <c r="S61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7723,9 +7904,9 @@
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
       <c r="S62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7838,9 +8019,9 @@
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
       <c r="S63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -7953,9 +8134,9 @@
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
       <c r="S64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8068,9 +8249,9 @@
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
       <c r="S65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8183,9 +8364,9 @@
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
       <c r="S66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
@@ -8298,9 +8479,9 @@
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
       <c r="S67" s="8" t="str">
         <f t="shared" ref="S67:S130" si="3">IF(OR(P67=0,P67=1),
 IF(AND(O67=V67, Q67=U67), "=","NOT EQUAL"), "VOIDED")</f>
@@ -8308,7 +8489,10 @@
       </c>
       <c r="U67" s="33">
         <f t="shared" ref="U67:U130" si="4">IF(
-            OR(P67=0, P67=1),
+            AND(
+                OR(P67=0, P67=1),
+                O67&lt;&gt;0
+            ),
             IF(G67&gt;0,
                 Q67,
                 IF(
@@ -8330,7 +8514,10 @@
       </c>
       <c r="V67" s="33">
         <f t="shared" ref="V67:V130" si="5">IF(
-            OR(P67=0, P67=1),
+            AND(
+                OR(P67=0, P67=1),
+                O67&lt;&gt;0
+            ),
             IF(
                 OR(G67&gt;0, H67&gt;0),
                 D67 * E67 - IF(G67&gt;0, Q67, D67 * E67 * H67 / 100),
@@ -8463,9 +8650,9 @@
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
       <c r="S68" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -8578,9 +8765,9 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
       <c r="S69" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -8693,9 +8880,9 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
       <c r="S70" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -8808,9 +8995,9 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
       <c r="S71" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -8923,9 +9110,9 @@
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
       <c r="S72" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9038,9 +9225,9 @@
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
       <c r="S73" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9153,9 +9340,9 @@
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
       <c r="S74" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9268,9 +9455,9 @@
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
       <c r="S75" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9383,9 +9570,9 @@
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
       <c r="S76" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9498,9 +9685,9 @@
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
       <c r="S77" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9613,9 +9800,9 @@
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
       <c r="S78" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9728,9 +9915,9 @@
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
       <c r="S79" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9843,9 +10030,9 @@
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
       <c r="S80" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -9958,9 +10145,9 @@
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
       <c r="S81" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10073,9 +10260,9 @@
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
       <c r="S82" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10188,9 +10375,9 @@
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
       <c r="S83" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10303,9 +10490,9 @@
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
       <c r="S84" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10418,9 +10605,9 @@
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
       <c r="S85" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10533,9 +10720,9 @@
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
       <c r="S86" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10648,9 +10835,9 @@
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
       <c r="S87" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10763,9 +10950,9 @@
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
       <c r="S88" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10878,9 +11065,9 @@
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
       <c r="S89" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -10993,9 +11180,9 @@
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
       <c r="S90" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11108,9 +11295,9 @@
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
       <c r="S91" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11223,9 +11410,9 @@
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
       <c r="S92" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11338,9 +11525,9 @@
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
       <c r="S93" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11453,9 +11640,9 @@
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
       <c r="S94" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11568,9 +11755,9 @@
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
       <c r="S95" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11683,9 +11870,9 @@
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
       <c r="S96" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11798,9 +11985,9 @@
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
       <c r="S97" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -11913,9 +12100,9 @@
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
       <c r="S98" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12028,9 +12215,9 @@
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
       <c r="S99" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12143,9 +12330,9 @@
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
       <c r="S100" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12258,9 +12445,9 @@
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
       <c r="S101" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12373,9 +12560,9 @@
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
       <c r="S102" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12488,9 +12675,9 @@
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
       <c r="S103" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12603,9 +12790,9 @@
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
       <c r="S104" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12718,9 +12905,9 @@
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
       <c r="S105" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12833,9 +13020,9 @@
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
       <c r="S106" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -12948,9 +13135,9 @@
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
       <c r="S107" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13063,9 +13250,9 @@
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
       <c r="S108" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13178,9 +13365,9 @@
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
       <c r="S109" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13293,9 +13480,9 @@
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
       <c r="S110" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13408,9 +13595,9 @@
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
       <c r="S111" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13523,9 +13710,9 @@
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
       <c r="S112" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13638,9 +13825,9 @@
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
       <c r="S113" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13753,9 +13940,9 @@
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
       <c r="S114" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13868,9 +14055,9 @@
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
       <c r="S115" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -13983,9 +14170,9 @@
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
       <c r="S116" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14098,9 +14285,9 @@
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
       <c r="S117" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14213,9 +14400,9 @@
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
       <c r="S118" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14328,9 +14515,9 @@
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
       <c r="S119" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14443,9 +14630,9 @@
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
       <c r="S120" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14558,9 +14745,9 @@
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="22"/>
-      <c r="Q121" s="22"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
       <c r="S121" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14673,9 +14860,9 @@
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
       <c r="S122" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14788,9 +14975,9 @@
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
       <c r="S123" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -14903,9 +15090,9 @@
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="22"/>
-      <c r="Q124" s="22"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
       <c r="S124" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15018,9 +15205,9 @@
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
       <c r="S125" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15133,9 +15320,9 @@
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
       <c r="S126" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15248,9 +15435,9 @@
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
       <c r="S127" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15363,9 +15550,9 @@
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
       <c r="S128" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15478,9 +15665,9 @@
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
       <c r="S129" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15593,9 +15780,9 @@
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="22"/>
-      <c r="Q130" s="22"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
       <c r="S130" s="8" t="str">
         <f t="shared" si="3"/>
         <v>=</v>
@@ -15708,9 +15895,9 @@
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="22"/>
-      <c r="Q131" s="22"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
       <c r="S131" s="8" t="str">
         <f t="shared" ref="S131:S134" si="6">IF(OR(P131=0,P131=1),
 IF(AND(O131=V131, Q131=U131), "=","NOT EQUAL"), "VOIDED")</f>
@@ -15718,7 +15905,10 @@
       </c>
       <c r="U131" s="33">
         <f t="shared" ref="U131:U134" si="7">IF(
-            OR(P131=0, P131=1),
+            AND(
+                OR(P131=0, P131=1),
+                O131&lt;&gt;0
+            ),
             IF(G131&gt;0,
                 Q131,
                 IF(
@@ -15740,7 +15930,10 @@
       </c>
       <c r="V131" s="33">
         <f t="shared" ref="V131:V134" si="8">IF(
-            OR(P131=0, P131=1),
+            AND(
+                OR(P131=0, P131=1),
+                O131&lt;&gt;0
+            ),
             IF(
                 OR(G131&gt;0, H131&gt;0),
                 D131 * E131 - IF(G131&gt;0, Q131, D131 * E131 * H131 / 100),
@@ -15873,9 +16066,9 @@
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="22"/>
-      <c r="Q132" s="22"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
       <c r="S132" s="8" t="str">
         <f t="shared" si="6"/>
         <v>=</v>
@@ -15988,9 +16181,9 @@
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="22"/>
-      <c r="Q133" s="22"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
       <c r="S133" s="8" t="str">
         <f t="shared" si="6"/>
         <v>=</v>
@@ -16103,9 +16296,9 @@
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
       <c r="S134" s="8" t="str">
         <f t="shared" si="6"/>
         <v>=</v>
@@ -16270,10 +16463,10 @@
         <v>6</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>56</v>
@@ -16323,10 +16516,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>0</v>
@@ -16376,10 +16569,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>1</v>
@@ -16429,10 +16622,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>3</v>
@@ -16482,10 +16675,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>2</v>
@@ -16493,10 +16686,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>4</v>
@@ -16513,7 +16706,7 @@
         <v>85</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>69</v>
@@ -16530,7 +16723,7 @@
         <v>70</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S8" s="13" t="s">
         <v>51</v>
@@ -16547,7 +16740,7 @@
         <v>71</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>7</v>
@@ -16564,7 +16757,7 @@
         <v>72</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S10" s="13" t="s">
         <v>52</v>
@@ -16581,7 +16774,7 @@
         <v>73</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>53</v>
@@ -16598,7 +16791,7 @@
         <v>74</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>54</v>
@@ -16615,7 +16808,7 @@
         <v>75</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>55</v>
@@ -16632,7 +16825,7 @@
         <v>76</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S14" s="13" t="s">
         <v>57</v>
@@ -16640,10 +16833,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S15" s="14" t="s">
         <v>5</v>
@@ -16651,10 +16844,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S16" s="13" t="s">
         <v>6</v>
@@ -16662,10 +16855,10 @@
     </row>
     <row r="17" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S17" s="13" t="s">
         <v>86</v>
@@ -16673,37 +16866,37 @@
     </row>
     <row r="18" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>87</v>
@@ -16711,10 +16904,10 @@
     </row>
     <row r="22" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>13</v>
@@ -16722,19 +16915,19 @@
     </row>
     <row r="23" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S24" s="17" t="s">
         <v>19</v>
@@ -16742,10 +16935,10 @@
     </row>
     <row r="25" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S25" s="17" t="s">
         <v>20</v>
@@ -16753,10 +16946,10 @@
     </row>
     <row r="26" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R26" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S26" s="17" t="s">
         <v>21</v>
@@ -16764,10 +16957,10 @@
     </row>
     <row r="27" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R27" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S27" s="17" t="s">
         <v>22</v>
@@ -16775,10 +16968,10 @@
     </row>
     <row r="28" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S28" s="17" t="s">
         <v>18</v>
@@ -16786,28 +16979,28 @@
     </row>
     <row r="29" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R29" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R30" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R31" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>10</v>
@@ -16815,19 +17008,19 @@
     </row>
     <row r="32" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R33" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S33" s="8" t="s">
         <v>30</v>
@@ -16835,37 +17028,37 @@
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R34" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R35" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R36" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R37" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S37" s="9" t="s">
         <v>9</v>
@@ -16873,19 +17066,19 @@
     </row>
     <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R38" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S38" s="20"/>
     </row>
     <row r="39" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R39" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>12</v>
@@ -16893,10 +17086,10 @@
     </row>
     <row r="40" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R40" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>17</v>
@@ -16904,10 +17097,10 @@
     </row>
     <row r="41" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R41" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S41" s="23" t="s">
         <v>14</v>
@@ -16915,10 +17108,10 @@
     </row>
     <row r="42" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R42" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S42" s="15" t="s">
         <v>15</v>
@@ -16926,10 +17119,10 @@
     </row>
     <row r="43" spans="17:19" ht="30" x14ac:dyDescent="0.25">
       <c r="Q43" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="R43" s="34" t="s">
-        <v>125</v>
       </c>
       <c r="S43" s="21" t="s">
         <v>16</v>
